--- a/logging/datasciencystuff/log_evaluations.xlsx
+++ b/logging/datasciencystuff/log_evaluations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1996,6 +1996,898 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Phi-3-medium-4k-instruct-synthetic_text_to_sql-lora-3epochs-q5_k_m:latest</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1399</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" t="n">
+        <v>626.48</v>
+      </c>
+      <c r="F5" t="n">
+        <v>35.3092</v>
+      </c>
+      <c r="G5" t="n">
+        <v>50</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[(Example({'sql_prompt': 'What is the total retail value of the "Winter 2022" collection for each manufacturer?', 'sql_context': "CREATE TABLE Winter2022 (garment_id INT, manufacturer_id INT, garment_name VARCHAR(50), retail_price DECIMAL(5,2)); INSERT INTO Winter2022 (garment_id, manufacturer_id, garment_name, retail_price) VALUES (1, 100, 'Wool Coat', 250.00), (2, 100, 'Cotton Shirt', 50.00), (3, 200, 'Denim Jeans', 75.00), (4, 200, 'Fleece Hoodie', 50.00); CREATE TABLE Manufacturers (manufacturer_id INT, manufacturer_name VARCHAR(50)); INSERT INTO Manufacturers (manufacturer_id, manufacturer_name) VALUES (100, 'GreenFashions'), (200, 'SustainaWear');", 'sql': 'SELECT m.manufacturer_name, SUM(w.retail_price) FROM Winter2022 w INNER JOIN Manufacturers m ON w.manufacturer_id = m.manufacturer_id GROUP BY m.manufacturer_name;'}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    sql="SELECT m.manufacturer_name, SUM(w.retail_price) as total_retail FROM Winter2022 w JOIN Manufacturers m ON w.manufacturer_id = m.manufacturer_id WHERE w.garment_name LIKE 'Winter 2022%' GROUP BY m.manufacturer_name;"
+), 1), (Example({'sql_prompt': 'What is the total number of traditional art pieces created in each region with a population greater than 500,000?', 'sql_context': "CREATE TABLE regions (id INT, name TEXT, population INT); INSERT INTO regions (id, name, population) VALUES (1, 'West Africa', 6000000), (2, 'Amazon Basin', 500000); CREATE TABLE art_pieces (id INT, region_id INT, type TEXT, year INT); INSERT INTO art_pieces (id, region_id, type, year) VALUES (1, 1, 'Mask', 2000), (2, 1, 'Statue', 1950), (3, 2, 'Painting', 2020);", 'sql': 'SELECT r.name, COUNT(ap.id) FROM regions r JOIN art_pieces ap ON r.id = ap.region_id WHERE r.population &gt; 500000 GROUP BY r.id;'}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    sql='SELECT r.name, COUNT(ap.id) as total_art_pieces FROM regions r JOIN art_pieces ap ON r.id = ap.region_id WHERE r.population &gt; 500000 GROUP BY r.name;'
+), 0), (Example({'sql_prompt': 'What are the total views for all open education resources in each language and format, ordered by views?', 'sql_context': "CREATE TABLE open_education_resources (id INT, title VARCHAR(50), format VARCHAR(10), language VARCHAR(20), views INT); INSERT INTO open_education_resources (id, title, format, language, views) VALUES (1, 'Introduction to SQL', 'Video', 'English', 1000);", 'sql': 'SELECT language, format, SUM(views) as total_views FROM open_education_resources GROUP BY language, format ORDER BY total_views DESC;'}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    sql="SELECT format, language, SUM(views) as total_views FROM open_education_resources WHERE status = 'open' GROUP BY format, language ORDER BY total_views DESC;"
+), 0), (Example({'sql_prompt': 'What is the average age of patients who have been diagnosed with diabetes in the rural health clinic located in Texas?', 'sql_context': "CREATE TABLE rural_clinic (clinic_id INT, location VARCHAR(20), capacity INT); INSERT INTO rural_clinic (clinic_id, location, capacity) VALUES (1, 'Texas', 50); CREATE TABLE patient (patient_id INT, clinic_id INT, age INT, diagnosis VARCHAR(20)); INSERT INTO patient (patient_id, clinic_id, age, diagnosis) VALUES (1, 1, 45, 'diabetes'), (2, 1, 60, 'asthma'), (3, 1, 30, 'diabetes');", 'sql': "SELECT AVG(age) FROM patient WHERE diagnosis = 'diabetes' AND clinic_id = 1;"}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    sql="SELECT AVG(age) FROM patient WHERE diagnosis = 'diabetes' AND clinic_id IN (SELECT clinic_id FROM rural_clinic WHERE location = 'Texas')"
+), 1)]</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>48.31</v>
+      </c>
+      <c r="J5" t="n">
+        <v>25</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>[(Example({'sql_prompt': 'Show the percentage of natural ingredients in each beauty product', 'sql_context': "CREATE TABLE product_ingredients (product VARCHAR(255), ingredient VARCHAR(255), is_natural BOOLEAN); INSERT INTO product_ingredients (product, ingredient, is_natural) VALUES ('Shampoo', 'Water', TRUE), ('Conditioner', 'Silicones', FALSE);", 'sql': 'SELECT product, (SUM(CASE WHEN is_natural THEN 1 ELSE 0 END) * 100.0 / COUNT(*)) AS natural_ingredient_percentage FROM product_ingredients GROUP BY product;'}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    sql='SELECT product, AVG(is_natural::INT) as percentage FROM product_ingredients GROUP BY product;'
+), 1), (Example({'sql_prompt': "What is the average number of employees for companies in the 'Technology' industry, categorized by founding year?", 'sql_context': "CREATE TABLE Company_Info (company_name VARCHAR(50), industry VARCHAR(20), employee_count INT); INSERT INTO Company_Info (company_name, industry, employee_count) VALUES ('Waystar Royco', 'Media', 5000); INSERT INTO Company_Info (company_name, industry, employee_count) VALUES ('Pied Piper', 'Technology', 50); INSERT INTO Company_Info (company_name, industry, employee_count) VALUES ('Austin Biotech', 'Biotechnology', 250); INSERT INTO Company_Info (company_name, industry, employee_count) VALUES ('Everest Technologies', 'Technology', 100);", 'sql': "SELECT founding_year, AVG(employee_count) FROM (SELECT company_name, CASE WHEN industry = 'Technology' THEN founding_year END as founding_year, employee_count FROM Company_Info) t GROUP BY founding_year;"}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    sql="SELECT founding_year, AVG(employee_count) FROM Company_Info WHERE industry = 'Technology' GROUP BY founding_year;"
+), 0), (Example({'sql_prompt': 'What was the average financial wellbeing score for customers of InclusiveFinance in Q3 2021?', 'sql_context': "CREATE TABLE InclusiveFinance (id INT, customer_id INT, score INT, score_date DATE); INSERT INTO InclusiveFinance (id, customer_id, score, score_date) VALUES (1, 3001, 80, '2021-07-01');", 'sql': 'SELECT AVG(score) FROM InclusiveFinance WHERE QUARTER(score_date) = 3 AND YEAR(score_date) = 2021;'}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    sql='SELECT AVG(score) FROM InclusiveFinance WHERE QUARTER(score_date) = 3 AND YEAR(score_date) = 2021;'
+), 0), (Example({'sql_prompt': "Delete all records from the 'threat_intelligence' table for the country of Russia", 'sql_context': 'threat_intelligence(threat_id, country, category, sub_category, description, threat_level)', 'sql': "DELETE FROM threat_intelligence WHERE country = 'Russia';"}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    sql="Delete from threat_intelligence where country = 'Russia';"
+), 0), (Example({'sql_prompt': 'List the number of BIPOC-led startups in the green technology sector with Series B funding or higher', 'sql_context': "CREATE TABLE founders (id INT, company_id INT, ethnicity VARCHAR(255)); CREATE TABLE companies (id INT, industry VARCHAR(255), funding_round VARCHAR(255)); INSERT INTO founders SELECT 1, 1, 'BIPOC'; INSERT INTO founders SELECT 2, 2, 'White'; INSERT INTO founders SELECT 3, 3, 'BIPOC'; INSERT INTO companies (id, industry, funding_round) SELECT 2, 'Finance', 'Series A'; INSERT INTO companies (id, industry, funding_round) SELECT 3, 'Green Technology', 'Series B'; INSERT INTO companies (id, industry, funding_round) SELECT 4, 'Retail', 'Series C';", 'sql': "SELECT COUNT(DISTINCT companies.id) FROM founders JOIN companies ON founders.company_id = companies.id WHERE companies.industry = 'Green Technology' AND founders.ethnicity = 'BIPOC' AND companies.funding_round &gt;= 'Series B';"}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    sql="SELECT COUNT(*) FROM founders JOIN companies ON founders.company_id = companies.id WHERE ethnicity = 'BIPOC' AND industry = 'Green Technology' AND funding_round IN ('Series B', 'Series C', 'Series D', 'Series E');"
+), 1), (Example({'sql_prompt': 'What is the adoption rate of electric vehicles in major cities?', 'sql_context': "CREATE TABLE ElectricVehicleAdoption (City VARCHAR(50), Make VARCHAR(50), Model VARCHAR(50), Year INT, Adoption DECIMAL(5,2)); INSERT INTO ElectricVehicleAdoption (City, Make, Model, Year, Adoption) VALUES ('Los Angeles', 'Tesla', 'Model 3', 2020, 25.3), ('New York', 'Chevrolet', 'Bolt', 2020, 12.6), ('Beijing', 'BYD', 'e5', 2020, 18.8), ('Berlin', 'Audi', 'e-Tron', 2020, 10.5), ('Tokyo', 'Nissan', 'Leaf', 2020, 15.2);", 'sql': 'SELECT City, AVG(Adoption) as Avg_Adoption_Rate FROM ElectricVehicleAdoption GROUP BY City;'}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    sql='SELECT City, AVG(Adoption) FROM ElectricVehicleAdoption GROUP BY City;'
+), 0), (Example({'sql_prompt': 'Identify the number of genetic research projects in each country.', 'sql_context': "CREATE SCHEMA if not exists genetics;CREATE TABLE if not exists genetics.projects (id INT, name VARCHAR(50), country VARCHAR(50)); INSERT INTO genetics.projects (id, name, country) VALUES (1, 'ProjectX', 'UK'), (2, 'ProjectY', 'Germany'), (3, 'ProjectZ', 'UK'), (4, 'ProjectA', 'USA'), (5, 'ProjectB', 'France');", 'sql': 'SELECT country, COUNT(*) FROM genetics.projects GROUP BY country;'}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    sql='SELECT country, COUNT(*) FROM genetics.projects GROUP BY country;'
+), 0), (Example({'sql_prompt': 'Who is the oldest donor from each city?', 'sql_context': "CREATE TABLE donors_2 (id INT PRIMARY KEY, name VARCHAR(50), age INT, city VARCHAR(50), state VARCHAR(50)); INSERT INTO donors_2 (id, name, age, city, state) VALUES (1, 'John Doe', 35, 'New York', 'NY'), (2, 'Jane Smith', 40, 'Buffalo', 'NY'), (3, 'Mike Johnson', 50, 'Boston', 'MA');", 'sql': 'SELECT city, MAX(age) as oldest_donor_age FROM donors_2 GROUP BY city;'}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    sql='SELECT city, MAX(age) as max_age FROM donors_2 GROUP BY city;'
+), 0)]</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="O5" t="n">
+        <v>50</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>[(Example({'sql_prompt': 'What is the total retail value of the "Winter 2022" collection for each manufacturer?', 'sql_context': "CREATE TABLE Winter2022 (garment_id INT, manufacturer_id INT, garment_name VARCHAR(50), retail_price DECIMAL(5,2)); INSERT INTO Winter2022 (garment_id, manufacturer_id, garment_name, retail_price) VALUES (1, 100, 'Wool Coat', 250.00), (2, 100, 'Cotton Shirt', 50.00), (3, 200, 'Denim Jeans', 75.00), (4, 200, 'Fleece Hoodie', 50.00); CREATE TABLE Manufacturers (manufacturer_id INT, manufacturer_name VARCHAR(50)); INSERT INTO Manufacturers (manufacturer_id, manufacturer_name) VALUES (100, 'GreenFashions'), (200, 'SustainaWear');", 'sql': 'SELECT m.manufacturer_name, SUM(w.retail_price) FROM Winter2022 w INNER JOIN Manufacturers m ON w.manufacturer_id = m.manufacturer_id GROUP BY m.manufacturer_name;'}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    rationale='SELECT m.manufacturer_name, SUM(w.retail_price) AS total_retail_value FROM Winter2022 w INNER JOIN Manufacturers m ON w.manufacturer_id = m.manufacturer_id GROUP BY m.manufacturer_name;',
+    sql='SELECT m.manufacturer_name, SUM(w.retail_price) AS total_retail_value FROM Winter2022 w INNER JOIN Manufacturers m ON w.manufacturer_id = m.manufacturer_id GROUP BY m.manufacturer_name;'
+), 1), (Example({'sql_prompt': 'What is the total number of traditional art pieces created in each region with a population greater than 500,000?', 'sql_context': "CREATE TABLE regions (id INT, name TEXT, population INT); INSERT INTO regions (id, name, population) VALUES (1, 'West Africa', 6000000), (2, 'Amazon Basin', 500000); CREATE TABLE art_pieces (id INT, region_id INT, type TEXT, year INT); INSERT INTO art_pieces (id, region_id, type, year) VALUES (1, 1, 'Mask', 2000), (2, 1, 'Statue', 1950), (3, 2, 'Painting', 2020);", 'sql': 'SELECT r.name, COUNT(ap.id) FROM regions r JOIN art_pieces ap ON r.id = ap.region_id WHERE r.population &gt; 500000 GROUP BY r.id;'}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    rationale='SELECT r.name AS region_name, COUNT(ap.id) AS total_art_pieces FROM regions r INNER JOIN art_pieces ap ON r.id = ap.region_id WHERE r.population &gt; 500000 GROUP BY r.name;',
+    sql='SELECT region_name, total_art_pieces FROM (SELECT r.name AS region_name, COUNT(ap.id) AS total_art_pieces FROM regions r INNER JOIN art_pieces ap ON r.id = ap.region_id WHERE r.population &gt; 500000 GROUP BY r.name) t;'
+), 0), (Example({'sql_prompt': 'What are the total views for all open education resources in each language and format, ordered by views?', 'sql_context': "CREATE TABLE open_education_resources (id INT, title VARCHAR(50), format VARCHAR(10), language VARCHAR(20), views INT); INSERT INTO open_education_resources (id, title, format, language, views) VALUES (1, 'Introduction to SQL', 'Video', 'English', 1000);", 'sql': 'SELECT language, format, SUM(views) as total_views FROM open_education_resources GROUP BY language, format ORDER BY total_views DESC;'}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    rationale="SELECT format, language, SUM(views) AS total_views FROM open_education_resources WHERE status = 'open' GROUP BY format, language ORDER BY total_views DESC;",
+    sql="SELECT format, language, SUM(views) AS total_views FROM open_education_resources WHERE status = 'open' GROUP BY format, language ORDER BY total_views DESC;"
+), 0), (Example({'sql_prompt': 'What is the average age of patients who have been diagnosed with diabetes in the rural health clinic located in Texas?', 'sql_context': "CREATE TABLE rural_clinic (clinic_id INT, location VARCHAR(20), capacity INT); INSERT INTO rural_clinic (clinic_id, location, capacity) VALUES (1, 'Texas', 50); CREATE TABLE patient (patient_id INT, clinic_id INT, age INT, diagnosis VARCHAR(20)); INSERT INTO patient (patient_id, clinic_id, age, diagnosis) VALUES (1, 1, 45, 'diabetes'), (2, 1, 60, 'asthma'), (3, 1, 30, 'diabetes');", 'sql': "SELECT AVG(age) FROM patient WHERE diagnosis = 'diabetes' AND clinic_id = 1;"}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    rationale="SELECT AVG(age) FROM patient WHERE clinic_id = 1 AND diagnosis = 'diabetes';",
+    sql="SELECT AVG(age) FROM patient WHERE clinic_id = 1 AND diagnosis = 'diabetes'"
+), 1)]</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>47.29</v>
+      </c>
+      <c r="R5" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>[(Example({'sql_prompt': 'Show the percentage of natural ingredients in each beauty product', 'sql_context': "CREATE TABLE product_ingredients (product VARCHAR(255), ingredient VARCHAR(255), is_natural BOOLEAN); INSERT INTO product_ingredients (product, ingredient, is_natural) VALUES ('Shampoo', 'Water', TRUE), ('Conditioner', 'Silicones', FALSE);", 'sql': 'SELECT product, (SUM(CASE WHEN is_natural THEN 1 ELSE 0 END) * 100.0 / COUNT(*)) AS natural_ingredient_percentage FROM product_ingredients GROUP BY product;'}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    rationale='CREATE VIEW natural_ingredients AS SELECT product, COUNT(*) as num_natural FROM product_ingredients WHERE is_natural = TRUE GROUP BY product; CREATE VIEW total_ingredients AS SELECT product, COUNT(*) as num_total FROM product_ingredients GROUP BY product; SELECT n.product, (n.num_natural * 100.0 / t.num_total) as percentage_natural FROM natural_ingredients n INNER JOIN total_ingredients t ON n.product = t.product;',
+    sql='CREATE VIEW natural_ingredients AS SELECT product, COUNT(*) as num_natural FROM product_ingredients WHERE is_natural = TRUE GROUP BY product; CREATE VIEW total_ingredients AS SELECT product, COUNT(*) as num_total FROM product_ingredients GROUP BY product; SELECT n.product, (n.num_natural * 100.0 / t.num_total) as percentage_natural FROM natural_ingredients n INNER JOIN total_ingredients t ON n.product = t.product;'
+), 1), (Example({'sql_prompt': "What is the average number of employees for companies in the 'Technology' industry, categorized by founding year?", 'sql_context': "CREATE TABLE Company_Info (company_name VARCHAR(50), industry VARCHAR(20), employee_count INT); INSERT INTO Company_Info (company_name, industry, employee_count) VALUES ('Waystar Royco', 'Media', 5000); INSERT INTO Company_Info (company_name, industry, employee_count) VALUES ('Pied Piper', 'Technology', 50); INSERT INTO Company_Info (company_name, industry, employee_count) VALUES ('Austin Biotech', 'Biotechnology', 250); INSERT INTO Company_Info (company_name, industry, employee_count) VALUES ('Everest Technologies', 'Technology', 100);", 'sql': "SELECT founding_year, AVG(employee_count) FROM (SELECT company_name, CASE WHEN industry = 'Technology' THEN founding_year END as founding_year, employee_count FROM Company_Info) t GROUP BY founding_year;"}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    rationale="SELECT founding_year, AVG(employee_count) FROM Company_Info INNER JOIN Founders ON Company_Info.company_name = Founders.company_name WHERE industry = 'Technology' GROUP BY founding_year;",
+    sql="SELECT founding_year, AVG(employee_count) FROM Company_Info INNER JOIN Founders ON Company_Info.company_name = Founders.company_name WHERE industry = 'Technology' GROUP BY founding_year;"
+), 0), (Example({'sql_prompt': 'What was the average financial wellbeing score for customers of InclusiveFinance in Q3 2021?', 'sql_context': "CREATE TABLE InclusiveFinance (id INT, customer_id INT, score INT, score_date DATE); INSERT INTO InclusiveFinance (id, customer_id, score, score_date) VALUES (1, 3001, 80, '2021-07-01');", 'sql': 'SELECT AVG(score) FROM InclusiveFinance WHERE QUARTER(score_date) = 3 AND YEAR(score_date) = 2021;'}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    rationale='SELECT AVG(score) FROM InclusiveFinance WHERE MONTH(score_date) BETWEEN 7 AND 9;',
+    sql='SELECT AVG(score) FROM InclusiveFinance WHERE MONTH(score_date) BETWEEN 7 AND 9;'
+), 0), (Example({'sql_prompt': "Delete all records from the 'threat_intelligence' table for the country of Russia", 'sql_context': 'threat_intelligence(threat_id, country, category, sub_category, description, threat_level)', 'sql': "DELETE FROM threat_intelligence WHERE country = 'Russia';"}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    rationale="Delete all records from the 'threat_intelligence' table for the country of Russia.",
+    sql="DELETE FROM threat_intelligence WHERE country = 'Russia';"
+), 1), (Example({'sql_prompt': 'List the number of BIPOC-led startups in the green technology sector with Series B funding or higher', 'sql_context': "CREATE TABLE founders (id INT, company_id INT, ethnicity VARCHAR(255)); CREATE TABLE companies (id INT, industry VARCHAR(255), funding_round VARCHAR(255)); INSERT INTO founders SELECT 1, 1, 'BIPOC'; INSERT INTO founders SELECT 2, 2, 'White'; INSERT INTO founders SELECT 3, 3, 'BIPOC'; INSERT INTO companies (id, industry, funding_round) SELECT 2, 'Finance', 'Series A'; INSERT INTO companies (id, industry, funding_round) SELECT 3, 'Green Technology', 'Series B'; INSERT INTO companies (id, industry, funding_round) SELECT 4, 'Retail', 'Series C';", 'sql': "SELECT COUNT(DISTINCT companies.id) FROM founders JOIN companies ON founders.company_id = companies.id WHERE companies.industry = 'Green Technology' AND founders.ethnicity = 'BIPOC' AND companies.funding_round &gt;= 'Series B';"}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    rationale="SELECT COUNT(DISTINCT f.company_id) FROM founders f INNER JOIN companies c ON f.company_id = c.id WHERE f.ethnicity = 'BIPOC' AND c.industry = 'Green Technology' AND c.funding_round &gt;= 'Series B';",
+    sql="SELECT COUNT(DISTINCT f.company_id) FROM founders f INNER JOIN companies c ON f.company_id = c.id WHERE f.ethnicity = 'BIPOC' AND c.industry = 'Green Technology' AND c.funding_round &gt;= 'Series B';"
+), 1), (Example({'sql_prompt': 'What is the adoption rate of electric vehicles in major cities?', 'sql_context': "CREATE TABLE ElectricVehicleAdoption (City VARCHAR(50), Make VARCHAR(50), Model VARCHAR(50), Year INT, Adoption DECIMAL(5,2)); INSERT INTO ElectricVehicleAdoption (City, Make, Model, Year, Adoption) VALUES ('Los Angeles', 'Tesla', 'Model 3', 2020, 25.3), ('New York', 'Chevrolet', 'Bolt', 2020, 12.6), ('Beijing', 'BYD', 'e5', 2020, 18.8), ('Berlin', 'Audi', 'e-Tron', 2020, 10.5), ('Tokyo', 'Nissan', 'Leaf', 2020, 15.2);", 'sql': 'SELECT City, AVG(Adoption) as Avg_Adoption_Rate FROM ElectricVehicleAdoption GROUP BY City;'}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    rationale='What is the average adoption rate of electric vehicles for each city?',
+    sql='SELECT City, AVG(Adoption) FROM ElectricVehicleAdoption GROUP BY City;'
+), 0), (Example({'sql_prompt': 'Identify the number of genetic research projects in each country.', 'sql_context': "CREATE SCHEMA if not exists genetics;CREATE TABLE if not exists genetics.projects (id INT, name VARCHAR(50), country VARCHAR(50)); INSERT INTO genetics.projects (id, name, country) VALUES (1, 'ProjectX', 'UK'), (2, 'ProjectY', 'Germany'), (3, 'ProjectZ', 'UK'), (4, 'ProjectA', 'USA'), (5, 'ProjectB', 'France');", 'sql': 'SELECT country, COUNT(*) FROM genetics.projects GROUP BY country;'}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    rationale="CREATE SCHEMA if not exists genetics; CREATE TABLE if not exists genetics.projects (id INT, name VARCHAR(50), country VARCHAR(50)); INSERT INTO genetics.projects (id, name, country) VALUES (1, 'ProjectX', 'UK'), (2, 'ProjectY', 'Germany'), (3, 'ProjectZ', 'UK'), (4, 'ProjectA', 'USA'), (5, 'ProjectB', 'France');",
+    sql="CREATE SCHEMA if not exists genetics; CREATE TABLE if not exists genetics.projects (id INT, name VARCHAR(50), country VARCHAR(50)); INSERT INTO genetics.projects (id, name, country) VALUES (1, 'ProjectX', 'UK'), (2, 'ProjectY', 'Germany'), (3, 'ProjectZ', 'UK'), (4, 'ProjectA', 'USA'), (5, 'ProjectB', 'France');"
+), 0), (Example({'sql_prompt': 'Who is the oldest donor from each city?', 'sql_context': "CREATE TABLE donors_2 (id INT PRIMARY KEY, name VARCHAR(50), age INT, city VARCHAR(50), state VARCHAR(50)); INSERT INTO donors_2 (id, name, age, city, state) VALUES (1, 'John Doe', 35, 'New York', 'NY'), (2, 'Jane Smith', 40, 'Buffalo', 'NY'), (3, 'Mike Johnson', 50, 'Boston', 'MA');", 'sql': 'SELECT city, MAX(age) as oldest_donor_age FROM donors_2 GROUP BY city;'}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    rationale='SELECT city, MAX(age) AS max_age FROM donors_2 GROUP BY city; SELECT d.name, d.city, d.state, d.age FROM donors_2 d JOIN (SELECT city, MAX(age) AS max_age FROM donors_2 GROUP BY city) md ON d.city = md.city AND d.age = md.max_age;',
+    sql="CREATE TABLE donors_3 (id INT PRIMARY KEY, name VARCHAR(50), age INT, city VARCHAR(50), state VARCHAR(50)); INSERT INTO donors_3 (id, name, age, city, state) VALUES (1, 'John Doe', 35, 'New York', 'NY'), (2, 'Jane Smith', 40, 'Buffalo', 'NY'), (3, 'Mike Johnson', 50, 'Boston', 'MA'); SELECT d.name, d.city, d.state, d.age FROM donors_3 d JOIN (SELECT city, MAX(age) AS max_age FROM donors_"
+), 0)]</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>394.31</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="X5" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>[(Example({'sql_prompt': 'What is the total retail value of the "Winter 2022" collection for each manufacturer?', 'sql_context': "CREATE TABLE Winter2022 (garment_id INT, manufacturer_id INT, garment_name VARCHAR(50), retail_price DECIMAL(5,2)); INSERT INTO Winter2022 (garment_id, manufacturer_id, garment_name, retail_price) VALUES (1, 100, 'Wool Coat', 250.00), (2, 100, 'Cotton Shirt', 50.00), (3, 200, 'Denim Jeans', 75.00), (4, 200, 'Fleece Hoodie', 50.00); CREATE TABLE Manufacturers (manufacturer_id INT, manufacturer_name VARCHAR(50)); INSERT INTO Manufacturers (manufacturer_id, manufacturer_name) VALUES (100, 'GreenFashions'), (200, 'SustainaWear');", 'sql': 'SELECT m.manufacturer_name, SUM(w.retail_price) FROM Winter2022 w INNER JOIN Manufacturers m ON w.manufacturer_id = m.manufacturer_id GROUP BY m.manufacturer_name;'}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    rationale='Sql: SELECT m.manufacturer_name, SUM(w.retail_price) AS total_retail_value FROM Winter2022 w JOIN Manufacturers m ON w.manufacturer_id = m.manufacturer_id GROUP BY m.manufacturer_name;',
+    sql='SELECT m.manufacturer_name, SUM(w.retail_price) AS total_retail_value FROM Winter2022 w JOIN Manufacturers m ON w.manufacturer_id = m.manufacturer_id GROUP BY m.manufacturer_name;'
+), 1), (Example({'sql_prompt': 'What is the total number of traditional art pieces created in each region with a population greater than 500,000?', 'sql_context': "CREATE TABLE regions (id INT, name TEXT, population INT); INSERT INTO regions (id, name, population) VALUES (1, 'West Africa', 6000000), (2, 'Amazon Basin', 500000); CREATE TABLE art_pieces (id INT, region_id INT, type TEXT, year INT); INSERT INTO art_pieces (id, region_id, type, year) VALUES (1, 1, 'Mask', 2000), (2, 1, 'Statue', 1950), (3, 2, 'Painting', 2020);", 'sql': 'SELECT r.name, COUNT(ap.id) FROM regions r JOIN art_pieces ap ON r.id = ap.region_id WHERE r.population &gt; 500000 GROUP BY r.id;'}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    rationale='Sql: SELECT r.name, COUNT(ap.id) AS total_art_pieces FROM regions r JOIN art_pieces ap ON r.id = ap.region_id WHERE r.population &gt; 500000 GROUP BY r.name;',
+    sql='SELECT r.name, COUNT(ap.id) AS total_art_pieces FROM regions r JOIN art_pieces ap ON r.id = ap.region_id WHERE r.population &gt; 500000 GROUP BY r.name;'
+), 0), (Example({'sql_prompt': 'What are the total views for all open education resources in each language and format, ordered by views?', 'sql_context': "CREATE TABLE open_education_resources (id INT, title VARCHAR(50), format VARCHAR(10), language VARCHAR(20), views INT); INSERT INTO open_education_resources (id, title, format, language, views) VALUES (1, 'Introduction to SQL', 'Video', 'English', 1000);", 'sql': 'SELECT language, format, SUM(views) as total_views FROM open_education_resources GROUP BY language, format ORDER BY total_views DESC;'}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    rationale='Sql: SELECT o.format, o.language, SUM(o.views) AS total_views FROM open_education_resources o GROUP BY o.format, o.language ORDER BY total_views DESC;',
+    sql='SELECT o.format, o.language, SUM(o.views) AS total_views FROM open_education_resources o GROUP BY o.format, o.language ORDER BY total_views DESC;'
+), 0), (Example({'sql_prompt': 'What is the average age of patients who have been diagnosed with diabetes in the rural health clinic located in Texas?', 'sql_context': "CREATE TABLE rural_clinic (clinic_id INT, location VARCHAR(20), capacity INT); INSERT INTO rural_clinic (clinic_id, location, capacity) VALUES (1, 'Texas', 50); CREATE TABLE patient (patient_id INT, clinic_id INT, age INT, diagnosis VARCHAR(20)); INSERT INTO patient (patient_id, clinic_id, age, diagnosis) VALUES (1, 1, 45, 'diabetes'), (2, 1, 60, 'asthma'), (3, 1, 30, 'diabetes');", 'sql': "SELECT AVG(age) FROM patient WHERE diagnosis = 'diabetes' AND clinic_id = 1;"}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    rationale="SELECT AVG(age) FROM patient WHERE clinic_id = 1 AND diagnosis = 'diabetes';",
+    sql="SELECT AVG(age) FROM patient WHERE clinic_id = 1 AND diagnosis = 'diabetes';"
+), 1)]</t>
+        </is>
+      </c>
+      <c r="Z5" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>[(Example({'sql_prompt': 'Show the percentage of natural ingredients in each beauty product', 'sql_context': "CREATE TABLE product_ingredients (product VARCHAR(255), ingredient VARCHAR(255), is_natural BOOLEAN); INSERT INTO product_ingredients (product, ingredient, is_natural) VALUES ('Shampoo', 'Water', TRUE), ('Conditioner', 'Silicones', FALSE);", 'sql': 'SELECT product, (SUM(CASE WHEN is_natural THEN 1 ELSE 0 END) * 100.0 / COUNT(*)) AS natural_ingredient_percentage FROM product_ingredients GROUP BY product;'}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    rationale='CREATE VIEW natural_ingredients AS SELECT product, COUNT(*) as num_natural FROM product_ingredients WHERE is_natural = TRUE GROUP BY product; CREATE VIEW total_ingredients AS SELECT product, COUNT(*) as num_total FROM product_ingredients GROUP BY product; SELECT n.product, (n.num_natural * 100.0 / t.num_total) as percentage_natural FROM natural_ingredients n JOIN total_ingredients t ON n.product = t.product;',
+    sql='CREATE VIEW natural_ingredients AS SELECT product, COUNT(*) as num_natural FROM product_ingredients WHERE is_natural = TRUE GROUP BY product; CREATE VIEW total_ingredients AS SELECT product, COUNT(*) as num_total FROM product_ingredients GROUP BY product; SELECT n.product, (n.num_natural * 100.0 / t.num_total) as percentage_natural FROM natural_ingredients n JOIN total_ingredients t ON n.product = t.product;'
+), 1), (Example({'sql_prompt': "What is the average number of employees for companies in the 'Technology' industry, categorized by founding year?", 'sql_context': "CREATE TABLE Company_Info (company_name VARCHAR(50), industry VARCHAR(20), employee_count INT); INSERT INTO Company_Info (company_name, industry, employee_count) VALUES ('Waystar Royco', 'Media', 5000); INSERT INTO Company_Info (company_name, industry, employee_count) VALUES ('Pied Piper', 'Technology', 50); INSERT INTO Company_Info (company_name, industry, employee_count) VALUES ('Austin Biotech', 'Biotechnology', 250); INSERT INTO Company_Info (company_name, industry, employee_count) VALUES ('Everest Technologies', 'Technology', 100);", 'sql': "SELECT founding_year, AVG(employee_count) FROM (SELECT company_name, CASE WHEN industry = 'Technology' THEN founding_year END as founding_year, employee_count FROM Company_Info) t GROUP BY founding_year;"}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    rationale="SELECT founding_year, AVG(employee_count) FROM Company_Info JOIN Founders ON Company_Info.company_name = Founders.company_name WHERE industry = 'Technology' GROUP BY founding_year;",
+    sql="SELECT founding_year, AVG(employee_count) FROM Company_Info JOIN Founders ON Company_Info.company_name = Founders.company_name WHERE industry = 'Technology' GROUP BY founding_year;"
+), 0), (Example({'sql_prompt': 'What was the average financial wellbeing score for customers of InclusiveFinance in Q3 2021?', 'sql_context': "CREATE TABLE InclusiveFinance (id INT, customer_id INT, score INT, score_date DATE); INSERT INTO InclusiveFinance (id, customer_id, score, score_date) VALUES (1, 3001, 80, '2021-07-01');", 'sql': 'SELECT AVG(score) FROM InclusiveFinance WHERE QUARTER(score_date) = 3 AND YEAR(score_date) = 2021;'}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    rationale='SELECT AVG(score) FROM InclusiveFinance WHERE QUARTER(score_date) = 3 AND YEAR(score_date) = 2021;',
+    sql='SELECT AVG(score) FROM InclusiveFinance WHERE QUARTER(score_date) = 3 AND YEAR(score_date) = 2021;'
+), 0), (Example({'sql_prompt': "Delete all records from the 'threat_intelligence' table for the country of Russia", 'sql_context': 'threat_intelligence(threat_id, country, category, sub_category, description, threat_level)', 'sql': "DELETE FROM threat_intelligence WHERE country = 'Russia';"}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    rationale="Delete all records from the 'threat_intelligence' table for the country of Russia",
+    sql="DELETE FROM threat_intelligence WHERE country = 'Russia';"
+), 1), (Example({'sql_prompt': 'List the number of BIPOC-led startups in the green technology sector with Series B funding or higher', 'sql_context': "CREATE TABLE founders (id INT, company_id INT, ethnicity VARCHAR(255)); CREATE TABLE companies (id INT, industry VARCHAR(255), funding_round VARCHAR(255)); INSERT INTO founders SELECT 1, 1, 'BIPOC'; INSERT INTO founders SELECT 2, 2, 'White'; INSERT INTO founders SELECT 3, 3, 'BIPOC'; INSERT INTO companies (id, industry, funding_round) SELECT 2, 'Finance', 'Series A'; INSERT INTO companies (id, industry, funding_round) SELECT 3, 'Green Technology', 'Series B'; INSERT INTO companies (id, industry, funding_round) SELECT 4, 'Retail', 'Series C';", 'sql': "SELECT COUNT(DISTINCT companies.id) FROM founders JOIN companies ON founders.company_id = companies.id WHERE companies.industry = 'Green Technology' AND founders.ethnicity = 'BIPOC' AND companies.funding_round &gt;= 'Series B';"}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    rationale="CREATE VIEW bipoc_green_tech AS SELECT f.company_id FROM founders f JOIN companies c ON f.company_id = c.id WHERE f.ethnicity = 'BIPOC' AND c.industry = 'Green Technology'; SELECT COUNT(*) as num_bipoc_led_startups FROM bipoc_green_tech;",
+    sql="CREATE VIEW bipoc_green_tech AS SELECT f.company_id FROM founders f JOIN companies c ON f.company_id = c.id WHERE f.ethnicity = 'BIPOC' AND c.industry = 'Green Technology'; SELECT COUNT(*) as num_bipoc_led_startups FROM bipoc_green_tech;"
+), 1), (Example({'sql_prompt': 'What is the adoption rate of electric vehicles in major cities?', 'sql_context': "CREATE TABLE ElectricVehicleAdoption (City VARCHAR(50), Make VARCHAR(50), Model VARCHAR(50), Year INT, Adoption DECIMAL(5,2)); INSERT INTO ElectricVehicleAdoption (City, Make, Model, Year, Adoption) VALUES ('Los Angeles', 'Tesla', 'Model 3', 2020, 25.3), ('New York', 'Chevrolet', 'Bolt', 2020, 12.6), ('Beijing', 'BYD', 'e5', 2020, 18.8), ('Berlin', 'Audi', 'e-Tron', 2020, 10.5), ('Tokyo', 'Nissan', 'Leaf', 2020, 15.2);", 'sql': 'SELECT City, AVG(Adoption) as Avg_Adoption_Rate FROM ElectricVehicleAdoption GROUP BY City;'}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    rationale='What is the average adoption rate of electric vehicles in major cities?',
+    sql='SELECT City, AVG(Adoption) FROM ElectricVehicleAdoption GROUP BY City;'
+), 0), (Example({'sql_prompt': 'Identify the number of genetic research projects in each country.', 'sql_context': "CREATE SCHEMA if not exists genetics;CREATE TABLE if not exists genetics.projects (id INT, name VARCHAR(50), country VARCHAR(50)); INSERT INTO genetics.projects (id, name, country) VALUES (1, 'ProjectX', 'UK'), (2, 'ProjectY', 'Germany'), (3, 'ProjectZ', 'UK'), (4, 'ProjectA', 'USA'), (5, 'ProjectB', 'France');", 'sql': 'SELECT country, COUNT(*) FROM genetics.projects GROUP BY country;'}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    rationale="CREATE SCHEMA if not exists genetics; CREATE TABLE if not exists genetics.projects (id INT, name VARCHAR(50), country VARCHAR(50)); INSERT INTO genetics.projects (id, name, country) VALUES (1, 'ProjectX', 'UK'), (2, 'ProjectY', 'Germany'), (3, 'ProjectZ', 'UK'), (4, 'ProjectA', 'USA'), (5, 'ProjectB', 'France');",
+    sql='SELECT country, COUNT(*) FROM genetics.projects GROUP BY country;'
+), 0), (Example({'sql_prompt': 'Who is the oldest donor from each city?', 'sql_context': "CREATE TABLE donors_2 (id INT PRIMARY KEY, name VARCHAR(50), age INT, city VARCHAR(50), state VARCHAR(50)); INSERT INTO donors_2 (id, name, age, city, state) VALUES (1, 'John Doe', 35, 'New York', 'NY'), (2, 'Jane Smith', 40, 'Buffalo', 'NY'), (3, 'Mike Johnson', 50, 'Boston', 'MA');", 'sql': 'SELECT city, MAX(age) as oldest_donor_age FROM donors_2 GROUP BY city;'}) (input_keys={'sql_context', 'sql_prompt'}), Prediction(
+    rationale='Sql: SELECT city, MAX(age) AS max_age FROM donors_2 GROUP BY city;',
+    sql='SELECT city, MAX(age) AS max_age FROM donors_2 GROUP BY city;'
+), 0)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Phi-3-medium-4k-instruct-synthetic_text_to_sql-lora-3epochs-q5_k_m:latest</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1399</v>
+      </c>
+      <c r="D6" t="n">
+        <v>200</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2235.44</v>
+      </c>
+      <c r="F6" t="n">
+        <v>136.208</v>
+      </c>
+      <c r="G6" t="n">
+        <v>60</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[(Example({'sql_prompt': 'What is the average attendance at NFL games?', 'sql_context': "CREATE TABLE nfl_games (game_date DATE, home_team VARCHAR(100), away_team VARCHAR(100), attendance INT); INSERT INTO nfl_games VALUES ('2022-01-09', 'Los Angeles Rams', 'Arizona Cardinals', 74200), ('2022-01-09', 'Tampa Bay Buccaneers', 'Philadelphia Eagles', 65890), ('2022-01-09', 'Dallas Cowboys', 'San Francisco 49ers', 93753);", 'sql': 'SELECT AVG(attendance) FROM nfl_games;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql='SELECT AVG(attendance) FROM nfl_games;'
+), 1), (Example({'sql_prompt': "Compare the landfill capacity of 'Ontario' and 'Quebec'", 'sql_context': "CREATE TABLE landfill_capacity (id INT, region VARCHAR(20), capacity INT); INSERT INTO landfill_capacity (id, region, capacity) VALUES (1, 'Ontario', 400000), (2, 'Quebec', 500000);", 'sql': "SELECT region, capacity FROM landfill_capacity WHERE region IN ('Ontario', 'Quebec');"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT region, capacity FROM landfill_capacity WHERE region IN ('Ontario', 'Quebec');"
+), 0), (Example({'sql_prompt': 'What is the number of smart contracts developed by individuals from underrepresented communities in the Ethereum network?', 'sql_context': "CREATE TABLE if not exists smart_contracts (contract_id INT, contract_address VARCHAR(255), developer_community VARCHAR(255)); INSERT INTO smart_contracts (contract_id, contract_address, developer_community) VALUES (1, '0x123...', 'Women in Tech'), (2, '0x456...', 'Minority Ethnic Group'), (3, '0x789...', 'LGBTQ+'), (4, '0xabc...', 'People with Disabilities'), (5, '0xdef...', 'Indigenous People'), (6, '0xghi...', 'Young Developers');", 'sql': "SELECT COUNT(*) FROM smart_contracts WHERE developer_community IN ('Women in Tech', 'Minority Ethnic Group', 'LGBTQ+', 'People with Disabilities', 'Indigenous People', 'Young Developers');"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql='SELECT COUNT(*) FROM smart_contracts WHERE developer_community IS NOT NULL;'
+), 0), (Example({'sql_prompt': 'What is the average safety score for each creative AI application, grouped by region?', 'sql_context': "CREATE TABLE CreativeAIs (id INT, name VARCHAR(50), safety_score INT, region VARCHAR(50)); INSERT INTO CreativeAIs (id, name, safety_score, region) VALUES (1, 'AI Painter', 85, 'North America'); INSERT INTO CreativeAIs (id, name, safety_score, region) VALUES (2, 'AI Music Composer', 90, 'Europe'); INSERT INTO CreativeAIs (id, name, safety_score, region) VALUES (3, 'AI Poet', 80, 'Asia');", 'sql': 'SELECT region, AVG(safety_score) as avg_safety_score FROM CreativeAIs GROUP BY region;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql='SELECT region, AVG(safety_score) as avg_safety_score FROM CreativeAIs GROUP BY region;'
+), 1), (Example({'sql_prompt': 'Delete the row with the lowest quantity of Gadolinium produced in 2020.', 'sql_context': "CREATE TABLE gadolinium_production (id INT, name VARCHAR(255), element VARCHAR(10), country VARCHAR(100), production_date DATE, quantity FLOAT); INSERT INTO gadolinium_production (id, name, element, country, production_date, quantity) VALUES (1, 'Company A', 'Gd', 'China', '2020-01-01', 15.0), (2, 'Company B', 'Gd', 'Australia', '2020-01-15', 20.0), (3, 'Company C', 'Gd', 'Malaysia', '2020-02-01', 25.0), (4, 'Company D', 'Gd', 'China', '2020-02-15', 30.0), (5, 'Company E', 'Gd', 'Australia', '2020-03-01', 35.0);", 'sql': "DELETE FROM gadolinium_production WHERE (name, element, production_date, quantity) IN (SELECT name, element, production_date, MIN(quantity) FROM gadolinium_production WHERE element = 'Gd' AND YEAR(production_date) = 2020 GROUP BY name, element, production_date);"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="DELETE FROM gadolinium_production WHERE id = (SELECT id FROM gadolinium_production WHERE element = 'Gd' AND production_date BETWEEN '2020-01-01' AND LAST_DAY('2020-12-31') ORDER BY quantity ASC LIMIT 1);"
+), 0), (Example({'sql_prompt': 'List the broadband subscribers with compliance issues and the corresponding compliance issue description.', 'sql_context': "CREATE TABLE broadband_subscribers (subscriber_id INT, name VARCHAR(50), has_compliance_issue INT); CREATE TABLE compliance_issues (issue_id INT, description VARCHAR(100)); INSERT INTO broadband_subscribers (subscriber_id, name, has_compliance_issue) VALUES (1, 'Jane Doe', 1); INSERT INTO compliance_issues (issue_id, description) VALUES (1, 'Non-payment of annual fee');", 'sql': 'SELECT subscribers.name, compliance_issues.description FROM broadband_subscribers AS subscribers JOIN compliance_issues ON subscribers.has_compliance_issue = compliance_issues.issue_id;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql='SELECT broadband_subscribers.name, compliance_issues.description FROM broadband_subscribers INNER JOIN compliance_issues ON 1=1 WHERE broadband_subscribers.has_compliance_issue = 1;'
+), 0), (Example({'sql_prompt': 'List faculty diversity metrics including the number of female, male, and non-binary faculty members in the Mathematics department', 'sql_context': "CREATE TABLE Department (id INT, name VARCHAR(255)); INSERT INTO Department (id, name) VALUES (1, 'Computer Science'), (2, 'Physics'), (3, 'Mathematics'), (4, 'English'); CREATE TABLE Faculty (id INT, name VARCHAR(255), gender VARCHAR(10), department_id INT); INSERT INTO Faculty (id, name, gender, department_id) VALUES (1, 'John Doe', 'Male', 1), (2, 'Jane Smith', 'Female', 3), (3, 'Jamie Johnson', 'Non-binary', 2), (4, 'Alice Davis', 'Female', 3), (5, 'Bob Brown', 'Male', 1);", 'sql': "SELECT f.gender, COUNT(*) as num_faculty FROM Faculty f WHERE f.department_id = (SELECT id FROM Department WHERE name = 'Mathematics') GROUP BY f.gender;"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql='SELECT department_id as dept_id, gender, COUNT(*) as count FROM Faculty GROUP BY department_id, gender HAVING department_id = 3;'
+), 0), (Example({'sql_prompt': 'Delete the record of employee with ID 2', 'sql_context': "CREATE SCHEMA IF NOT EXISTS hr;CREATE TABLE IF NOT EXISTS employees (id INT, name VARCHAR(50), department VARCHAR(50), hire_date DATE);INSERT INTO employees (id, name, department, hire_date) VALUES (1, 'John Doe', 'IT', '2020-01-15');INSERT INTO employees (id, name, department, hire_date) VALUES (2, 'Jane Smith', 'HR', '2019-06-20');INSERT INTO employees (id, name, department, hire_date) VALUES (3, 'Jim Brown', 'Finance', '2020-04-01');", 'sql': 'DELETE FROM hr.employees WHERE id = 2;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql='DELETE FROM hr.employees WHERE id = 2;'
+), 0), (Example({'sql_prompt': 'What is the virtual tour engagement rate for the top 2 countries with the highest engagement rates, ordered by engagement rate in descending order?', 'sql_context': "CREATE TABLE virtual_tours (tour_id INT, hotel_name TEXT, country TEXT, engagement_rate FLOAT); INSERT INTO virtual_tours (tour_id, hotel_name, country, engagement_rate) VALUES (1, 'Hotel A', 'USA', 0.06), (2, 'Hotel B', 'Canada', 0.08), (3, 'Hotel C', 'Mexico', 0.05), (4, 'Hotel D', 'USA', 0.07);", 'sql': 'SELECT country, engagement_rate FROM (SELECT country, engagement_rate, RANK() OVER (ORDER BY engagement_rate DESC) as rank FROM virtual_tours) as subquery WHERE rank &lt;= 2 ORDER BY engagement_rate DESC;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql='SELECT country, engagement_rate FROM virtual_tours WHERE row_number() OVER(ORDER BY engagement_rate DESC) &lt;= 2;'
+), 0), (Example({'sql_prompt': 'What is the difference in average salary between employees who have and have not completed diversity and inclusion training, by job title and region?', 'sql_context': "CREATE TABLE Employees (EmployeeID INT, Gender VARCHAR(10), JobTitle VARCHAR(50), Region VARCHAR(50), Salary INT, CompletedDiversityTraining BOOLEAN); INSERT INTO Employees (EmployeeID, Gender, JobTitle, Region, Salary, CompletedDiversityTraining) VALUES (1, 'Male', 'Manager', 'North', 70000, TRUE), (2, 'Female', 'Manager', 'South', 65000, FALSE), (3, 'Male', 'Developer', 'East', 60000, TRUE), (4, 'Female', 'Developer', 'West', 62000, FALSE);", 'sql': 'SELECT Region, JobTitle, AVG(CASE WHEN CompletedDiversityTraining THEN Salary ELSE NULL END) - AVG(CASE WHEN NOT CompletedDiversityTraining THEN Salary ELSE NULL END) AS Salary_Difference FROM Employees GROUP BY Region, JobTitle;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql='SELECT e.JobTitle, e.Region, AVG(CASE WHEN e.CompletedDiversityTraining = TRUE THEN e.Salary ELSE NULL END) - AVG(CASE WHEN e.CompletedDiversityTraining = FALSE THEN e.Salary ELSE NULL END) as salary_difference FROM Employees e GROUP BY e.JobTitle, e.Region;'
+), 1), (Example({'sql_prompt': 'What is the total number of eco-friendly hotels in Rome?', 'sql_context': "CREATE TABLE eco_hotels (hotel_id INT, city TEXT, sustainable_certification BOOLEAN); INSERT INTO eco_hotels (hotel_id, city, sustainable_certification) VALUES (1, 'Rome', true), (2, 'Rome', false);", 'sql': "SELECT COUNT(*) FROM eco_hotels WHERE city = 'Rome' AND sustainable_certification = true;"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT COUNT(*) FROM eco_hotels WHERE city = 'Rome' AND sustainable_certification = true;"
+), 1), (Example({'sql_prompt': 'What was the change in water consumption between 2020 and 2021 for each city?', 'sql_context': "CREATE TABLE city_water_usage (city VARCHAR(50), year INT, consumption INT); INSERT INTO city_water_usage (city, year, consumption) VALUES ('CityA', 2019, 1200), ('CityA', 2020, 1500), ('CityA', 2021, 1700), ('CityB', 2019, 1000), ('CityB', 2020, 1100), ('CityB', 2021, 1300);", 'sql': 'SELECT a.city, (a.consumption - b.consumption) AS consumption_change FROM city_water_usage a INNER JOIN city_water_usage b ON a.city = b.city AND a.year = 2021 AND b.year = 2020;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql='SELECT city, (consumption_2021 - consumption_2020) AS change FROM (SELECT city, MAX(CASE WHEN year = 2021 THEN consumption END) AS consumption_2021, MAX(CASE WHEN year = 2020 THEN consumption END) AS consumption_2020 FROM city_water_usage GROUP BY city) subquery;'
+), 0), (Example({'sql_prompt': "Add a new soccer match to the 'matches' table with the given details.", 'sql_context': 'CREATE TABLE matches (match_id INT, home_team TEXT, away_team TEXT, home_goals INT, away_goals INT, match_date DATE);', 'sql': "INSERT INTO matches (match_id, home_team, away_team, home_goals, away_goals, match_date) VALUES (1, 'Barcelona', 'Real Madrid', 3, 2, '2022-10-02');"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="INSERT INTO matches (match_id, home_team, away_team, home_goals, away_goals, match_date) VALUES (106, 'Barcelona', 'Real Madrid', 3, 2, '2023-04-15');"
+), 0), (Example({'sql_prompt': 'What is the average population size of marine turtles?', 'sql_context': "CREATE TABLE marine_species (name TEXT, category TEXT, population INT); INSERT INTO marine_species (name, category, population) VALUES ('Leatherback Turtle', 'Turtle', 5000), ('Green Sea Turtle', 'Turtle', 8000), ('Loggerhead Turtle', 'Turtle', 6000);", 'sql': "SELECT AVG(population) FROM marine_species WHERE category = 'Turtle';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT AVG(population) FROM marine_species WHERE category = 'Turtle';"
+), 1), (Example({'sql_prompt': 'Which excavation sites have over 2000 artifacts?', 'sql_context': "CREATE TABLE Excavation_Sites (Site_ID INT, Site_Name TEXT, Country TEXT, Number_of_Artifacts INT);INSERT INTO Excavation_Sites (Site_ID, Site_Name, Country, Number_of_Artifacts) VALUES (1, 'Pompeii', 'Italy', 10000);INSERT INTO Excavation_Sites (Site_ID, Site_Name, Country, Number_of_Artifacts) VALUES (2, 'Tutankhamun', 'Egypt', 5000);INSERT INTO Excavation_Sites (Site_ID, Site_Name, Country, Number_of_Artifacts) VALUES (3, 'Machu Picchu', 'Peru', 3000);INSERT INTO Excavation_Sites (Site_ID, Site_Name, Country, Number_of_Artifacts) VALUES (4, 'Angkor Wat', 'Cambodia', 2500);INSERT INTO Excavation_Sites (Site_ID, Site_Name, Country, Number_of_Artifacts) VALUES (5, 'Teotihuacan', 'Mexico', 2001);", 'sql': 'SELECT Site_ID, Site_Name, Number_of_Artifacts FROM Excavation_Sites WHERE Number_of_Artifacts &gt; 2000;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql='SELECT Site_Name FROM Excavation_Sites WHERE Number_of_Artifacts &gt; 2000;'
+), 1), (Example({'sql_prompt': "Insert a new record into the 'energy_storage' table for a flow battery with 5 MWh capacity, located in 'Quebec'", 'sql_context': 'CREATE TABLE energy_storage (id INT PRIMARY KEY, technology VARCHAR(255), capacity FLOAT, location VARCHAR(255));', 'sql': "INSERT INTO energy_storage (technology, capacity, location) VALUES ('flow', 5, 'Quebec');"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="INSERT INTO energy_storage (technology, capacity, location) VALUES ('flow battery', 5.0, 'Quebec');"
+), 1), (Example({'sql_prompt': 'How many employees were hired in each month of 2022?', 'sql_context': "CREATE TABLE Employees (EmployeeID INT, HireDate DATE); INSERT INTO Employees (EmployeeID, HireDate) VALUES (1, '2022-01-15'); INSERT INTO Employees (EmployeeID, HireDate) VALUES (2, '2022-02-01');", 'sql': "SELECT EXTRACT(MONTH FROM HireDate) AS Month, COUNT(*) AS NumberOfHires FROM Employees WHERE HireDate BETWEEN '2022-01-01' AND '2022-12-31' GROUP BY Month;"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT DATE_FORMAT(HireDate, '%Y-%m') AS Month, COUNT(*) FROM Employees GROUP BY Month;"
+), 1), (Example({'sql_prompt': 'What is the total revenue from concert ticket sales for artists who identify as transgender, in the last year?', 'sql_context': 'CREATE TABLE concerts (id INT, artist_id INT, location VARCHAR(255), revenue DECIMAL(10,2), concert_date DATE); CREATE TABLE artists (id INT, gender VARCHAR(255));', 'sql': "SELECT SUM(revenue) FROM concerts INNER JOIN artists ON concerts.artist_id = artists.id WHERE artists.gender LIKE '%transgender%' AND concert_date &gt;= NOW() - INTERVAL 1 YEAR;"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT SUM(revenue) as total_revenue FROM concerts JOIN artists ON concerts.artist_id = artists.id WHERE artists.gender = 'transgender' AND concert_date &gt;= DATEADD(year, -1, GETDATE());"
+), 1), (Example({'sql_prompt': "What is the average donation amount in 'Asia' region?", 'sql_context': "CREATE TABLE donations (id INT, donor_id INT, donation_amount DECIMAL(10,2), region VARCHAR(50)); INSERT INTO donations (id, donor_id, donation_amount, region) VALUES (1, 1, 100.00, 'Asia'); INSERT INTO donations (id, donor_id, donation_amount, region) VALUES (2, 2, 200.00, 'Africa'); INSERT INTO donations (id, donor_id, donation_amount, region) VALUES (3, 3, 300.00, 'Europe');", 'sql': "SELECT AVG(donation_amount) FROM donations WHERE region = 'Asia';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT AVG(donation_amount) FROM donations WHERE region = 'Asia';"
+), 1), (Example({'sql_prompt': 'What is the total production of iron mines in Russia?', 'sql_context': "CREATE TABLE mine (id INT, name TEXT, location TEXT, mineral TEXT, production INT); INSERT INTO mine (id, name, location, mineral, production) VALUES (1, 'Mikhailovsky GOK', 'Russia', 'Iron', 12000), (2, 'Lebedinsky GOK', 'Russia', 'Iron', 15000);", 'sql': "SELECT SUM(production) FROM mine WHERE mineral = 'Iron' AND location = 'Russia';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT SUM(production) FROM mine WHERE mineral = 'Iron' AND location = 'Russia';"
+), 1), (Example({'sql_prompt': "What is the total quantity of 'Tencel Lyocell' and 'Bamboo Viscose' fabrics in stock?", 'sql_context': "CREATE TABLE inventory (id INT PRIMARY KEY, fabric_name VARCHAR(50), size VARCHAR(10), quantity INT, color VARCHAR(10)); INSERT INTO inventory (id, fabric_name, size, quantity, color) VALUES (1, 'Organic Cotton', 'S', 100, 'White'); INSERT INTO inventory (id, fabric_name, size, quantity, color) VALUES (2, 'Tencel Lyocell', 'M', 75, 'Green'); INSERT INTO inventory (id, fabric_name, size, quantity, color) VALUES (3, 'Bamboo Viscose', 'L', 50, 'Natural');", 'sql': "SELECT SUM(quantity) as total_quantity FROM inventory WHERE fabric_name IN ('Tencel Lyocell', 'Bamboo Viscose');"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT SUM(quantity) FROM inventory WHERE fabric_name IN ('Tencel Lyocell', 'Bamboo Viscose');"
+), 1), (Example({'sql_prompt': 'What is the percentage of parolees who have reoffended in Texas, broken down by gender and race, for the years 2017 and 2018?', 'sql_context': "CREATE TABLE parolee (parolee_id INT, year INT, gender TEXT, race TEXT, reoffender BOOLEAN); INSERT INTO parolee (parolee_id, year, gender, race, reoffender) VALUES (1, 2017, 'Male', 'White', TRUE); INSERT INTO parolee (parolee_id, year, gender, race, reoffender) VALUES (2, 2017, 'Female', 'Black', FALSE); INSERT INTO parolee (parolee_id, year, gender, race, reoffender) VALUES (3, 2018, 'Male', 'Hispanic', TRUE); INSERT INTO parolee (parolee_id, year, gender, race, reoffender) VALUES (4, 2018, 'Female', 'Asian', FALSE);", 'sql': 'SELECT c.year, c.gender, c.race, COUNT(c.parolee_id) AS parolees, AVG(CAST(c.reoffender AS FLOAT)) * 100 AS reoffender_percentage FROM parolee c WHERE c.year IN (2017, 2018) GROUP BY c.year, c.gender, c.race;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql='SELECT ((SUM(CASE WHEN reoffender THEN 1 ELSE 0 END)/COUNT(*))*100.0) AS percentage FROM parolee WHERE year IN (2017, 2018) GROUP BY gender, race;'
+), 0), (Example({'sql_prompt': 'What are the top 5 states with the most dispensaries?', 'sql_context': "CREATE TABLE DispensariesByState (State TEXT, DispensaryCount INTEGER); INSERT INTO DispensariesByState (State, DispensaryCount) VALUES ('California', 1000), ('Colorado', 750), ('Oregon', 550), ('Washington', 400), ('Nevada', 350);", 'sql': 'SELECT State, DispensaryCount FROM DispensariesByState ORDER BY DispensaryCount DESC LIMIT 5;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql='SELECT State, DispensaryCount FROM DispensariesByState ORDER BY DispensaryCount DESC LIMIT 5;'
+), 1), (Example({'sql_prompt': "For the 'design_standards' table, add a new row with the following information: ID 4, name 'Bridge Design Standards for Earthquake Zones', version '2022', and description 'New standards for bridge design in earthquake zones'.", 'sql_context': 'CREATE TABLE design_standards (id INT, name VARCHAR(50), version INT, description VARCHAR(100));', 'sql': "INSERT INTO design_standards (id, name, version, description) VALUES (4, 'Bridge Design Standards for Earthquake Zones', 2022, 'New standards for bridge design in earthquake zones');"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="INSERT INTO design_standards VALUES (4, 'Bridge Design Standards for Earthquake Zones', 2022, 'New standards for bridge design in earthquake zones');"
+), 1), (Example({'sql_prompt': "Which rugby team has the most tries scored in the 'tries' table?", 'sql_context': 'CREATE TABLE tries (try_id INT, player_id INT, match_id INT, team_id INT, tries INT); INSERT INTO tries (try_id, player_id, match_id, team_id, tries) VALUES (1, 4, 6, 403, 1);', 'sql': 'SELECT team_id, SUM(tries) FROM tries GROUP BY team_id ORDER BY SUM(tries) DESC LIMIT 1;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql='SELECT team_id, MAX(tries) FROM tries GROUP BY team_id;'
+), 0), (Example({'sql_prompt': 'Delete the workout row with the id of 2.', 'sql_context': "CREATE TABLE Workouts (id INT, user_id INT, workout_name TEXT, calories INT); INSERT INTO Workouts (id, user_id, workout_name, calories) VALUES (1, 1, 'Running', 300); INSERT INTO Workouts (id, user_id, workout_name, calories) VALUES (2, 1, 'Cycling', 400); INSERT INTO Workouts (id, user_id, workout_name, calories) VALUES (3, 2, 'Yoga', 200);", 'sql': 'DELETE FROM Workouts WHERE id = 2;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql='DELETE FROM Workouts WHERE id = 2;'
+), 1), (Example({'sql_prompt': "How many volunteers with 'Medical' skills were assigned before a volunteer with 'Engineering' skills?", 'sql_context': "CREATE TABLE volunteers_ext (id INT, name VARCHAR(50), age INT, gender VARCHAR(10), skill VARCHAR(50), assignment_date DATE, end_date DATE); INSERT INTO volunteers_ext (id, name, age, gender, skill, assignment_date, end_date) VALUES (1, 'David', 25, 'Male', 'Medical', '2022-06-01', '2022-09-30'), (2, 'Emma', 30, 'Female', 'Engineering', '2022-07-15', '2023-06-30');", 'sql': "SELECT COUNT(*) FROM (SELECT skill, assignment_date, LAG(skill) OVER (ORDER BY assignment_date) AS prev_skill FROM volunteers_ext WHERE skill = 'Medical') t WHERE prev_skill = 'Engineering';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT COUNT(*) FROM volunteers_ext WHERE skill = 'Medical' AND assignment_date &lt; (SELECT MIN(assignment_date) FROM volunteers_ext WHERE skill = 'Engineering') ORDER BY assignment_date;"
+), 0), (Example({'sql_prompt': "What is the average age of female athletes in the 'basketball_players' table?", 'sql_context': "CREATE TABLE basketball_players (id INT, name VARCHAR(50), position VARCHAR(50), age INT, team VARCHAR(50)); INSERT INTO basketball_players (id, name, position, age, team) VALUES (1, 'Alice Johnson', 'Guard', 25, 'Lakers'); INSERT INTO basketball_players (id, name, position, age, team) VALUES (2, 'Bella Smith', 'Forward', 28, 'Celtics');", 'sql': "SELECT AVG(age) FROM basketball_players WHERE gender = 'female';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT AVG(age) FROM basketball_players WHERE gender = 'Female';"
+), 0), (Example({'sql_prompt': 'Find the total number of fans who have attended football and basketball games separately.', 'sql_context': "CREATE TABLE fans (id INT, name VARCHAR(50)); CREATE TABLE events (id INT, event_type VARCHAR(20), tickets_bought INT); INSERT INTO fans (id, name) VALUES (1, 'John Doe'), (2, 'Jane Smith'), (3, 'Richard Roe'); INSERT INTO events (id, event_type, tickets_bought) VALUES (1, 'Football', 2), (1, 'Basketball', 1), (2, 'Football', 1), (2, 'Basketball', 3), (3, 'Football', 1), (3, 'Basketball', 2);", 'sql': "SELECT SUM(CASE WHEN event_type = 'Basketball' THEN tickets_bought ELSE 0 END) + SUM(CASE WHEN event_type = 'Football' THEN tickets_bought ELSE 0 END) FROM events INNER JOIN fans ON events.id = fans.id;"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT SUM(CASE WHEN event_type = 'Football' THEN tickets_bought ELSE 0 END) AS football_fans, SUM(CASE WHEN event_type = 'Basketball' THEN tickets_bought ELSE 0 END) AS basketball_fans FROM fans INNER JOIN events ON fans.id = events.id;"
+), 1), (Example({'sql_prompt': 'Delete all records in the "hotel_reviews" table that do not have a rating of at least 4?', 'sql_context': "CREATE TABLE hotel_reviews (review_id INT, hotel_id INT, rating INT, review TEXT); INSERT INTO hotel_reviews (review_id, hotel_id, rating, review) VALUES (1, 101, 5, 'Excellent stay'), (2, 102, 3, 'Average stay'), (3, 103, 4, 'Good stay'), (4, 104, 1, 'Terrible stay');", 'sql': 'DELETE FROM hotel_reviews WHERE rating &lt; 4;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql='DELETE FROM hotel_reviews WHERE rating &lt; 4;'
+), 0), (Example({'sql_prompt': 'What is the total cost of space missions led by each country?', 'sql_context': "CREATE TABLE missions (mission_name VARCHAR(50), country VARCHAR(50), cost INT); INSERT INTO missions (mission_name, country, cost) VALUES ('Apollo', 'USA', 25000000000), ('Artemis', 'USA', 30000000000), ('Luna', 'Russia', 5000000000);", 'sql': 'SELECT country, SUM(cost) as total_cost FROM missions GROUP BY country ORDER BY total_cost DESC;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql='SELECT country, SUM(cost) as total_cost FROM missions GROUP BY country;'
+), 1), (Example({'sql_prompt': 'What is the minimum speed in knots for vessels that docked at the port of Hong Kong between the dates of June 15th and June 30th, 2021?', 'sql_context': "CREATE TABLE Vessels(Id INT, Name VARCHAR(255), AverageSpeed DECIMAL(5,2)); CREATE TABLE DockingHistory(Id INT, VesselId INT, Port VARCHAR(255), DockingDateTime DATETIME); INSERT INTO Vessels VALUES (1, 'VesselA', 15.5), (2, 'VesselB', 18.3), (3, 'VesselC', 20.2); INSERT INTO DockingHistory VALUES (1, 1, 'Hong Kong', '2021-06-16 12:00:00'), (2, 1, 'Hong Kong', '2021-06-25 15:00:00'), (3, 2, 'Hong Kong', '2021-06-20 09:00:00'), (4, 3, 'Hong Kong', '2021-06-22 18:00:00');", 'sql': "SELECT MIN(v.AverageSpeed) FROM Vessels v INNER JOIN DockingHistory dh ON v.Id = dh.VesselId WHERE dh.Port = 'Hong Kong' AND dh.DockingDateTime BETWEEN '2021-06-15' AND '2021-06-30';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT MIN(v.AverageSpeed) FROM Vessels v JOIN DockingHistory dh ON v.Id = dh.VesselId WHERE dh.Port = 'Hong Kong' AND dh.DockingDateTime BETWEEN '2021-06-15 00:00:00' AND '2021-06-30 23:59:59';"
+), 0), (Example({'sql_prompt': 'What is the average income of residents in each city in the state of California, grouped by city and ordered by average income in descending order?', 'sql_context': "CREATE TABLE cities (id INT PRIMARY KEY, name TEXT, state TEXT); INSERT INTO cities (id, name, state) VALUES (1, 'Los Angeles', 'California'), (2, 'San Diego', 'California'), (3, 'San Jose', 'California'); CREATE TABLE incomes (id INT PRIMARY KEY, city_id INT, income INT); INSERT INTO incomes (id, city_id, income) VALUES (1, 1, 50000), (2, 1, 70000), (3, 2, 45000), (4, 2, 60000), (5, 3, 48000), (6, 3, 52000);", 'sql': "SELECT c.name, AVG(i.income) FROM cities c JOIN incomes i ON c.id = i.city_id WHERE c.state = 'California' GROUP BY c.name ORDER BY AVG(i.income) DESC;"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT c.name as city_name, AVG(i.income) as avg_income FROM cities c JOIN incomes i ON c.id = i.city_id WHERE c.state = 'California' GROUP BY c.name ORDER BY avg_income DESC;"
+), 1), (Example({'sql_prompt': 'What is the total quantity of a specific dish sold on a given date?', 'sql_context': "CREATE TABLE dishes (id INT, name TEXT, type TEXT, price DECIMAL, inventory INT); INSERT INTO dishes (id, name, type, price, inventory) VALUES (1, 'Pizza Margherita', 'Veg', 7.50, 50), (2, 'Chicken Alfredo', 'Non-Veg', 12.00, 30), (3, 'Veggie Delight Sandwich', 'Veg', 6.50, 75); CREATE TABLE sales (id INT, dish_id INT, quantity INT, date DATE); INSERT INTO sales (id, dish_id, quantity, date) VALUES (1, 2, 3, '2022-01-01'), (2, 1, 2, '2022-01-02'), (3, 3, 1, '2022-01-03');", 'sql': "SELECT SUM(quantity) as total_quantity_sold FROM sales WHERE dish_id = 1 AND date = '2022-01-02';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT d.name as dish_name, SUM(s.quantity) as total_quantity FROM sales s JOIN dishes d ON s.dish_id = d.id WHERE s.date = '2022-01-01' AND d.name = 'Pizza Margherita';"
+), 0), (Example({'sql_prompt': 'What is the minimum depth recorded in the Mariana Trench?', 'sql_context': "CREATE TABLE ocean_floor_mapping (location VARCHAR(255), depth FLOAT);   INSERT INTO ocean_floor_mapping (location, depth) VALUES ('Mariana Trench', 10994.0), ('Challenger Deep', 10972.8);", 'sql': "SELECT MIN(depth) FROM ocean_floor_mapping WHERE location = 'Mariana Trench';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT MIN(depth) FROM ocean_floor_mapping WHERE location = 'Mariana Trench';"
+), 1), (Example({'sql_prompt': 'List the top 3 states with the highest average claim amount for auto policies, ordered by the average claim amount in descending order.', 'sql_context': "CREATE TABLE Claims (ClaimID INT, PolicyType VARCHAR(255), PolicyholderID INT, ClaimAmount DECIMAL(10,2), State VARCHAR(255)); INSERT INTO Claims VALUES (1, 'Auto', 1, 5000, 'NY'), (2, 'Home', 2, 7000, 'CA'), (3, 'Auto', 3, 8000, 'ON'), (4, 'Life', 4, 6000, 'CA'), (5, 'Auto', 5, 9000, 'CA');", 'sql': "SELECT State, AVG(ClaimAmount) as AvgClaimAmount FROM Claims WHERE PolicyType = 'Auto' GROUP BY State ORDER BY AvgClaimAmount DESC LIMIT 3;"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT State, AVG(ClaimAmount) as Avg_Claim_Amount FROM Claims WHERE PolicyType = 'Auto' GROUP BY State ORDER BY Avg_Claim_Amount DESC LIMIT 3;"
+), 1), (Example({'sql_prompt': 'List all the farms in the European region that have a yield per acre for wheat that is at least 15% higher than the average yield per acre for wheat in the entire database.', 'sql_context': "CREATE TABLE Farm (id INT, name TEXT, crop TEXT, yield_per_acre FLOAT, region TEXT); INSERT INTO Farm (id, name, crop, yield_per_acre, region) VALUES (1, 'Jansen Farm', 'Wheat', 180, 'European'), (2, 'Schmidt Farm', 'Rye', 160, 'European'), (3, 'Garcia Farm', 'Wheat', 210, 'European'); CREATE TABLE Average (crop TEXT, avg_yield FLOAT); INSERT INTO Average (crop, avg_yield) VALUES ('Wheat', 170);", 'sql': "SELECT * FROM Farm WHERE region = 'European' AND crop = 'Wheat' AND yield_per_acre &gt;= (SELECT 1.15 * avg_yield FROM Average WHERE crop = 'Wheat');"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT * FROM Farm WHERE crop = 'Wheat' AND yield_per_acre &gt;= 1.15 * (SELECT avg_yield FROM Average WHERE crop = 'Wheat') AND region = 'European';"
+), 1), (Example({'sql_prompt': 'What is the average heart rate for runners in the morning?', 'sql_context': "CREATE TABLE workout_data (id INT, user_id INT, activity_type VARCHAR(20), heart_rate INT, workout_time TIME); INSERT INTO workout_data (id, user_id, activity_type, heart_rate, workout_time) VALUES (1, 10, 'Running', 140, '07:00:00'), (2, 10, 'Cycling', 120, '08:00:00'), (3, 15, 'Running', 150, '06:00:00');", 'sql': "SELECT AVG(heart_rate) FROM workout_data WHERE activity_type = 'Running' AND EXTRACT(HOUR FROM workout_time) BETWEEN 0 AND 6;"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT AVG(heart_rate) FROM workout_data WHERE activity_type = 'Running' AND HOUR(workout_time) BETWEEN 6 AND 12;"
+), 1), (Example({'sql_prompt': 'Insert a new record for a TV show with title "ShowC", genre "Drama", and release year 2020.', 'sql_context': 'CREATE TABLE tv_shows (id INT, title VARCHAR(100), genre VARCHAR(50), release_year INT);', 'sql': "INSERT INTO tv_shows (title, genre, release_year) VALUES ('ShowC', 'Drama', 2020);"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="INSERT INTO tv_shows (title, genre, release_year) VALUES ('ShowC', 'Drama', 2020);"
+), 1), (Example({'sql_prompt': 'What is the percentage of male and female fans who participated in athlete wellbeing programs in the last 6 months, by age group?', 'sql_context': "CREATE TABLE wellbeing_participants (fan_id INT, gender VARCHAR(50), age INT, last_event_date DATE); INSERT INTO wellbeing_participants (fan_id, gender, age, last_event_date) VALUES (1, 'Male', 25, '2022-01-01'), (2, 'Female', 35, '2022-02-01'), (3, 'Male', 28, '2022-03-01'), (4, 'Female', 45, '2022-04-01'), (5, 'Male', 32, '2022-05-01');", 'sql': "SELECT age_group, gender, COUNT(*) * 100.0 / (SELECT COUNT(*) FROM wellbeing_participants WHERE gender = age_group AND last_event_date &gt;= CURDATE() - INTERVAL 6 MONTH) AS percentage FROM (SELECT CASE WHEN age &lt; 30 THEN '18-29' WHEN age &lt; 40 THEN '30-39' ELSE '40+' END AS age_group, gender FROM wellbeing_participants WHERE last_event_date &gt;= CURDATE() - INTERVAL 6 MONTH) AS age_groups GROUP BY age_group, gender;"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql='SELECT gender, FLOOR(age/10)*10 as age_group, COUNT(*)*100.0 / (SELECT COUNT(*) FROM wellbeing_participants WHERE last_event_date &gt;= DATEADD(month, -6, GETDATE())) as percentage FROM wellbeing_participants WHERE last_event_date &gt;= DATEADD(month, -6, GETDATE()) GROUP BY gender, FLOOR(age/10)*10;'
+), 1)]</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>250.73</v>
+      </c>
+      <c r="J6" t="n">
+        <v>58.75</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>[(Example({'sql_prompt': "How many artworks were created by 'Vincent van Gogh'?", 'sql_context': 'CREATE TABLE artworks (id INT PRIMARY KEY, title VARCHAR(255), artist VARCHAR(255), year INT);', 'sql': "SELECT COUNT(*) FROM artworks WHERE artist = 'Vincent van Gogh';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT COUNT(*) FROM artworks WHERE artist = 'Vincent van Gogh';"
+), 1), (Example({'sql_prompt': 'How many products are sourced from fair-trade suppliers?', 'sql_context': 'CREATE TABLE products (product_id INT PRIMARY KEY, fair_trade BOOLEAN); INSERT INTO products (product_id, fair_trade) VALUES (1, true), (2, false), (3, true), (4, false);', 'sql': 'SELECT COUNT(*) FROM products WHERE fair_trade = true;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql='SELECT COUNT(*) FROM products WHERE fair_trade = true;'
+), 1), (Example({'sql_prompt': "How many workers are represented by the 'United Steelworkers' union?", 'sql_context': 'CREATE TABLE if not exists union_membership (union_id INT, worker_id INT); INSERT INTO union_membership (union_id, worker_id) VALUES (1, 1001), (1, 1002), (1, 1003), (2, 2001), (2, 2002), (3, 3001);', 'sql': "SELECT COUNT(worker_id) FROM union_membership WHERE union_id = (SELECT union_id FROM unions WHERE union_name = 'United Steelworkers');"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT COUNT(*) FROM union_membership WHERE union_id = (SELECT union_id FROM unions WHERE union_name = 'United Steelworkers');"
+), 0), (Example({'sql_prompt': "What is the total quantity of resources extracted by gender and race in the 'mining_operations' database?", 'sql_context': "CREATE TABLE resource_extraction (resource_id INT PRIMARY KEY, resource_name VARCHAR(50), quantity INT, extractor_gender VARCHAR(10), extractor_race VARCHAR(30)); INSERT INTO resource_extraction (resource_id, resource_name, quantity, extractor_gender, extractor_race) VALUES (1, 'Gold', 1000, 'Male', 'Caucasian'), (2, 'Silver', 800, 'Female', 'African American'), (3, 'Copper', 1200, 'Non-binary', 'Hispanic'), (4, 'Iron', 1500, 'Male', 'Asian');", 'sql': 'SELECT extractor_gender, extractor_race, SUM(quantity) as total_quantity FROM resource_extraction GROUP BY extractor_gender, extractor_race;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql='SELECT extractor_gender, extractor_race, SUM(quantity) FROM resource_extraction GROUP BY extractor_gender, extractor_race;'
+), 0), (Example({'sql_prompt': 'What are the smart contracts written in Vyper by developers from the USA?', 'sql_context': "CREATE TABLE developers (developer_id INT PRIMARY KEY, name VARCHAR(50), age INT, gender VARCHAR(10), country VARCHAR(50)); INSERT INTO developers (developer_id, name, age, gender, country) VALUES (1, 'Alice', 30, 'Female', 'USA'); INSERT INTO developers (developer_id, name, age, gender, country) VALUES (2, 'Bob', 35, 'Male', 'Canada'); CREATE TABLE smart_contracts (contract_id INT PRIMARY KEY, contract_name VARCHAR(50), developer_id INT, language VARCHAR(20), FOREIGN KEY (developer_id) REFERENCES developers(developer_id)); INSERT INTO smart_contracts (contract_id, contract_name, developer_id, language) VALUES (1, 'Contract1', 1, 'Solidity'); INSERT INTO smart_contracts (contract_id, contract_name, developer_id, language) VALUES (2, 'Contract2', 2, 'Vyper');", 'sql': "SELECT smart_contracts.contract_name FROM smart_contracts INNER JOIN developers ON smart_contracts.developer_id = developers.developer_id WHERE developers.country = 'USA' AND smart_contracts.language = 'Vyper';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT s.contract_name FROM smart_contracts s INNER JOIN developers d ON s.developer_id = d.developer_id WHERE d.country = 'USA' AND s.language = 'Vyper';"
+), 0), (Example({'sql_prompt': "List the number of IoT sensors in the 'PrecisionFarming' schema that have a 'moisture' measurement and were installed after 2019-01-01.", 'sql_context': "CREATE SCHEMA PrecisionFarming; CREATE TABLE IoT_Sensors (sensor_id INT, sensor_name VARCHAR(50), measurement VARCHAR(50), install_date DATE); INSERT INTO PrecisionFarming.IoT_Sensors (sensor_id, sensor_name, measurement, install_date) VALUES (4, 'Sensor4', 'moisture', '2020-01-01'), (5, 'Sensor5', 'moisture', '2019-06-15'), (6, 'Sensor6', 'temperature', '2021-03-02'), (7, 'Sensor7', 'humidity', '2018-12-31');", 'sql': "SELECT COUNT(*) FROM PrecisionFarming.IoT_Sensors WHERE measurement = 'moisture' AND install_date &gt; '2019-01-01';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT COUNT(*) FROM PrecisionFarming.IoT_Sensors WHERE measurement = 'moisture' AND install_date &gt; '2019-01-01';"
+), 1), (Example({'sql_prompt': 'What is the maximum quantity of a single organic product delivered in the DELIVERY_RECORDS table?', 'sql_context': 'CREATE TABLE DELIVERY_RECORDS (id INT, supplier_id INT, product_id INT, is_organic BOOLEAN, quantity INT); INSERT INTO DELIVERY_RECORDS (id, supplier_id, product_id, is_organic, quantity) VALUES (1, 1, 1, true, 50), (2, 2, 2, true, 30);', 'sql': 'SELECT MAX(quantity) FROM DELIVERY_RECORDS WHERE is_organic = true;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql='SELECT MAX(quantity) FROM DELIVERY_RECORDS WHERE is_organic = true;'
+), 1), (Example({'sql_prompt': 'What is the total budget allocated for accommodations and support programs in the West?', 'sql_context': "CREATE TABLE Accommodations (ID INT, Type VARCHAR(50), Cost FLOAT, Region VARCHAR(50)); INSERT INTO Accommodations (ID, Type, Cost, Region) VALUES (1, 'Note-taking Services', 20000.0, 'West'), (2, 'Accessible Furniture', 25000.0, 'West'); CREATE TABLE SupportPrograms (ID INT, Type VARCHAR(50), Cost FLOAT, Region VARCHAR(50)); INSERT INTO SupportPrograms (ID, Type, Cost, Region) VALUES (1, 'Assistive Technology Grant', 30000.0, 'West'), (2, 'Disability Awareness Training', 35000.0, 'West');", 'sql': "SELECT SUM(A.Cost) + SUM(S.Cost) FROM Accommodations A, SupportPrograms S WHERE A.Region = 'West' AND S.Region = 'West';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT SUM(Accommodations.Cost) + SUM(SupportPrograms.Cost) FROM Accommodations INNER JOIN SupportPrograms ON Accommodations.Region = SupportPrograms.Region WHERE Accommodations.Region = 'West';"
+), 1), (Example({'sql_prompt': 'Show the number of electric vehicle charging stations in the top 10 most populous cities in the US.', 'sql_context': 'CREATE TABLE cities (city_name TEXT, population INT);CREATE TABLE charging_stations (station_id INT, station_name TEXT, city_name TEXT, num_charging_points INT);', 'sql': 'SELECT c.city_name, COUNT(cs.station_id) AS num_charging_stations FROM cities c JOIN charging_stations cs ON c.city_name = cs.city_name GROUP BY c.city_name ORDER BY population DESC LIMIT 10;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql='SELECT c.city_name, COUNT(cs.station_id) FROM cities c INNER JOIN charging_stations cs ON c.city_name = cs.city_name WHERE c.population IN (SELECT population FROM (SELECT city_name, MAX(population) AS population FROM cities GROUP BY state LIMIT 10)) GROUP BY c.city_name;'
+), 0), (Example({'sql_prompt': 'What is the maximum and minimum population of animals for each species?', 'sql_context': "CREATE TABLE animal_population (species VARCHAR(50), population INT); INSERT INTO animal_population (species, population) VALUES ('Tiger', 300), ('Lion', 250), ('Elephant', 500), ('Giraffe', 200);", 'sql': 'SELECT species, MIN(population) OVER (PARTITION BY species) as min_population, MAX(population) OVER (PARTITION BY species) as max_population FROM animal_population ORDER BY species;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql='SELECT species, MAX(population) AS max_population, MIN(population) AS min_population FROM animal_population GROUP BY species;'
+), 0), (Example({'sql_prompt': 'What is the total amount of mineral extraction by type?', 'sql_context': "CREATE TABLE extraction (extraction_id INT, mine_id INT, year INT, mineral VARCHAR(255), quantity INT); INSERT INTO extraction (extraction_id, mine_id, year, mineral, quantity) VALUES (1, 1, 2018, 'Gold', 1000), (2, 1, 2019, 'Gold', 1200), (3, 2, 2018, 'Uranium', 2000), (4, 2, 2019, 'Uranium', 2500);", 'sql': 'SELECT mineral, SUM(quantity) FROM extraction GROUP BY mineral;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql='SELECT mineral, SUM(quantity) as total_extraction FROM extraction GROUP BY mineral;'
+), 1), (Example({'sql_prompt': 'What is the average rating of hotels that have a spa and a gym?', 'sql_context': "CREATE TABLE hotel_ratings (id INT, hotel_id INT, rating INT); INSERT INTO hotel_ratings (id, hotel_id, rating) VALUES (1, 101, 4); INSERT INTO hotel_amenities (id, hotel_id, amenity) VALUES (1, 101, 'Spa'), (2, 101, 'Gym');", 'sql': "SELECT AVG(hr.rating) as avg_rating FROM hotel_ratings hr INNER JOIN hotel_amenities ha ON hr.hotel_id = ha.hotel_id WHERE ha.amenity IN ('Spa', 'Gym') GROUP BY hr.hotel_id;"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT AVG(rating) FROM hotel_ratings hr JOIN hotel_amenities ha ON hr.hotel_id = ha.hotel_id WHERE ha.amenity IN ('Spa', 'Gym') GROUP BY hr.hotel_id HAVING COUNT(DISTINCT ha.amenity) = 2;"
+), 1), (Example({'sql_prompt': "What is the minimum wage for 'temporary' workers in the 'logistics' sector, and how many such workers are there?", 'sql_context': "CREATE TABLE employee_records (id INT, employment_type VARCHAR(10), sector VARCHAR(20), wage FLOAT); INSERT INTO employee_records (id, employment_type, sector, wage) VALUES (1, 'temporary', 'logistics', 14.00), (2, 'permanent', 'logistics', 18.00), (3, 'temporary', 'logistics', 13.50), (4, 'permanent', 'logistics', 20.00);", 'sql': "SELECT MIN(wage), COUNT(*) FROM employee_records WHERE employment_type = 'temporary' AND sector = 'logistics';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT MIN(wage) AS min_wage, COUNT(*) FROM employee_records WHERE employment_type = 'temporary' AND sector = 'logistics';"
+), 1), (Example({'sql_prompt': 'List the number of virtual tours in India and Argentina.', 'sql_context': "CREATE TABLE virtual_tours (tour_id INT, location VARCHAR(255), type VARCHAR(255)); INSERT INTO virtual_tours (tour_id, location, type) VALUES (1, 'India Virtual Tour', 'virtual'), (2, 'Argentina Virtual Tour', 'virtual');", 'sql': "SELECT COUNT(*) FROM virtual_tours WHERE location IN ('India', 'Argentina');"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT COUNT(*) FROM virtual_tours WHERE location IN ('India Virtual Tour', 'Argentina Virtual Tour') AND type = 'virtual';"
+), 1), (Example({'sql_prompt': "What is the average water temperature for each species in the 'fish_tanks' table?", 'sql_context': "CREATE TABLE fish_tanks (tank_id INT, species VARCHAR(255), water_temperature DECIMAL(5,2)); INSERT INTO fish_tanks (tank_id, species, water_temperature) VALUES (1, 'Tilapia', 26.5), (2, 'Salmon', 12.0), (3, 'Tilapia', 27.3), (4, 'Catfish', 24.6), (5, 'Salmon', 12.5);", 'sql': 'SELECT species, AVG(water_temperature) as avg_temp FROM fish_tanks GROUP BY species;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql='SELECT species, AVG(water_temperature) FROM fish_tanks GROUP BY species;'
+), 1), (Example({'sql_prompt': 'What is the average number of installations visited per visitor, partitioned by city?', 'sql_context': "CREATE TABLE Cities (CityID INT, City VARCHAR(50)); INSERT INTO Cities (CityID, City) VALUES (1, 'New York'), (2, 'Los Angeles'); CREATE TABLE Visits (VisitID INT, VisitorID INT, CityID INT, InstallationID INT); INSERT INTO Visits (VisitID, VisitorID, CityID, InstallationID) VALUES (1, 1, 1, 1), (2, 1, 1, 2), (3, 2, 2, 3);", 'sql': 'SELECT City, AVG(InstallationID) OVER (PARTITION BY CityID) AS AvgInstallationsPerVisitor FROM Visits V JOIN Cities C ON V.CityID = C.CityID;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql='SELECT Cities.City, AVG(COUNT(Visits.InstallationID)) OVER (PARTITION BY Visitors.CityID) AS Avg_Installations_Per_Visitor FROM Visitors JOIN Visits ON Visitors.VisitorID = Visits.VisitorID JOIN Cities ON Visits.CityID = Cities.CityID GROUP BY Visitors.VisitorID, Cities.City;'
+), 0), (Example({'sql_prompt': 'What is the maximum age of patients diagnosed with Hypertension?', 'sql_context': "CREATE TABLE Patients (PatientID INT, Age INT, Gender VARCHAR(10), Diagnosis VARCHAR(20), Location VARCHAR(20)); INSERT INTO Patients (PatientID, Age, Gender, Diagnosis, Location) VALUES (1, 35, 'Male', 'Asthma', 'Texas'); INSERT INTO Patients (PatientID, Age, Gender, Diagnosis, Location) VALUES (2, 42, 'Female', 'Asthma', 'Texas'); INSERT INTO Patients (PatientID, Age, Gender, Diagnosis, Location) VALUES (3, 50, 'Male', 'Diabetes', 'Urban'); INSERT INTO Patients (PatientID, Age, Gender, Diagnosis, Location) VALUES (4, 60, 'Female', 'Hypertension', 'Rural');", 'sql': "SELECT MAX(Age) FROM Patients WHERE Diagnosis = 'Hypertension';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT MAX(Age) FROM Patients WHERE Diagnosis = 'Hypertension';"
+), 1), (Example({'sql_prompt': 'How many socially responsible loans were issued to customers in the South?', 'sql_context': "CREATE TABLE loans (loan_number INT, customer_name VARCHAR(50), issue_date DATE, is_socially_responsible BOOLEAN, region VARCHAR(20)); INSERT INTO loans (loan_number, customer_name, issue_date, is_socially_responsible, region) VALUES (1, 'Ahmed', '2021-01-01', true, 'South'), (2, 'Sara', '2021-02-15', false, 'North'), (3, 'Mohammed', '2021-03-03', true, 'South');", 'sql': "SELECT COUNT(*) FROM loans WHERE is_socially_responsible = true AND region = 'South';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT COUNT(*) FROM loans WHERE is_socially_responsible = true AND region = 'South';"
+), 1), (Example({'sql_prompt': 'What is the total number of volunteers for nonprofits in California?', 'sql_context': 'CREATE TABLE Nonprofits (NonprofitID INT, Name VARCHAR(50), City VARCHAR(50), State VARCHAR(2), Zip VARCHAR(10), MissionStatement TEXT, TotalVolunteers INT); CREATE TABLE Volunteers (VolunteerID INT, VolunteerName VARCHAR(50), NonprofitID INT, Hours INT);', 'sql': "SELECT SUM(V.Hours) FROM Volunteers V INNER JOIN Nonprofits N ON V.NonprofitID = N.NonprofitID WHERE N.State = 'CA';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT SUM(TotalVolunteers) FROM Nonprofits WHERE State = 'CA'; SELECT COUNT(*) FROM Volunteers INNER JOIN Nonprofits ON Volunteers.NonprofitID = Nonprofits.NonprofitID WHERE State = 'CA';"
+), 0), (Example({'sql_prompt': "What is the total quantity of corn sold by farmers in 'Summerfield'?", 'sql_context': "CREATE TABLE farmers (id INT, name VARCHAR(50), location VARCHAR(50), crops VARCHAR(50)); CREATE TABLE crops (id INT, name VARCHAR(50), yield INT); CREATE TABLE sales (id INT, farmer_id INT, crop_name VARCHAR(50), quantity INT, price DECIMAL(5,2)); INSERT INTO farmers VALUES (1, 'Jane Doe', 'Summerfield', 'Corn'); INSERT INTO crops VALUES (1, 'Corn', 100); INSERT INTO sales VALUES (1, 1, 'Corn', 50, 2.50);", 'sql': "SELECT SUM(quantity) FROM sales INNER JOIN farmers ON sales.farmer_id = farmers.id INNER JOIN crops ON sales.crop_name = crops.name WHERE farmers.location = 'Summerfield' AND crops.name = 'Corn';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT SUM(sales.quantity) as total_corn_sold FROM sales INNER JOIN farmers ON sales.farmer_id = farmers.id WHERE farmers.location = 'Summerfield' AND crops.name = 'Corn';"
+), 0), (Example({'sql_prompt': 'Delete all rows in the comments table with a rating of 1.', 'sql_context': 'CREATE TABLE comments (id INT, article_id INT, user VARCHAR(255), comment TEXT, rating INT);', 'sql': 'DELETE FROM comments WHERE rating = 1;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql='DELETE FROM comments WHERE rating = 1;'
+), 1), (Example({'sql_prompt': 'Update the names of all news agencies from country X to their official English names.', 'sql_context': "CREATE TABLE news_agencies (id INT, name TEXT, country TEXT); INSERT INTO news_agencies (id, name, country) VALUES (1, 'Agency 1', 'Country X'); CREATE TABLE articles (id INT, title TEXT, agency_id INT); INSERT INTO articles (id, title, agency_id) VALUES (1, 'Article 1', 1);", 'sql': "UPDATE news_agencies SET name = CASE WHEN country = 'Country X' THEN 'Official English Name 1' ELSE name END;"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="UPDATE news_agencies SET name = CASE WHEN country = 'Country X' THEN 'Official Agency Name' ELSE name END WHERE country = 'Country X';"
+), 0), (Example({'sql_prompt': "Create a view that displays all fish in the 'tropical' and 'temperate' locations", 'sql_context': "CREATE TABLE fish_stock (fish_id INT PRIMARY KEY, species VARCHAR(50), location VARCHAR(50), biomass FLOAT); INSERT INTO fish_stock (fish_id, species, location, biomass) VALUES (1, 'tuna', 'tropical', 250.5), (2, 'salmon', 'arctic', 180.3), (3, 'cod', 'temperate', 120.0);", 'sql': "CREATE VIEW fish_in_warm_waters AS SELECT * FROM fish_stock WHERE location IN ('tropical', 'temperate');"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="CREATE VIEW fish_summary AS SELECT species, location FROM fish_stock WHERE location IN ('tropical', 'temperate');"
+), 1), (Example({'sql_prompt': 'Remove customers not interested in sustainable fashion', 'sql_context': 'CREATE TABLE CustomerPreferences (CustomerID INT, PrefersSustainable BOOLEAN); INSERT INTO CustomerPreferences (CustomerID, PrefersSustainable) VALUES (1, TRUE), (2, FALSE), (3, TRUE);', 'sql': 'DELETE FROM CustomerPreferences WHERE PrefersSustainable = FALSE;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql='DELETE FROM Customers WHERE CustomerID NOT IN (SELECT CustomerID FROM CustomerPreferences WHERE PrefersSustainable = TRUE);'
+), 0), (Example({'sql_prompt': 'Which region has the highest average shelter capacity?', 'sql_context': "CREATE TABLE region (region_id INT, name VARCHAR(255)); INSERT INTO region (region_id, name) VALUES (1, 'west_africa'), (2, 'east_asia'), (3, 'south_america'); CREATE TABLE shelter (shelter_id INT, name VARCHAR(255), region_id INT, capacity INT); INSERT INTO shelter (shelter_id, name, region_id, capacity) VALUES (1, 'Shelter1', 1, 50), (2, 'Shelter2', 1, 75), (3, 'Shelter3', 2, 100), (4, 'Shelter4', 3, 150);", 'sql': 'SELECT region_id, AVG(capacity) as avg_capacity FROM shelter GROUP BY region_id ORDER BY avg_capacity DESC LIMIT 1;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql='SELECT r.name, AVG(s.capacity) as avg_capacity FROM region r JOIN shelter s ON r.region_id = s.region_id GROUP BY r.name ORDER BY avg_capacity DESC LIMIT 1;'
+), 1), (Example({'sql_prompt': 'List all projects that were completed before their scheduled completion date', 'sql_context': "CREATE TABLE Project (id INT, name VARCHAR(255), scheduled_completion_date DATE, actual_completion_date DATE); INSERT INTO Project (id, name, scheduled_completion_date, actual_completion_date) VALUES (1, 'Project A', '2020-12-31', '2020-12-15'), (2, 'Project B', '2021-03-31', '2022-04-15'), (3, 'Project C', '2022-06-30', '2022-06-30');", 'sql': 'SELECT * FROM Project WHERE actual_completion_date &lt; scheduled_completion_date;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql='SELECT * FROM Project WHERE actual_completion_date &lt; scheduled_completion_date;'
+), 0), (Example({'sql_prompt': 'What is the average water usage for crops in Spain?', 'sql_context': "CREATE TABLE crops (id INT, name VARCHAR(50), country VARCHAR(50), water_usage INT); INSERT INTO crops (id, name, country, water_usage) VALUES (1, 'Wheat', 'Spain', 1000), (2, 'Barley', 'Spain', 800);", 'sql': "SELECT AVG(water_usage) FROM crops WHERE country = 'Spain';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT AVG(water_usage) FROM crops WHERE country = 'Spain';"
+), 1), (Example({'sql_prompt': 'How many regulatory violations have been committed by Coinbase and Huobi combined?', 'sql_context': "CREATE TABLE regulatory_violations (platform VARCHAR(255), violation_count INT); INSERT INTO regulatory_violations (platform, violation_count) VALUES ('Coinbase', 10); INSERT INTO regulatory_violations (platform, violation_count) VALUES ('Huobi', 15);", 'sql': "SELECT SUM(violation_count) FROM regulatory_violations WHERE platform IN ('Coinbase', 'Huobi');"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT SUM(violation_count) FROM regulatory_violations WHERE platform IN ('Coinbase', 'Huobi');"
+), 1), (Example({'sql_prompt': 'What is the total mass of space objects in high Earth orbit?', 'sql_context': "CREATE TABLE space_objects_heo (id INT, name VARCHAR(255), mass FLOAT, orbit VARCHAR(255)); INSERT INTO space_objects_heo (id, name, mass, orbit) VALUES (1, 'Space Object 1', 1000.0, 'High Earth Orbit'), (2, 'Space Object 2', 1500.0, 'High Earth Orbit');", 'sql': 'SELECT SUM(mass) FROM space_objects_heo;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT SUM(mass) FROM space_objects_heo WHERE orbit = 'High Earth Orbit';"
+), 1), (Example({'sql_prompt': 'How many volunteers helped in the education programs in 2021?', 'sql_context': "CREATE TABLE volunteers (id INT, name TEXT, program TEXT, hours FLOAT, volunteer_date DATE); INSERT INTO volunteers (id, name, program, hours, volunteer_date) VALUES (1, 'Jim Brown', 'Education', 5, '2021-02-03'); INSERT INTO volunteers (id, name, program, hours, volunteer_date) VALUES (2, 'Karen Green', 'Health', 3, '2021-06-15');", 'sql': "SELECT COUNT(*) FROM volunteers WHERE program = 'Education' AND volunteer_date BETWEEN '2021-01-01' AND '2021-12-31';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT COUNT(*) FROM volunteers WHERE YEAR(volunteer_date) = 2021 AND program LIKE '%Education%';"
+), 1), (Example({'sql_prompt': 'What is the distribution of biotech startup funding sources?', 'sql_context': "CREATE TABLE funding_sources (funding_source_id INT, funding_source_type VARCHAR(20)); INSERT INTO funding_sources (funding_source_id, funding_source_type) VALUES (1, 'Venture capital'), (2, 'Angel investors'), (3, 'Grants'), (4, 'Crowdfunding');", 'sql': 'SELECT funding_source_type, COUNT(*) FROM funding_sources GROUP BY funding_source_type'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql='SELECT funding_source_type, COUNT(*) FROM funding_sources GROUP BY funding_source_type;'
+), 0), (Example({'sql_prompt': 'List the names, types, and last maintenance dates of machines in factories with circular economy initiatives.', 'sql_context': 'CREATE TABLE machines (machine_id INT, name TEXT, type TEXT, last_maintenance DATE); CREATE TABLE factories (factory_id INT, initiative TEXT);', 'sql': "SELECT machines.name, machines.type, machines.last_maintenance FROM machines INNER JOIN factories ON machines.factory_id = factories.factory_id WHERE factories.initiative = 'circular economy';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT m.name, m.type, MAX(m.last_maintenance) FROM machines m JOIN factories f ON m.factory_id = f.factory_id WHERE f.initiative = 'circular economy' GROUP BY m.machine_id;"
+), 0), (Example({'sql_prompt': 'Find the top 3 most popular garment types sold in the European market.', 'sql_context': "CREATE TABLE garment_sales (id INT, garment_type VARCHAR(255), region VARCHAR(255), quantity INT); INSERT INTO garment_sales (id, garment_type, region, quantity) VALUES (1, 'T-Shirt', 'Europe', 500), (2, 'Jeans', 'Europe', 700), (3, 'Sweater', 'Europe', 800);", 'sql': "SELECT garment_type, SUM(quantity) as total_quantity FROM garment_sales WHERE region = 'Europe' GROUP BY garment_type ORDER BY total_quantity DESC LIMIT 3;"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT garment_type, SUM(quantity) as total_sold FROM garment_sales WHERE region = 'Europe' GROUP BY garment_type ORDER BY total_sold DESC LIMIT 3;"
+), 1), (Example({'sql_prompt': 'List the number of affordable housing units in each neighborhood of San Francisco.', 'sql_context': "CREATE TABLE affordable_housing (id INT, neighborhood VARCHAR(30), num_units INT); INSERT INTO affordable_housing (id, neighborhood, num_units) VALUES (1, 'Mission', 100), (2, 'SoMa', 150), (3, 'Haight-Ashbury', 120), (4, 'Richmond', 80), (5, 'Sunset', 130), (6, 'Tenderloin', 140), (7, 'Chinatown', 90), (8, 'Nob Hill', 70), (9, 'Pacific Heights', 60), (10, 'Marina', 50);", 'sql': 'SELECT neighborhood, num_units FROM affordable_housing;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql='SELECT neighborhood, SUM(num_units) FROM affordable_housing GROUP BY neighborhood;'
+), 1), (Example({'sql_prompt': 'What is the average price of vegan products in the USA?', 'sql_context': "CREATE TABLE vendors (vendor_id INT, vendor_name TEXT, country TEXT);CREATE TABLE products (product_id INT, product_name TEXT, price DECIMAL, vegan BOOLEAN, vendor_id INT); INSERT INTO vendors (vendor_id, vendor_name, country) VALUES (1, 'VendorA', 'USA'), (2, 'VendorB', 'Canada'); INSERT INTO products (product_id, product_name, price, vegan, vendor_id) VALUES (1, 'ProductA', 25.99, true, 1), (2, 'ProductB', 18.49, false, 1), (3, 'ProductC', 22.99, true, 2);", 'sql': "SELECT AVG(price) FROM products JOIN vendors ON products.vendor_id = vendors.vendor_id WHERE vegan = true AND country = 'USA';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT AVG(price) FROM products JOIN vendors ON products.vendor_id = vendors.vendor_id WHERE vegan = true AND country = 'USA';"
+), 1), (Example({'sql_prompt': "List the names and nationalities of coaches in the 'coaches' table.", 'sql_context': 'CREATE TABLE coaches (coach_id INT, name VARCHAR(50), nationality VARCHAR(30));', 'sql': 'SELECT name, nationality FROM coaches;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql='SELECT name, nationality FROM coaches;'
+), 1), (Example({'sql_prompt': 'Find the average soil moisture reading for each crop type in the month of May for 2021.', 'sql_context': "CREATE TABLE crop_data (id INT, crop_type VARCHAR(255), soil_moisture INT, measurement_date DATE); INSERT INTO crop_data (id, crop_type, soil_moisture, measurement_date) VALUES (1, 'Corn', 60, '2021-05-01'); INSERT INTO crop_data (id, crop_type, soil_moisture, measurement_date) VALUES (2, 'Soybean', 55, '2021-05-03');", 'sql': "SELECT crop_type, AVG(soil_moisture) as avg_moisture FROM crop_data WHERE measurement_date BETWEEN '2021-05-01' AND '2021-05-31' GROUP BY crop_type;"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT crop_type, AVG(soil_moisture) FROM crop_data WHERE measurement_date BETWEEN '2021-05-01' AND LAST_DAY('2021-05-31') GROUP BY crop_type;"
+), 0), (Example({'sql_prompt': 'What is the average landfill capacity in megatons in the United States and Canada?', 'sql_context': 'CREATE TABLE LandfillCapacity (country VARCHAR(50), capacity_mt FLOAT);', 'sql': "SELECT AVG(capacity_mt) FROM LandfillCapacity WHERE country IN ('United States', 'Canada');"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT AVG(capacity_mt) FROM LandfillCapacity WHERE country IN ('United States', 'Canada');"
+), 1), (Example({'sql_prompt': 'What is the average production of Gadolinium in 2018 for countries with production &gt; 15,000?', 'sql_context': "CREATE TABLE production (country VARCHAR(255), year INT, element VARCHAR(10), quantity INT); INSERT INTO production (country, year, element, quantity) VALUES ('China', 2018, 'Gd', 25000), ('Australia', 2018, 'Gd', 20000), ('China', 2018, 'Gd', 26000), ('Russia', 2018, 'Gd', 15000);", 'sql': "SELECT AVG(quantity) FROM production WHERE year = 2018 AND country IN (SELECT country FROM production WHERE element = 'Gd' AND quantity &gt; 15000 GROUP BY country);"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT AVG(quantity) FROM production WHERE year = 2018 AND element = 'Gd' GROUP BY country HAVING SUM(quantity) &gt; 15000;"
+), 0), (Example({'sql_prompt': 'Add a new record to the "PolicyImpact" table', 'sql_context': 'CREATE TABLE PolicyImpact (ID INT, Policy TEXT, Impact TEXT, StartDate DATE, EndDate DATE);', 'sql': "INSERT INTO PolicyImpact (ID, Policy, Impact, StartDate, EndDate) VALUES (3002, 'Community Policing', 'Increase in community trust by 30%', '2021-01-01', '2022-12-31');"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="INSERT INTO PolicyImpact (ID, Policy, Impact, StartDate, EndDate) VALUES (103, 'Body Cameras for Police Officers', 'Reduction in use-of-force incidents by 25%', '2021-07-01', '2024-06-30');"
+), 0), (Example({'sql_prompt': 'Show all research projects focused on Mars exploration.', 'sql_context': "CREATE TABLE ResearchProjects (id INT, project_name VARCHAR(100), field VARCHAR(50), leader VARCHAR(50), start_date DATE, end_date DATE); INSERT INTO ResearchProjects (id, project_name, field, leader, start_date, end_date) VALUES (1, 'Project1', 'Space Exploration', 'Jane Smith', '2021-01-01', '2022-12-31'), (2, 'Project2', 'Mars Exploration', 'Jim Brown', '2022-01-01', '2023-12-31');", 'sql': "SELECT * FROM ResearchProjects WHERE field = 'Mars Exploration';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT * FROM ResearchProjects WHERE field = 'Mars Exploration';"
+), 1), (Example({'sql_prompt': "What is the total number of policies for 'High-Risk' drivers?", 'sql_context': "CREATE TABLE policies (id INT, policy_number TEXT, driver_risk TEXT); INSERT INTO policies (id, policy_number, driver_risk) VALUES (1, 'P1234', 'Medium-Risk'); INSERT INTO policies (id, policy_number, driver_risk) VALUES (2, 'P5678', 'High-Risk'); INSERT INTO policies (id, policy_number, driver_risk) VALUES (3, 'P9012', 'Low-Risk');", 'sql': "SELECT COUNT(*) FROM policies WHERE driver_risk = 'High-Risk';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT COUNT(*) FROM policies WHERE driver_risk = 'High-Risk';"
+), 1), (Example({'sql_prompt': 'Delete records of users who joined after Jan 5, 2022 from the "Members" table', 'sql_context': 'CREATE TABLE Members (Id INT PRIMARY KEY, FirstName VARCHAR(50), LastName VARCHAR(50), JoinDate DATETIME, LastLogin DATETIME);', 'sql': "DELETE FROM Members WHERE JoinDate &gt; '2022-01-05';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="DELETE FROM Members WHERE JoinDate &gt; '2022-01-05';"
+), 1), (Example({'sql_prompt': "What is the average investment amount in 'Asia'?", 'sql_context': "CREATE TABLE investment_regions (region VARCHAR(20), investment_amount FLOAT); INSERT INTO investment_regions (region, investment_amount) VALUES ('Africa', 450000), ('Asia', 650000), ('South America', 700000), ('Europe', 800000);", 'sql': "SELECT AVG(investment_amount) FROM investment_regions WHERE region = 'Asia';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT AVG(investment_amount) FROM investment_regions WHERE region = 'Asia';"
+), 1), (Example({'sql_prompt': "Show the total revenue from concert ticket sales for the artist 'BTS'", 'sql_context': "CREATE TABLE concerts (id INT, artist_name VARCHAR(255), tickets_sold INT, ticket_price DECIMAL(5,2)); INSERT INTO concerts (id, artist_name, tickets_sold, ticket_price) VALUES (1, 'Taylor Swift', 12000, 75), (2, 'BTS', 15000, 100);", 'sql': "SELECT artist_name, SUM(tickets_sold * ticket_price) as total_revenue FROM concerts WHERE artist_name = 'BTS' GROUP BY artist_name;"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql="SELECT SUM(tickets_sold * ticket_price) FROM concerts WHERE artist_name = 'BTS';"
+), 1), (Example({'sql_prompt': 'What is the waste generation in kg per capita for each city in the year 2020?', 'sql_context': "CREATE TABLE CityPopulation (city VARCHAR(50), year INT, population INT); INSERT INTO CityPopulation (city, year, population) VALUES ('CityA', 2018, 100000), ('CityA', 2019, 105000), ('CityA', 2020, 110000), ('CityB', 2018, 200000), ('CityB', 2019, 210000), ('CityB', 2020, 220000);", 'sql': 'SELECT wg.city, (SUM(wg.amount) / cp.population) FROM WasteGeneration wg INNER JOIN CityPopulation cp ON wg.city = cp.city AND wg.year = cp.year WHERE wg.year = 2020 GROUP BY wg.city;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    sql='SELECT city, SUM(waste_kg) / (SELECT population FROM CityPopulation WHERE city = W.city AND year = 2020) as per_capita_waste FROM WasteData W GROUP BY city;'
+), 0), (Example({'sql_prompt': "Whi</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="n">
+        <v>172.83</v>
+      </c>
+      <c r="O6" t="n">
+        <v>50</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>[(Example({'sql_prompt': 'What is the average attendance at NFL games?', 'sql_context': "CREATE TABLE nfl_games (game_date DATE, home_team VARCHAR(100), away_team VARCHAR(100), attendance INT); INSERT INTO nfl_games VALUES ('2022-01-09', 'Los Angeles Rams', 'Arizona Cardinals', 74200), ('2022-01-09', 'Tampa Bay Buccaneers', 'Philadelphia Eagles', 65890), ('2022-01-09', 'Dallas Cowboys', 'San Francisco 49ers', 93753);", 'sql': 'SELECT AVG(attendance) FROM nfl_games;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='Calculate the average attendance at NFL games. We need to sum up all the attendances and divide them by the number of games.',
+    sql='SELECT AVG(attendance) FROM nfl_games;'
+), 1), (Example({'sql_prompt': "Compare the landfill capacity of 'Ontario' and 'Quebec'", 'sql_context': "CREATE TABLE landfill_capacity (id INT, region VARCHAR(20), capacity INT); INSERT INTO landfill_capacity (id, region, capacity) VALUES (1, 'Ontario', 400000), (2, 'Quebec', 500000);", 'sql': "SELECT region, capacity FROM landfill_capacity WHERE region IN ('Ontario', 'Quebec');"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="compare the landfill capacity of Ontario and Quebec. We can use a SQL query with a CASE statement to display the capacities side by side for easy comparison. Here is the context: CREATE TABLE landfill_capacity (id INT, region VARCHAR(20), capacity INT); INSERT INTO landfill_capacity (id, region, capacity) VALUES (1, 'Ontario', 400000), (2, 'Quebec', 500000);",
+    sql="SELECT CASE WHEN region = 'Ontario' THEN 'Ontario' ELSE 'Quebec' END as Region, capacity FROM landfill_capacity;"
+), 0), (Example({'sql_prompt': 'What is the number of smart contracts developed by individuals from underrepresented communities in the Ethereum network?', 'sql_context': "CREATE TABLE if not exists smart_contracts (contract_id INT, contract_address VARCHAR(255), developer_community VARCHAR(255)); INSERT INTO smart_contracts (contract_id, contract_address, developer_community) VALUES (1, '0x123...', 'Women in Tech'), (2, '0x456...', 'Minority Ethnic Group'), (3, '0x789...', 'LGBTQ+'), (4, '0xabc...', 'People with Disabilities'), (5, '0xdef...', 'Indigenous People'), (6, '0xghi...', 'Young Developers');", 'sql': "SELECT COUNT(*) FROM smart_contracts WHERE developer_community IN ('Women in Tech', 'Minority Ethnic Group', 'LGBTQ+', 'People with Disabilities', 'Indigenous People', 'Young Developers');"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='What is the number of smart contracts developed by individuals from underrepresented communities in the Ethereum network?',
+    sql='SELECT COUNT(*) FROM smart_contracts WHERE developer_community IS NOT NULL;'
+), 0), (Example({'sql_prompt': 'What is the average safety score for each creative AI application, grouped by region?', 'sql_context': "CREATE TABLE CreativeAIs (id INT, name VARCHAR(50), safety_score INT, region VARCHAR(50)); INSERT INTO CreativeAIs (id, name, safety_score, region) VALUES (1, 'AI Painter', 85, 'North America'); INSERT INTO CreativeAIs (id, name, safety_score, region) VALUES (2, 'AI Music Composer', 90, 'Europe'); INSERT INTO CreativeAIs (id, name, safety_score, region) VALUES (3, 'AI Poet', 80, 'Asia');", 'sql': 'SELECT region, AVG(safety_score) as avg_safety_score FROM CreativeAIs GROUP BY region;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='SELECT region, AVG(safety_score) as avg_safety_score FROM CreativeAIs GROUP BY region;',
+    sql='SELECT region, AVG(safety_score) as avg_safety_score FROM CreativeAIs GROUP BY region;'
+), 1), (Example({'sql_prompt': 'Delete the row with the lowest quantity of Gadolinium produced in 2020.', 'sql_context': "CREATE TABLE gadolinium_production (id INT, name VARCHAR(255), element VARCHAR(10), country VARCHAR(100), production_date DATE, quantity FLOAT); INSERT INTO gadolinium_production (id, name, element, country, production_date, quantity) VALUES (1, 'Company A', 'Gd', 'China', '2020-01-01', 15.0), (2, 'Company B', 'Gd', 'Australia', '2020-01-15', 20.0), (3, 'Company C', 'Gd', 'Malaysia', '2020-02-01', 25.0), (4, 'Company D', 'Gd', 'China', '2020-02-15', 30.0), (5, 'Company E', 'Gd', 'Australia', '2020-03-01', 35.0);", 'sql': "DELETE FROM gadolinium_production WHERE (name, element, production_date, quantity) IN (SELECT name, element, production_date, MIN(quantity) FROM gadolinium_production WHERE element = 'Gd' AND YEAR(production_date) = 2020 GROUP BY name, element, production_date);"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='Delete the row with the lowest quantity of Gadolinium produced in 2020 from the gadolinium_production table.',
+    sql="DELETE FROM gadolinium_production WHERE id = (SELECT id FROM (SELECT * FROM gadolinium_production WHERE production_date BETWEEN '2020-01-01' AND LAST_DAY('2020-12-31') ORDER BY quantity ASC LIMIT 1) t);"
+), 0), (Example({'sql_prompt': 'List the broadband subscribers with compliance issues and the corresponding compliance issue description.', 'sql_context': "CREATE TABLE broadband_subscribers (subscriber_id INT, name VARCHAR(50), has_compliance_issue INT); CREATE TABLE compliance_issues (issue_id INT, description VARCHAR(100)); INSERT INTO broadband_subscribers (subscriber_id, name, has_compliance_issue) VALUES (1, 'Jane Doe', 1); INSERT INTO compliance_issues (issue_id, description) VALUES (1, 'Non-payment of annual fee');", 'sql': 'SELECT subscribers.name, compliance_issues.description FROM broadband_subscribers AS subscribers JOIN compliance_issues ON subscribers.has_compliance_issue = compliance_issues.issue_id;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='List the broadband subscribers with compliance issues and the corresponding compliance issue description.',
+    sql='SELECT BS.*, CI.description FROM broadband_subscribers BS JOIN compliance_issues CI ON BS.has_compliance_issue = 1;'
+), 0), (Example({'sql_prompt': 'List faculty diversity metrics including the number of female, male, and non-binary faculty members in the Mathematics department', 'sql_context': "CREATE TABLE Department (id INT, name VARCHAR(255)); INSERT INTO Department (id, name) VALUES (1, 'Computer Science'), (2, 'Physics'), (3, 'Mathematics'), (4, 'English'); CREATE TABLE Faculty (id INT, name VARCHAR(255), gender VARCHAR(10), department_id INT); INSERT INTO Faculty (id, name, gender, department_id) VALUES (1, 'John Doe', 'Male', 1), (2, 'Jane Smith', 'Female', 3), (3, 'Jamie Johnson', 'Non-binary', 2), (4, 'Alice Davis', 'Female', 3), (5, 'Bob Brown', 'Male', 1);", 'sql': "SELECT f.gender, COUNT(*) as num_faculty FROM Faculty f WHERE f.department_id = (SELECT id FROM Department WHERE name = 'Mathematics') GROUP BY f.gender;"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="SELECT d.name as department_name, COUNT(CASE WHEN f.gender = 'Female' THEN 1 END) as num_female, COUNT(CASE WHEN f.gender = 'Male' THEN 1 END) as num_male, COUNT(CASE WHEN f.gender = 'Non-binary' THEN 1 END) as num_non_binary FROM Department d JOIN Faculty f ON d.id = f.department_id WHERE d.name = 'Mathematics';",
+    sql="SELECT d.name as department_name, COUNT(CASE WHEN f.gender = 'Female' THEN 1 END) as num_female, COUNT(CASE WHEN f.gender = 'Male' THEN 1 END) as num_male, COUNT(CASE WHEN f.gender = 'Non-binary' THEN 1 END) as num_non_binary FROM Department d JOIN Faculty f ON d.id = f.department_id WHERE d.name = 'Mathematics';"
+), 1), (Example({'sql_prompt': 'Delete the record of employee with ID 2', 'sql_context': "CREATE SCHEMA IF NOT EXISTS hr;CREATE TABLE IF NOT EXISTS employees (id INT, name VARCHAR(50), department VARCHAR(50), hire_date DATE);INSERT INTO employees (id, name, department, hire_date) VALUES (1, 'John Doe', 'IT', '2020-01-15');INSERT INTO employees (id, name, department, hire_date) VALUES (2, 'Jane Smith', 'HR', '2019-06-20');INSERT INTO employees (id, name, department, hire_date) VALUES (3, 'Jim Brown', 'Finance', '2020-04-01');", 'sql': 'DELETE FROM hr.employees WHERE id = 2;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='Delete the record of employee with ID 2.',
+    sql='DELETE FROM employees WHERE id = 2;'
+), 0), (Example({'sql_prompt': 'What is the virtual tour engagement rate for the top 2 countries with the highest engagement rates, ordered by engagement rate in descending order?', 'sql_context': "CREATE TABLE virtual_tours (tour_id INT, hotel_name TEXT, country TEXT, engagement_rate FLOAT); INSERT INTO virtual_tours (tour_id, hotel_name, country, engagement_rate) VALUES (1, 'Hotel A', 'USA', 0.06), (2, 'Hotel B', 'Canada', 0.08), (3, 'Hotel C', 'Mexico', 0.05), (4, 'Hotel D', 'USA', 0.07);", 'sql': 'SELECT country, engagement_rate FROM (SELECT country, engagement_rate, RANK() OVER (ORDER BY engagement_rate DESC) as rank FROM virtual_tours) as subquery WHERE rank &lt;= 2 ORDER BY engagement_rate DESC;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='SELECT country, engagement_rate FROM virtual_tours ORDER BY engagement_rate DESC LIMIT 2;',
+    sql='SELECT country, engagement_rate FROM (SELECT hotel_name, country, engagement_rate, ROW_NUMBER() OVER(ORDER BY engagement_rate DESC) as rank FROM virtual_tours) AS ranked_vt WHERE rank &lt;= 2;'
+), 0), (Example({'sql_prompt': 'What is the difference in average salary between employees who have and have not completed diversity and inclusion training, by job title and region?', 'sql_context': "CREATE TABLE Employees (EmployeeID INT, Gender VARCHAR(10), JobTitle VARCHAR(50), Region VARCHAR(50), Salary INT, CompletedDiversityTraining BOOLEAN); INSERT INTO Employees (EmployeeID, Gender, JobTitle, Region, Salary, CompletedDiversityTraining) VALUES (1, 'Male', 'Manager', 'North', 70000, TRUE), (2, 'Female', 'Manager', 'South', 65000, FALSE), (3, 'Male', 'Developer', 'East', 60000, TRUE), (4, 'Female', 'Developer', 'West', 62000, FALSE);", 'sql': 'SELECT Region, JobTitle, AVG(CASE WHEN CompletedDiversityTraining THEN Salary ELSE NULL END) - AVG(CASE WHEN NOT CompletedDiversityTraining THEN Salary ELSE NULL END) AS Salary_Difference FROM Employees GROUP BY Region, JobTitle;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='SELECT E.JobTitle, R.Name as Region, AVG(CASE WHEN CompletedDiversityTraining = TRUE THEN Salary ELSE NULL END) - AVG(CASE WHEN CompletedDiversityTraining = FALSE THEN Salary ELSE NULL END) as AvgSalaryDifference FROM Employees E JOIN Regions R ON E.Region = R.Name GROUP BY E.JobTitle, R.Name;',
+    sql='SELECT E.JobTitle, R.Name as Region, AVG(CASE WHEN CompletedDiversityTraining = TRUE THEN Salary ELSE NULL END) - AVG(CASE WHEN CompletedDiversityTraining = FALSE THEN Salary ELSE NULL END) as AvgSalaryDifference FROM Employees E JOIN Regions R ON E.Region = R.Name GROUP BY E.JobTitle, R.Name;'
+), 0), (Example({'sql_prompt': 'What is the total number of eco-friendly hotels in Rome?', 'sql_context': "CREATE TABLE eco_hotels (hotel_id INT, city TEXT, sustainable_certification BOOLEAN); INSERT INTO eco_hotels (hotel_id, city, sustainable_certification) VALUES (1, 'Rome', true), (2, 'Rome', false);", 'sql': "SELECT COUNT(*) FROM eco_hotels WHERE city = 'Rome' AND sustainable_certification = true;"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="CREATE VIEW eco_hotels_rome AS SELECT * FROM eco_hotels WHERE city = 'Rome'; SELECT COUNT(*) as total_eco_hotels FROM eco_hotels_rome WHERE sustainable_certification = true;",
+    sql="CREATE VIEW eco_hotels_rome AS SELECT * FROM eco_hotels WHERE city = 'Rome'; SELECT COUNT(*) as total_eco_hotels FROM eco_hotels_rome WHERE sustainable_certification = true;"
+), 0), (Example({'sql_prompt': 'What was the change in water consumption between 2020 and 2021 for each city?', 'sql_context': "CREATE TABLE city_water_usage (city VARCHAR(50), year INT, consumption INT); INSERT INTO city_water_usage (city, year, consumption) VALUES ('CityA', 2019, 1200), ('CityA', 2020, 1500), ('CityA', 2021, 1700), ('CityB', 2019, 1000), ('CityB', 2020, 1100), ('CityB', 2021, 1300);", 'sql': 'SELECT a.city, (a.consumption - b.consumption) AS consumption_change FROM city_water_usage a INNER JOIN city_water_usage b ON a.city = b.city AND a.year = 2021 AND b.year = 2020;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='What was the change in water consumption between 2020 and 2021 for each city?',
+    sql='SELECT city, (consumption_2021 - consumption_2020) as consumption_change FROM (SELECT city, MAX(CASE WHEN year = 2021 THEN consumption END) as consumption_2021, MAX(CASE WHEN year = 2020 THEN consumption END) as consumption_2020 FROM city_water_usage GROUP BY city) t;'
+), 0), (Example({'sql_prompt': "Add a new soccer match to the 'matches' table with the given details.", 'sql_context': 'CREATE TABLE matches (match_id INT, home_team TEXT, away_team TEXT, home_goals INT, away_goals INT, match_date DATE);', 'sql': "INSERT INTO matches (match_id, home_team, away_team, home_goals, away_goals, match_date) VALUES (1, 'Barcelona', 'Real Madrid', 3, 2, '2022-10-02');"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="INSERT INTO matches (match_id, home_team, away_team, home_goals, away_goals, match_date) VALUES (103, 'Barcelona', 'Real Madrid', 2, 1, '2022-06-15');",
+    sql="INSERT INTO matches (match_id, home_team, away_team, home_goals, away_goals, match_date) VALUES (103, 'Barcelona', 'Real Madrid', 2, 1, '2022-06-15');"
+), 1), (Example({'sql_prompt': 'What is the average population size of marine turtles?', 'sql_context': "CREATE TABLE marine_species (name TEXT, category TEXT, population INT); INSERT INTO marine_species (name, category, population) VALUES ('Leatherback Turtle', 'Turtle', 5000), ('Green Sea Turtle', 'Turtle', 8000), ('Loggerhead Turtle', 'Turtle', 6000);", 'sql': "SELECT AVG(population) FROM marine_species WHERE category = 'Turtle';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="SELECT AVG(population) FROM marine_species WHERE category = 'Turtle';",
+    sql="SELECT AVG(population) FROM marine_species WHERE category = 'Turtle';"
+), 1), (Example({'sql_prompt': 'Which excavation sites have over 2000 artifacts?', 'sql_context': "CREATE TABLE Excavation_Sites (Site_ID INT, Site_Name TEXT, Country TEXT, Number_of_Artifacts INT);INSERT INTO Excavation_Sites (Site_ID, Site_Name, Country, Number_of_Artifacts) VALUES (1, 'Pompeii', 'Italy', 10000);INSERT INTO Excavation_Sites (Site_ID, Site_Name, Country, Number_of_Artifacts) VALUES (2, 'Tutankhamun', 'Egypt', 5000);INSERT INTO Excavation_Sites (Site_ID, Site_Name, Country, Number_of_Artifacts) VALUES (3, 'Machu Picchu', 'Peru', 3000);INSERT INTO Excavation_Sites (Site_ID, Site_Name, Country, Number_of_Artifacts) VALUES (4, 'Angkor Wat', 'Cambodia', 2500);INSERT INTO Excavation_Sites (Site_ID, Site_Name, Country, Number_of_Artifacts) VALUES (5, 'Teotihuacan', 'Mexico', 2001);", 'sql': 'SELECT Site_ID, Site_Name, Number_of_Artifacts FROM Excavation_Sites WHERE Number_of_Artifacts &gt; 2000;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='What is the total number of artifacts at excavation sites with over 2000 artifacts?',
+    sql='SELECT SUM(Number_of_Artifacts) as Total_Artifacts FROM Excavation_Sites WHERE Number_of_Artifacts &gt; 2000;'
+), 0), (Example({'sql_prompt': "Insert a new record into the 'energy_storage' table for a flow battery with 5 MWh capacity, located in 'Quebec'", 'sql_context': 'CREATE TABLE energy_storage (id INT PRIMARY KEY, technology VARCHAR(255), capacity FLOAT, location VARCHAR(255));', 'sql': "INSERT INTO energy_storage (technology, capacity, location) VALUES ('flow', 5, 'Quebec');"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="INSERT INTO energy_storage (technology, capacity, location) VALUES ('flow battery', 5.0, 'Quebec');",
+    sql="INSERT INTO energy_storage (technology, capacity, location) VALUES ('flow battery', 5.0, 'Quebec');"
+), 1), (Example({'sql_prompt': 'How many employees were hired in each month of 2022?', 'sql_context': "CREATE TABLE Employees (EmployeeID INT, HireDate DATE); INSERT INTO Employees (EmployeeID, HireDate) VALUES (1, '2022-01-15'); INSERT INTO Employees (EmployeeID, HireDate) VALUES (2, '2022-02-01');", 'sql': "SELECT EXTRACT(MONTH FROM HireDate) AS Month, COUNT(*) AS NumberOfHires FROM Employees WHERE HireDate BETWEEN '2022-01-01' AND '2022-12-31' GROUP BY Month;"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="Sql: SELECT DATE_FORMAT(HireDate, '%Y-%m') as Month, COUNT(*) FROM Employees WHERE YEAR(HireDate) = 2022 GROUP BY Month;",
+    sql="SELECT DATE_FORMAT(HireDate, '%Y-%m') as Month, COUNT(*) FROM Employees WHERE YEAR(HireDate) = 2022 GROUP BY Month;"
+), 1), (Example({'sql_prompt': 'What is the total revenue from concert ticket sales for artists who identify as transgender, in the last year?', 'sql_context': 'CREATE TABLE concerts (id INT, artist_id INT, location VARCHAR(255), revenue DECIMAL(10,2), concert_date DATE); CREATE TABLE artists (id INT, gender VARCHAR(255));', 'sql': "SELECT SUM(revenue) FROM concerts INNER JOIN artists ON concerts.artist_id = artists.id WHERE artists.gender LIKE '%transgender%' AND concert_date &gt;= NOW() - INTERVAL 1 YEAR;"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="SELECT SUM(revenue) as total_revenue FROM concerts c JOIN artists a ON c.artist_id = a.id WHERE a.gender = 'transgender' AND c.concert_date &gt;= DATEADD(year, -1, GETDATE());",
+    sql="SELECT SUM(revenue) as total_revenue FROM concerts c JOIN artists a ON c.artist_id = a.id WHERE a.gender = 'transgender' AND c.concert_date &gt;= DATEADD(year, -1, GETDATE());"
+), 0), (Example({'sql_prompt': "What is the average donation amount in 'Asia' region?", 'sql_context': "CREATE TABLE donations (id INT, donor_id INT, donation_amount DECIMAL(10,2), region VARCHAR(50)); INSERT INTO donations (id, donor_id, donation_amount, region) VALUES (1, 1, 100.00, 'Asia'); INSERT INTO donations (id, donor_id, donation_amount, region) VALUES (2, 2, 200.00, 'Africa'); INSERT INTO donations (id, donor_id, donation_amount, region) VALUES (3, 3, 300.00, 'Europe');", 'sql': "SELECT AVG(donation_amount) FROM donations WHERE region = 'Asia';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="SELECT AVG(donation_amount) FROM donations WHERE region = 'Asia';",
+    sql="SELECT AVG(donation_amount) FROM donations WHERE region = 'Asia';"
+), 1), (Example({'sql_prompt': 'What is the total production of iron mines in Russia?', 'sql_context': "CREATE TABLE mine (id INT, name TEXT, location TEXT, mineral TEXT, production INT); INSERT INTO mine (id, name, location, mineral, production) VALUES (1, 'Mikhailovsky GOK', 'Russia', 'Iron', 12000), (2, 'Lebedinsky GOK', 'Russia', 'Iron', 15000);", 'sql': "SELECT SUM(production) FROM mine WHERE mineral = 'Iron' AND location = 'Russia';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='What is the total production of iron mines in Russia?',
+    sql="SELECT SUM(production) FROM mine WHERE mineral = 'Iron' AND location = 'Russia';"
+), 1), (Example({'sql_prompt': "What is the total quantity of 'Tencel Lyocell' and 'Bamboo Viscose' fabrics in stock?", 'sql_context': "CREATE TABLE inventory (id INT PRIMARY KEY, fabric_name VARCHAR(50), size VARCHAR(10), quantity INT, color VARCHAR(10)); INSERT INTO inventory (id, fabric_name, size, quantity, color) VALUES (1, 'Organic Cotton', 'S', 100, 'White'); INSERT INTO inventory (id, fabric_name, size, quantity, color) VALUES (2, 'Tencel Lyocell', 'M', 75, 'Green'); INSERT INTO inventory (id, fabric_name, size, quantity, color) VALUES (3, 'Bamboo Viscose', 'L', 50, 'Natural');", 'sql': "SELECT SUM(quantity) as total_quantity FROM inventory WHERE fabric_name IN ('Tencel Lyocell', 'Bamboo Viscose');"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="What is the total quantity of 'Tencel Lyocell' and 'Bamboo Viscose' fabrics in stock?",
+    sql="SELECT SUM(quantity) FROM inventory WHERE fabric_name IN ('Tencel Lyocell', 'Bamboo Viscose');"
+), 1), (Example({'sql_prompt': 'What is the percentage of parolees who have reoffended in Texas, broken down by gender and race, for the years 2017 and 2018?', 'sql_context': "CREATE TABLE parolee (parolee_id INT, year INT, gender TEXT, race TEXT, reoffender BOOLEAN); INSERT INTO parolee (parolee_id, year, gender, race, reoffender) VALUES (1, 2017, 'Male', 'White', TRUE); INSERT INTO parolee (parolee_id, year, gender, race, reoffender) VALUES (2, 2017, 'Female', 'Black', FALSE); INSERT INTO parolee (parolee_id, year, gender, race, reoffender) VALUES (3, 2018, 'Male', 'Hispanic', TRUE); INSERT INTO parolee (parolee_id, year, gender, race, reoffender) VALUES (4, 2018, 'Female', 'Asian', FALSE);", 'sql': 'SELECT c.year, c.gender, c.race, COUNT(c.parolee_id) AS parolees, AVG(CAST(c.reoffender AS FLOAT)) * 100 AS reoffender_percentage FROM parolee c WHERE c.year IN (2017, 2018) GROUP BY c.year, c.gender, c.race;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='SELECT p.gender, p.race, ROUND(COUNT(*) * 100.0 / (SELECT COUNT(*) FROM parolee WHERE year IN (2017, 2018) AND reoffender = TRUE), 2) as percentage_reoffended FROM parolee p WHERE p.year IN (2017, 2018) AND p.reoffender = TRUE GROUP BY p.gender, p.race;',
+    sql='SELECT p.gender, p.race, ROUND(COUNT(*) * 100.0 / (SELECT COUNT(*) FROM parolee WHERE year IN (2017, 2018) AND reoffender = TRUE), 2) as percentage_reoffended FROM parolee p WHERE p.year IN (2017, 2018) AND p.reoffender = TRUE GROUP BY p.gender, p.race;'
+), 1), (Example({'sql_prompt': 'What are the top 5 states with the most dispensaries?', 'sql_context': "CREATE TABLE DispensariesByState (State TEXT, DispensaryCount INTEGER); INSERT INTO DispensariesByState (State, DispensaryCount) VALUES ('California', 1000), ('Colorado', 750), ('Oregon', 550), ('Washington', 400), ('Nevada', 350);", 'sql': 'SELECT State, DispensaryCount FROM DispensariesByState ORDER BY DispensaryCount DESC LIMIT 5;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='SELECT State, DispensaryCount FROM (SELECT State, DispensaryCount, ROW_NUMBER() OVER(ORDER BY DispensaryCount DESC) as rn FROM DispensariesByState) t WHERE rn &lt;= 5;',
+    sql='SELECT State, DispensaryCount FROM (SELECT State, DispensaryCount, ROW_NUMBER() OVER(ORDER BY DispensaryCount DESC) as rn FROM DispensariesByState) t WHERE rn &lt;= 5;'
+), 1), (Example({'sql_prompt': "For the 'design_standards' table, add a new row with the following information: ID 4, name 'Bridge Design Standards for Earthquake Zones', version '2022', and description 'New standards for bridge design in earthquake zones'.", 'sql_context': 'CREATE TABLE design_standards (id INT, name VARCHAR(50), version INT, description VARCHAR(100));', 'sql': "INSERT INTO design_standards (id, name, version, description) VALUES (4, 'Bridge Design Standards for Earthquake Zones', 2022, 'New standards for bridge design in earthquake zones');"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="INSERT INTO design_standards (id, name, version, description) VALUES (4, 'Bridge Design Standards for Earthquake Zones', 2022, 'New standards for bridge design in earthquake zones');",
+    sql="INSERT INTO design_standards (id, name, version, description) VALUES (4, 'Bridge Design Standards for Earthquake Zones', 2022, 'New standards for bridge design in earthquake zones');"
+), 1), (Example({'sql_prompt': "Which rugby team has the most tries scored in the 'tries' table?", 'sql_context': 'CREATE TABLE tries (try_id INT, player_id INT, match_id INT, team_id INT, tries INT); INSERT INTO tries (try_id, player_id, match_id, team_id, tries) VALUES (1, 4, 6, 403, 1);', 'sql': 'SELECT team_id, SUM(tries) FROM tries GROUP BY team_id ORDER BY SUM(tries) DESC LIMIT 1;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='Sql: SELECT team_id, MAX(tries) as max_tries FROM tries GROUP BY team_id ORDER BY max_tries DESC LIMIT 1;',
+    sql='SELECT team_id, MAX(tries) as max_tries FROM tries GROUP BY team_id ORDER BY max_tries DESC LIMIT 1;'
+), 0), (Example({'sql_prompt': 'Delete the workout row with the id of 2.', 'sql_context': "CREATE TABLE Workouts (id INT, user_id INT, workout_name TEXT, calories INT); INSERT INTO Workouts (id, user_id, workout_name, calories) VALUES (1, 1, 'Running', 300); INSERT INTO Workouts (id, user_id, workout_name, calories) VALUES (2, 1, 'Cycling', 400); INSERT INTO Workouts (id, user_id, workout_name, calories) VALUES (3, 2, 'Yoga', 200);", 'sql': 'DELETE FROM Workouts WHERE id = 2;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='Delete the record with id 2 from the Workouts table.',
+    sql='DELETE FROM Workouts WHERE id = 2;'
+), 1), (Example({'sql_prompt': "How many volunteers with 'Medical' skills were assigned before a volunteer with 'Engineering' skills?", 'sql_context': "CREATE TABLE volunteers_ext (id INT, name VARCHAR(50), age INT, gender VARCHAR(10), skill VARCHAR(50), assignment_date DATE, end_date DATE); INSERT INTO volunteers_ext (id, name, age, gender, skill, assignment_date, end_date) VALUES (1, 'David', 25, 'Male', 'Medical', '2022-06-01', '2022-09-30'), (2, 'Emma', 30, 'Female', 'Engineering', '2022-07-15', '2023-06-30');", 'sql': "SELECT COUNT(*) FROM (SELECT skill, assignment_date, LAG(skill) OVER (ORDER BY assignment_date) AS prev_skill FROM volunteers_ext WHERE skill = 'Medical') t WHERE prev_skill = 'Engineering';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="SELECT COUNT(*) FROM (SELECT *, ROW_NUMBER() OVER(ORDER BY assignment_date) as rn FROM volunteers_ext WHERE skill = 'Medical') v1 JOIN (SELECT *, ROW_NUMBER() OVER(ORDER BY assignment_date) as rn FROM volunteers_ext WHERE skill = 'Engineering') v2 ON v1.rn &lt; v2.rn;",
+    sql="SELECT COUNT(*) FROM (SELECT *, ROW_NUMBER() OVER(ORDER BY assignment_date) as rn FROM volunteers_ext WHERE skill = 'Medical') v1 JOIN (SELECT *, ROW_NUMBER() OVER(ORDER BY assignment_date) as rn FROM volunteers_ext WHERE skill = 'Engineering') v2 ON v1.rn &lt; v2.rn;"
+), 0), (Example({'sql_prompt': "What is the average age of female athletes in the 'basketball_players' table?", 'sql_context': "CREATE TABLE basketball_players (id INT, name VARCHAR(50), position VARCHAR(50), age INT, team VARCHAR(50)); INSERT INTO basketball_players (id, name, position, age, team) VALUES (1, 'Alice Johnson', 'Guard', 25, 'Lakers'); INSERT INTO basketball_players (id, name, position, age, team) VALUES (2, 'Bella Smith', 'Forward', 28, 'Celtics');", 'sql': "SELECT AVG(age) FROM basketball_players WHERE gender = 'female';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="SELECT AVG(age) FROM basketball_players WHERE position = 'Guard' AND gender = 'Female';",
+    sql="SELECT AVG(age) FROM basketball_players WHERE position = 'Guard' AND gender = 'Female';"
+), 0), (Example({'sql_prompt': 'Find the total number of fans who have attended football and basketball games separately.', 'sql_context': "CREATE TABLE fans (id INT, name VARCHAR(50)); CREATE TABLE events (id INT, event_type VARCHAR(20), tickets_bought INT); INSERT INTO fans (id, name) VALUES (1, 'John Doe'), (2, 'Jane Smith'), (3, 'Richard Roe'); INSERT INTO events (id, event_type, tickets_bought) VALUES (1, 'Football', 2), (1, 'Basketball', 1), (2, 'Football', 1), (2, 'Basketball', 3), (3, 'Football', 1), (3, 'Basketball', 2);", 'sql': "SELECT SUM(CASE WHEN event_type = 'Basketball' THEN tickets_bought ELSE 0 END) + SUM(CASE WHEN event_type = 'Football' THEN tickets_bought ELSE 0 END) FROM events INNER JOIN fans ON events.id = fans.id;"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='Find the total number of fans who have attended football and basketball games separately. We need to sum up tickets_bought for each fan, separated by event_type.',
+    sql="SELECT F.name as FanName, SUM(CASE WHEN E.event_type = 'Football' THEN E.tickets_bought ELSE 0 END) as TotalFootballGamesAttended, SUM(CASE WHEN E.event_type = 'Basketball' THEN E.tickets_bought ELSE 0 END) as TotalBasketballGamesAttended FROM fans F JOIN events E ON F.id = (SELECT f2.id FROM fans f2 WHERE f2.name = F.name LIMIT"
+), 0), (Example({'sql_prompt': 'Delete all records in the "hotel_reviews" table that do not have a rating of at least 4?', 'sql_context': "CREATE TABLE hotel_reviews (review_id INT, hotel_id INT, rating INT, review TEXT); INSERT INTO hotel_reviews (review_id, hotel_id, rating, review) VALUES (1, 101, 5, 'Excellent stay'), (2, 102, 3, 'Average stay'), (3, 103, 4, 'Good stay'), (4, 104, 1, 'Terrible stay');", 'sql': 'DELETE FROM hotel_reviews WHERE rating &lt; 4;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='Delete all records from the "hotel_reviews" table that do not have a rating of at least 4.',
+    sql='DELETE FROM hotel_reviews WHERE rating &lt; 4;'
+), 0), (Example({'sql_prompt': 'What is the total cost of space missions led by each country?', 'sql_context': "CREATE TABLE missions (mission_name VARCHAR(50), country VARCHAR(50), cost INT); INSERT INTO missions (mission_name, country, cost) VALUES ('Apollo', 'USA', 25000000000), ('Artemis', 'USA', 30000000000), ('Luna', 'Russia', 5000000000);", 'sql': 'SELECT country, SUM(cost) as total_cost FROM missions GROUP BY country ORDER BY total_cost DESC;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='What is the total cost of space missions led by each country?',
+    sql='SELECT country, SUM(cost) as TotalCost FROM missions GROUP BY country;'
+), 1), (Example({'sql_prompt': 'What is the minimum speed in knots for vessels that docked at the port of Hong Kong between the dates of June 15th and June 30th, 2021?', 'sql_context': "CREATE TABLE Vessels(Id INT, Name VARCHAR(255), AverageSpeed DECIMAL(5,2)); CREATE TABLE DockingHistory(Id INT, VesselId INT, Port VARCHAR(255), DockingDateTime DATETIME); INSERT INTO Vessels VALUES (1, 'VesselA', 15.5), (2, 'VesselB', 18.3), (3, 'VesselC', 20.2); INSERT INTO DockingHistory VALUES (1, 1, 'Hong Kong', '2021-06-16 12:00:00'), (2, 1, 'Hong Kong', '2021-06-25 15:00:00'), (3, 2, 'Hong Kong', '2021-06-20 09:00:00'), (4, 3, 'Hong Kong', '2021-06-22 18:00:00');", 'sql': "SELECT MIN(v.AverageSpeed) FROM Vessels v INNER JOIN DockingHistory dh ON v.Id = dh.VesselId WHERE dh.Port = 'Hong Kong' AND dh.DockingDateTime BETWEEN '2021-06-15' AND '2021-06-30';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="SELECT MIN(V.AverageSpeed) as MinSpeedInKnots FROM Vessels V JOIN DockingHistory DH ON V.Id = DH.VesselId WHERE DH.Port = 'Hong Kong' AND DH.DockingDateTime BETWEEN '2021-06-15 00:00:00' AND '2021-06-30 23:59:59';",
+    sql="SELECT MIN(V.AverageSpeed) as MinSpeedInKnots FROM Vessels V JOIN DockingHistory DH ON V.Id = DH.VesselId WHERE DH.Port = 'Hong Kong' AND DH.DockingDateTime BETWEEN '2021-06-15 00:00:00' AND '2021-06-30 23:59:59';"
+), 0), (Example({'sql_prompt': 'What is the average income of residents in each city in the state of California, grouped by city and ordered by average income in descending order?', 'sql_context': "CREATE TABLE cities (id INT PRIMARY KEY, name TEXT, state TEXT); INSERT INTO cities (id, name, state) VALUES (1, 'Los Angeles', 'California'), (2, 'San Diego', 'California'), (3, 'San Jose', 'California'); CREATE TABLE incomes (id INT PRIMARY KEY, city_id INT, income INT); INSERT INTO incomes (id, city_id, income) VALUES (1, 1, 50000), (2, 1, 70000), (3, 2, 45000), (4, 2, 60000), (5, 3, 48000), (6, 3, 52000);", 'sql': "SELECT c.name, AVG(i.income) FROM cities c JOIN incomes i ON c.id = i.city_id WHERE c.state = 'California' GROUP BY c.name ORDER BY AVG(i.income) DESC;"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="SELECT c.name as city_name, AVG(i.income) as avg_income FROM cities c JOIN incomes i ON c.id = i.city_id WHERE c.state = 'California' GROUP BY c.name ORDER BY avg_income DESC;",
+    sql="SELECT c.name as city_name, AVG(i.income) as avg_income FROM cities c JOIN incomes i ON c.id = i.city_id WHERE c.state = 'California' GROUP BY c.name ORDER BY avg_income DESC;"
+), 1), (Example({'sql_prompt': 'What is the total quantity of a specific dish sold on a given date?', 'sql_context': "CREATE TABLE dishes (id INT, name TEXT, type TEXT, price DECIMAL, inventory INT); INSERT INTO dishes (id, name, type, price, inventory) VALUES (1, 'Pizza Margherita', 'Veg', 7.50, 50), (2, 'Chicken Alfredo', 'Non-Veg', 12.00, 30), (3, 'Veggie Delight Sandwich', 'Veg', 6.50, 7</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>281.34</v>
+      </c>
+      <c r="R6" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>[(Example({'sql_prompt': "How many artworks were created by 'Vincent van Gogh'?", 'sql_context': 'CREATE TABLE artworks (id INT PRIMARY KEY, title VARCHAR(255), artist VARCHAR(255), year INT);', 'sql': "SELECT COUNT(*) FROM artworks WHERE artist = 'Vincent van Gogh';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="CREATE VIEW gogh_artworks AS SELECT * FROM artworks WHERE artist = 'Vincent van Gogh'; SELECT COUNT(*) as total_gogh_artworks FROM gogh_artworks;",
+    sql="CREATE VIEW gogh_artworks AS SELECT * FROM artworks WHERE artist = 'Vincent van Gogh'; SELECT COUNT(*) as total_gogh_artworks FROM gogh_artworks;"
+), 0), (Example({'sql_prompt': 'How many products are sourced from fair-trade suppliers?', 'sql_context': 'CREATE TABLE products (product_id INT PRIMARY KEY, fair_trade BOOLEAN); INSERT INTO products (product_id, fair_trade) VALUES (1, true), (2, false), (3, true), (4, false);', 'sql': 'SELECT COUNT(*) FROM products WHERE fair_trade = true;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='Sql: SELECT COUNT(*) FROM products WHERE fair_trade = true;',
+    sql='CREATE TABLE products (product_id INT PRIMARY KEY, fair_trade BOOLEAN); INSERT INTO products (product_id, fair_trade) VALUES (1, true), (2, false), (3, true), (4, false); SELECT COUNT(*) FROM products WHERE fair_trade = true;'
+), 0), (Example({'sql_prompt': "How many workers are represented by the 'United Steelworkers' union?", 'sql_context': 'CREATE TABLE if not exists union_membership (union_id INT, worker_id INT); INSERT INTO union_membership (union_id, worker_id) VALUES (1, 1001), (1, 1002), (1, 1003), (2, 2001), (2, 2002), (3, 3001);', 'sql': "SELECT COUNT(worker_id) FROM union_membership WHERE union_id = (SELECT union_id FROM unions WHERE union_name = 'United Steelworkers');"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="CREATE TABLE unions (union_id INT PRIMARY KEY, union_name VARCHAR(50)); INSERT INTO unions (union_id, union_name) VALUES (1, 'United Steelworkers'), (2, 'Teamsters'), (3, 'Service Employees International Union'); SELECT COUNT(*) FROM union_membership JOIN unions ON union_membership.union_id = unions.union_id WHERE unions.union_name = 'United Steelworkers';",
+    sql="CREATE TABLE if not exists union_membership (union_id INT, worker_id INT); INSERT INTO union_membership (union_id, worker_id) VALUES (1, 1001), (1, 1002), (1, 1003), (2, 2001), (2, 2002), (3, 3001); CREATE TABLE unions (union_id INT PRIMARY KEY, union_name VARCHAR(50)); INSERT INTO unions (union_id, union_name) VALUES (1, 'United Steelworkers'), (2, 'Teamsters'), (3, 'Service Emp"
+), 0), (Example({'sql_prompt': "What is the total quantity of resources extracted by gender and race in the 'mining_operations' database?", 'sql_context': "CREATE TABLE resource_extraction (resource_id INT PRIMARY KEY, resource_name VARCHAR(50), quantity INT, extractor_gender VARCHAR(10), extractor_race VARCHAR(30)); INSERT INTO resource_extraction (resource_id, resource_name, quantity, extractor_gender, extractor_race) VALUES (1, 'Gold', 1000, 'Male', 'Caucasian'), (2, 'Silver', 800, 'Female', 'African American'), (3, 'Copper', 1200, 'Non-binary', 'Hispanic'), (4, 'Iron', 1500, 'Male', 'Asian');", 'sql': 'SELECT extractor_gender, extractor_race, SUM(quantity) as total_quantity FROM resource_extraction GROUP BY extractor_gender, extractor_race;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='What is the total quantity of resources extracted by gender and race?',
+    sql='SELECT extractor_gender, extractor_race, SUM(quantity) as TotalQuantity FROM resource_extraction GROUP BY extractor_gender, extractor_race;'
+), 1), (Example({'sql_prompt': 'What are the smart contracts written in Vyper by developers from the USA?', 'sql_context': "CREATE TABLE developers (developer_id INT PRIMARY KEY, name VARCHAR(50), age INT, gender VARCHAR(10), country VARCHAR(50)); INSERT INTO developers (developer_id, name, age, gender, country) VALUES (1, 'Alice', 30, 'Female', 'USA'); INSERT INTO developers (developer_id, name, age, gender, country) VALUES (2, 'Bob', 35, 'Male', 'Canada'); CREATE TABLE smart_contracts (contract_id INT PRIMARY KEY, contract_name VARCHAR(50), developer_id INT, language VARCHAR(20), FOREIGN KEY (developer_id) REFERENCES developers(developer_id)); INSERT INTO smart_contracts (contract_id, contract_name, developer_id, language) VALUES (1, 'Contract1', 1, 'Solidity'); INSERT INTO smart_contracts (contract_id, contract_name, developer_id, language) VALUES (2, 'Contract2', 2, 'Vyper');", 'sql': "SELECT smart_contracts.contract_name FROM smart_contracts INNER JOIN developers ON smart_contracts.developer_id = developers.developer_id WHERE developers.country = 'USA' AND smart_contracts.language = 'Vyper';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='What are the smart contracts written in Vyper by developers from the USA?',
+    sql="SELECT S.contract_name FROM smart_contracts S JOIN developers D ON S.developer_id = D.developer_id WHERE D.country = 'USA' AND S.language = 'Vyper';"
+), 1), (Example({'sql_prompt': "List the number of IoT sensors in the 'PrecisionFarming' schema that have a 'moisture' measurement and were installed after 2019-01-01.", 'sql_context': "CREATE SCHEMA PrecisionFarming; CREATE TABLE IoT_Sensors (sensor_id INT, sensor_name VARCHAR(50), measurement VARCHAR(50), install_date DATE); INSERT INTO PrecisionFarming.IoT_Sensors (sensor_id, sensor_name, measurement, install_date) VALUES (4, 'Sensor4', 'moisture', '2020-01-01'), (5, 'Sensor5', 'moisture', '2019-06-15'), (6, 'Sensor6', 'temperature', '2021-03-02'), (7, 'Sensor7', 'humidity', '2018-12-31');", 'sql': "SELECT COUNT(*) FROM PrecisionFarming.IoT_Sensors WHERE measurement = 'moisture' AND install_date &gt; '2019-01-01';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="SELECT COUNT(*) FROM PrecisionFarming.IoT_Sensors WHERE measurement = 'moisture' AND install_date &gt; '2019-01-01';",
+    sql="SELECT COUNT(*) FROM PrecisionFarming.IoT_Sensors WHERE measurement = 'moisture' AND install_date &gt; '2019-01-01';"
+), 1), (Example({'sql_prompt': 'What is the maximum quantity of a single organic product delivered in the DELIVERY_RECORDS table?', 'sql_context': 'CREATE TABLE DELIVERY_RECORDS (id INT, supplier_id INT, product_id INT, is_organic BOOLEAN, quantity INT); INSERT INTO DELIVERY_RECORDS (id, supplier_id, product_id, is_organic, quantity) VALUES (1, 1, 1, true, 50), (2, 2, 2, true, 30);', 'sql': 'SELECT MAX(quantity) FROM DELIVERY_RECORDS WHERE is_organic = true;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="What is the maximum quantity of a single organic product delivered? We need to find the highest 'quantity' value for rows where 'is_organic' is true.",
+    sql='SELECT MAX(quantity) FROM DELIVERY_RECORDS WHERE is_organic = true;'
+), 1), (Example({'sql_prompt': 'What is the total budget allocated for accommodations and support programs in the West?', 'sql_context': "CREATE TABLE Accommodations (ID INT, Type VARCHAR(50), Cost FLOAT, Region VARCHAR(50)); INSERT INTO Accommodations (ID, Type, Cost, Region) VALUES (1, 'Note-taking Services', 20000.0, 'West'), (2, 'Accessible Furniture', 25000.0, 'West'); CREATE TABLE SupportPrograms (ID INT, Type VARCHAR(50), Cost FLOAT, Region VARCHAR(50)); INSERT INTO SupportPrograms (ID, Type, Cost, Region) VALUES (1, 'Assistive Technology Grant', 30000.0, 'West'), (2, 'Disability Awareness Training', 35000.0, 'West');", 'sql': "SELECT SUM(A.Cost) + SUM(S.Cost) FROM Accommodations A, SupportPrograms S WHERE A.Region = 'West' AND S.Region = 'West';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="Sql: SELECT SUM(A.Cost) + SUM(S.Cost) as TotalBudget FROM Accommodations A JOIN SupportPrograms S ON 1=1 WHERE A.Region = 'West' AND S.Region = 'West';",
+    sql="SELECT SUM(A.Cost) + SUM(S.Cost) as TotalBudget FROM Accommodations A JOIN SupportPrograms S ON 1=1 WHERE A.Region = 'West' AND S.Region = 'West';"
+), 1), (Example({'sql_prompt': 'Show the number of electric vehicle charging stations in the top 10 most populous cities in the US.', 'sql_context': 'CREATE TABLE cities (city_name TEXT, population INT);CREATE TABLE charging_stations (station_id INT, station_name TEXT, city_name TEXT, num_charging_points INT);', 'sql': 'SELECT c.city_name, COUNT(cs.station_id) AS num_charging_stations FROM cities c JOIN charging_stations cs ON c.city_name = cs.city_name GROUP BY c.city_name ORDER BY population DESC LIMIT 10;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='SELECT C.city_name, COUNT(CS.station_id) as total_stations FROM cities C JOIN charging_stations CS ON C.city_name = CS.city_name WHERE C.population IN (SELECT population FROM cities ORDER BY population DESC LIMIT 10) GROUP BY C.city_name;',
+    sql="CREATE TABLE cities (id INT, name VARCHAR(255), country VARCHAR(255), population INT); INSERT INTO cities (id, name, country, population) VALUES (1, 'Los Angeles', 'USA', 4000000); CREATE TABLE charging_stations (id INT, city_name VARCHAR(255), num_chargers INT); INSERT INTO charging_stations (id, city_name, num_chargers) VALUES (1, 'Los Angeles', 3000); SELECT cs.city_name, COUNT(cs.id) as total_stations FROM cities c JOIN charging_stations cs ON c.name = cs."
+), 0), (Example({'sql_prompt': 'What is the maximum and minimum population of animals for each species?', 'sql_context': "CREATE TABLE animal_population (species VARCHAR(50), population INT); INSERT INTO animal_population (species, population) VALUES ('Tiger', 300), ('Lion', 250), ('Elephant', 500), ('Giraffe', 200);", 'sql': 'SELECT species, MIN(population) OVER (PARTITION BY species) as min_population, MAX(population) OVER (PARTITION BY species) as max_population FROM animal_population ORDER BY species;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='SELECT species, MAX(population) as max_population, MIN(population) as min_population FROM animal_population GROUP BY species;',
+    sql='SELECT species, MAX(population) as max_population, MIN(population) as min_population FROM animal_population GROUP BY species;'
+), 0), (Example({'sql_prompt': 'What is the total amount of mineral extraction by type?', 'sql_context': "CREATE TABLE extraction (extraction_id INT, mine_id INT, year INT, mineral VARCHAR(255), quantity INT); INSERT INTO extraction (extraction_id, mine_id, year, mineral, quantity) VALUES (1, 1, 2018, 'Gold', 1000), (2, 1, 2019, 'Gold', 1200), (3, 2, 2018, 'Uranium', 2000), (4, 2, 2019, 'Uranium', 2500);", 'sql': 'SELECT mineral, SUM(quantity) FROM extraction GROUP BY mineral;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='What is the total amount of mineral extraction by type?',
+    sql='SELECT mineral, SUM(quantity) as TotalQuantity FROM extraction GROUP BY mineral;'
+), 1), (Example({'sql_prompt': 'What is the average rating of hotels that have a spa and a gym?', 'sql_context': "CREATE TABLE hotel_ratings (id INT, hotel_id INT, rating INT); INSERT INTO hotel_ratings (id, hotel_id, rating) VALUES (1, 101, 4); INSERT INTO hotel_amenities (id, hotel_id, amenity) VALUES (1, 101, 'Spa'), (2, 101, 'Gym');", 'sql': "SELECT AVG(hr.rating) as avg_rating FROM hotel_ratings hr INNER JOIN hotel_amenities ha ON hr.hotel_id = ha.hotel_id WHERE ha.amenity IN ('Spa', 'Gym') GROUP BY hr.hotel_id;"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="SELECT AVG(rating) FROM hotel_ratings hr JOIN hotel_amenities ha ON hr.hotel_id = ha.hotel_id WHERE amenity IN ('Spa', 'Gym') GROUP BY hotel_id HAVING COUNT(DISTINCT amenity) = 2;",
+    sql="SELECT AVG(rating) FROM hotel_ratings hr JOIN hotel_amenities ha ON hr.hotel_id = ha.hotel_id WHERE amenity IN ('Spa', 'Gym') GROUP BY hotel_id HAVING COUNT(DISTINCT amenity) = 2;"
+), 1), (Example({'sql_prompt': "What is the minimum wage for 'temporary' workers in the 'logistics' sector, and how many such workers are there?", 'sql_context': "CREATE TABLE employee_records (id INT, employment_type VARCHAR(10), sector VARCHAR(20), wage FLOAT); INSERT INTO employee_records (id, employment_type, sector, wage) VALUES (1, 'temporary', 'logistics', 14.00), (2, 'permanent', 'logistics', 18.00), (3, 'temporary', 'logistics', 13.50), (4, 'permanent', 'logistics', 20.00);", 'sql': "SELECT MIN(wage), COUNT(*) FROM employee_records WHERE employment_type = 'temporary' AND sector = 'logistics';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="SELECT employment_type, MIN(wage) as min_wage FROM employee_records WHERE sector = 'logistics' AND employment_type = 'temporary'; SELECT COUNT(*) as num_workers FROM employee_records WHERE sector = 'logistics' AND employment_type = 'temporary';",
+    sql="SELECT MIN(wage) as min_wage, COUNT(*) as num_workers FROM employee_records WHERE sector = 'logistics' AND employment_type = 'temporary';"
+), 1), (Example({'sql_prompt': 'List the number of virtual tours in India and Argentina.', 'sql_context': "CREATE TABLE virtual_tours (tour_id INT, location VARCHAR(255), type VARCHAR(255)); INSERT INTO virtual_tours (tour_id, location, type) VALUES (1, 'India Virtual Tour', 'virtual'), (2, 'Argentina Virtual Tour', 'virtual');", 'sql': "SELECT COUNT(*) FROM virtual_tours WHERE location IN ('India', 'Argentina');"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='List the number of virtual tours available for India and Argentina.',
+    sql="SELECT location FROM virtual_tours WHERE type = 'virtual' AND (location LIKE '%India%' OR location LIKE '%Argentina%');"
+), 0), (Example({'sql_prompt': "What is the average water temperature for each species in the 'fish_tanks' table?", 'sql_context': "CREATE TABLE fish_tanks (tank_id INT, species VARCHAR(255), water_temperature DECIMAL(5,2)); INSERT INTO fish_tanks (tank_id, species, water_temperature) VALUES (1, 'Tilapia', 26.5), (2, 'Salmon', 12.0), (3, 'Tilapia', 27.3), (4, 'Catfish', 24.6), (5, 'Salmon', 12.5);", 'sql': 'SELECT species, AVG(water_temperature) as avg_temp FROM fish_tanks GROUP BY species;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='SELECT species, AVG(water_temperature) as avg_temp FROM fish_tanks GROUP BY species;',
+    sql='SELECT species, AVG(water_temperature) as avg_temp FROM fish_tanks GROUP BY species;'
+), 1), (Example({'sql_prompt': 'What is the average number of installations visited per visitor, partitioned by city?', 'sql_context': "CREATE TABLE Cities (CityID INT, City VARCHAR(50)); INSERT INTO Cities (CityID, City) VALUES (1, 'New York'), (2, 'Los Angeles'); CREATE TABLE Visits (VisitID INT, VisitorID INT, CityID INT, InstallationID INT); INSERT INTO Visits (VisitID, VisitorID, CityID, InstallationID) VALUES (1, 1, 1, 1), (2, 1, 1, 2), (3, 2, 2, 3);", 'sql': 'SELECT City, AVG(InstallationID) OVER (PARTITION BY CityID) AS AvgInstallationsPerVisitor FROM Visits V JOIN Cities C ON V.CityID = C.CityID;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='SELECT CityID, AVG(COUNT(*)) OVER (PARTITION BY CityID) as AvgInstallationsPerVisitor FROM Visits GROUP BY CityID;',
+    sql='SELECT CityID, AVG(COUNT(*)) OVER (PARTITION BY CityID) as AvgInstallationsPerVisitor FROM Visits GROUP BY CityID;'
+), 0), (Example({'sql_prompt': 'What is the maximum age of patients diagnosed with Hypertension?', 'sql_context': "CREATE TABLE Patients (PatientID INT, Age INT, Gender VARCHAR(10), Diagnosis VARCHAR(20), Location VARCHAR(20)); INSERT INTO Patients (PatientID, Age, Gender, Diagnosis, Location) VALUES (1, 35, 'Male', 'Asthma', 'Texas'); INSERT INTO Patients (PatientID, Age, Gender, Diagnosis, Location) VALUES (2, 42, 'Female', 'Asthma', 'Texas'); INSERT INTO Patients (PatientID, Age, Gender, Diagnosis, Location) VALUES (3, 50, 'Male', 'Diabetes', 'Urban'); INSERT INTO Patients (PatientID, Age, Gender, Diagnosis, Location) VALUES (4, 60, 'Female', 'Hypertension', 'Rural');", 'sql': "SELECT MAX(Age) FROM Patients WHERE Diagnosis = 'Hypertension';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='What is the maximum age of patients diagnosed with Hypertension?',
+    sql="SELECT MAX(Age) as MaxAge FROM Patients WHERE Diagnosis = 'Hypertension';"
+), 1), (Example({'sql_prompt': 'How many socially responsible loans were issued to customers in the South?', 'sql_context': "CREATE TABLE loans (loan_number INT, customer_name VARCHAR(50), issue_date DATE, is_socially_responsible BOOLEAN, region VARCHAR(20)); INSERT INTO loans (loan_number, customer_name, issue_date, is_socially_responsible, region) VALUES (1, 'Ahmed', '2021-01-01', true, 'South'), (2, 'Sara', '2021-02-15', false, 'North'), (3, 'Mohammed', '2021-03-03', true, 'South');", 'sql': "SELECT COUNT(*) FROM loans WHERE is_socially_responsible = true AND region = 'South';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="SELECT COUNT(*) FROM loans WHERE is_socially_responsible = true AND region = 'South';",
+    sql="SELECT COUNT(*) FROM loans WHERE is_socially_responsible = true AND region = 'South';"
+), 1), (Example({'sql_prompt': 'What is the total number of volunteers for nonprofits in California?', 'sql_context': 'CREATE TABLE Nonprofits (NonprofitID INT, Name VARCHAR(50), City VARCHAR(50), State VARCHAR(2), Zip VARCHAR(10), MissionStatement TEXT, TotalVolunteers INT); CREATE TABLE Volunteers (VolunteerID INT, VolunteerName VARCHAR(50), NonprofitID INT, Hours INT);', 'sql': "SELECT SUM(V.Hours) FROM Volunteers V INNER JOIN Nonprofits N ON V.NonprofitID = N.NonprofitID WHERE N.State = 'CA';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="What is the total number of volunteers for nonprofits in California?\nSql Context: CREATE TABLE Nonprofits (NonprofitID INT, Name VARCHAR(50), City VARCHAR(50), State VARCHAR(2), Zip VARCHAR(10), MissionStatement TEXT, TotalVolunteers INT); INSERT INTO Nonprofits (NonprofitID, Name, City, State, Zip, MissionStatement, TotalVolunteers) VALUES (1, 'California Wildlife', 'San Francisco', 'CA', '94117', 'Conservation of California wildlife and their habitats.', 200); INSERT INTO Nonprofits (NonprofitID, Name",
+    sql="SELECT SUM(TotalVolunteers) as TotalCaliforniaVolunteers FROM Nonprofits WHERE State = 'CA';"
+), 1), (Example({'sql_prompt': "What is the total quantity of corn sold by farmers in 'Summerfield'?", 'sql_context': "CREATE TABLE farmers (id INT, name VARCHAR(50), location VARCHAR(50), crops VARCHAR(50)); CREATE TABLE crops (id INT, name VARCHAR(50), yield INT); CREATE TABLE sales (id INT, farmer_id INT, crop_name VARCHAR(50), quantity INT, price DECIMAL(5,2)); INSERT INTO farmers VALUES (1, 'Jane Doe', 'Summerfield', 'Corn'); INSERT INTO crops VALUES (1, 'Corn', 100); INSERT INTO sales VALUES (1, 1, 'Corn', 50, 2.50);", 'sql': "SELECT SUM(quantity) FROM sales INNER JOIN farmers ON sales.farmer_id = farmers.id INNER JOIN crops ON sales.crop_name = crops.name WHERE farmers.location = 'Summerfield' AND crops.name = 'Corn';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="What is the total quantity of corn sold by farmers in 'Summerfield'?",
+    sql="SELECT SUM(quantity) FROM sales JOIN crops ON sales.crop_name = crops.name JOIN farmers ON sales.farmer_id = farmers.id WHERE farmers.location = 'Summerfield' AND crops.name = 'Corn';"
+), 1), (Example({'sql_prompt': 'Delete all rows in the comments table with a rating of 1.', 'sql_context': 'CREATE TABLE comments (id INT, article_id INT, user VARCHAR(255), comment TEXT, rating INT);', 'sql': 'DELETE FROM comments WHERE rating = 1;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='Delete all rows from the comments table where the rating is 1.',
+    sql='DELETE FROM comments WHERE rating = 1;'
+), 1), (Example({'sql_prompt': 'Update the names of all news agencies from country X to their official English names.', 'sql_context': "CREATE TABLE news_agencies (id INT, name TEXT, country TEXT); INSERT INTO news_agencies (id, name, country) VALUES (1, 'Agency 1', 'Country X'); CREATE TABLE articles (id INT, title TEXT, agency_id INT); INSERT INTO articles (id, title, agency_id) VALUES (1, 'Article 1', 1);", 'sql': "UPDATE news_agencies SET name = CASE WHEN country = 'Country X' THEN 'Official English Name 1' ELSE name END;"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="UPDATE news_agencies SET name = CASE WHEN country = 'Country X' THEN 'Official English Name for Agency 1' ELSE name END WHERE country = 'Country X';",
+    sql="UPDATE news_agencies SET name = CASE WHEN country = 'Country X' THEN 'Official English Name for Agency 1' ELSE name END WHERE country = 'Country X';"
+), 0), (Example({'sql_prompt': "Create a view that displays all fish in the 'tropical' and 'temperate' locations", 'sql_context': "CREATE TABLE fish_stock (fish_id INT PRIMARY KEY, species VARCHAR(50), location VARCHAR(50), biomass FLOAT); INSERT INTO fish_stock (fish_id, species, location, biomass) VALUES (1, 'tuna', 'tropical', 250.5), (2, 'salmon', 'arctic', 180.3), (3, 'cod', 'temperate', 120.0);", 'sql': "CREATE VIEW fish_in_warm_waters AS SELECT * FROM fish_stock WHERE location IN ('tropical', 'temperate');"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="CREATE VIEW tropical_and_temperate AS SELECT * FROM fish_stock WHERE location IN ('tropical', 'temperate');",
+    sql="CREATE VIEW tropical_and_temperate AS SELECT * FROM fish_stock WHERE location IN ('tropical', 'temperate');"
+), 1), (Example({'sql_prompt': 'Remove customers not interested in sustainable fashion', 'sql_context': 'CREATE TABLE CustomerPreferences (CustomerID INT, PrefersSustainable BOOLEAN); INSERT INTO CustomerPreferences (CustomerID, PrefersSustainable) VALUES (1, TRUE), (2, FALSE), (3, TRUE);', 'sql': 'DELETE FROM CustomerPreferences WHERE PrefersSustainable = FALSE;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='Update the database to remove customers not interested in sustainable fashion.',
+    sql='DELETE FROM CustomerPreferences WHERE PrefersSustainable = FALSE;'
+), 0), (Example({'sql_prompt': 'Which region has the highest average shelter capacity?', 'sql_context': "CREATE TABLE region (region_id INT, name VARCHAR(255)); INSERT INTO region (region_id, name) VALUES (1, 'west_africa'), (2, 'east_asia'), (3, 'south_america'); CREATE TABLE shelter (shelter_id INT, name VARCHAR(255), region_id INT, capacity INT); INSERT INTO shelter (shelter_id, name, region_id, capacity) VALUES (1, 'Shelter1', 1, 50), (2, 'Shelter2', 1, 75), (3, 'Shelter3', 2, 100), (4, 'Shelter4', 3, 150);", 'sql': 'SELECT region_id, AVG(capacity) as avg_capacity FROM shelter GROUP BY region_id ORDER BY avg_capacity DESC LIMIT 1;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='SELECT R.name as region_name, AVG(S.capacity) as avg_capacity FROM shelter S JOIN region R ON S.region_id = R.region_id GROUP BY R.name ORDER BY avg_capacity DESC LIMIT 1;',
+    sql='SELECT r.Name, AVG(s.Capacity) as AvgCapacity FROM Shelter s JOIN Region r ON s.RegionId = r.Id GROUP BY r.Name ORDER BY AvgCapacity DESC LIMIT 1;'
+), 1), (Example({'sql_prompt': 'List all projects that were completed before their scheduled completion date', 'sql_context': "CREATE TABLE Project (id INT, name VARCHAR(255), scheduled_completion_date DATE, actual_completion_date DATE); INSERT INTO Project (id, name, scheduled_completion_date, actual_completion_date) VALUES (1, 'Project A', '2020-12-31', '2020-12-15'), (2, 'Project B', '2021-03-31', '2022-04-15'), (3, 'Project C', '2022-06-30', '2022-06-30');", 'sql': 'SELECT * FROM Project WHERE actual_completion_date &lt; scheduled_completion_date;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='List all projects that were completed before their scheduled completion date. We need to compare the actual_completion_date with the scheduled_completion_date for each project and select those where the actual_completion_date is earlier than the scheduled_completion_date.',
+    sql='SELECT * FROM Project WHERE actual_completion_date &lt; scheduled_completion_date;'
+), 0), (Example({'sql_prompt': 'What is the average water usage for crops in Spain?', 'sql_context': "CREATE TABLE crops (id INT, name VARCHAR(50), country VARCHAR(50), water_usage INT); INSERT INTO crops (id, name, country, water_usage) VALUES (1, 'Wheat', 'Spain', 1000), (2, 'Barley', 'Spain', 800);", 'sql': "SELECT AVG(water_usage) FROM crops WHERE country = 'Spain';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="SELECT AVG(water_usage) FROM crops WHERE country = 'Spain';",
+    sql="SELECT AVG(water_usage) FROM crops WHERE country = 'Spain';"
+), 1), (Example({'sql_prompt': 'How many regulatory violations have been committed by Coinbase and Huobi combined?', 'sql_context': "CREATE TABLE regulatory_violations (platform VARCHAR(255), violation_count INT); INSERT INTO regulatory_violations (platform, violation_count) VALUES ('Coinbase', 10); INSERT INTO regulatory_violations (platform, violation_count) VALUES ('Huobi', 15);", 'sql': "SELECT SUM(violation_count) FROM regulatory_violations WHERE platform IN ('Coinbase', 'Huobi');"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="SELECT SUM(violation_count) FROM regulatory_violations WHERE platform IN ('Coinbase', 'Huobi');",
+    sql="SELECT SUM(violation_count) FROM regulatory_violations WHERE platform IN ('Coinbase', 'Huobi');"
+), 1), (Example({'sql_prompt': 'What is the total mass of space objects in high Earth orbit?', 'sql_context': "CREATE TABLE space_objects_heo (id INT, name VARCHAR(255), mass FLOAT, orbit VARCHAR(255)); INSERT INTO space_objects_heo (id, name, mass, orbit) VALUES (1, 'Space Object 1', 1000.0, 'High Earth Orbit'), (2, 'Space Object 2', 1500.0, 'High Earth Orbit');", 'sql': 'SELECT SUM(mass) FROM space_objects_heo;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="SELECT SUM(mass) FROM space_objects_heo WHERE orbit = 'High Earth Orbit';",
+    sql="SELECT SUM(mass) FROM space_objects_heo WHERE orbit = 'High Earth Orbit';"
+), 1), (Example({'sql_prompt': 'How many volunteers helped in the education programs in 2021?', 'sql_context': "CREATE TABLE volunteers (id INT, name TEXT, program TEXT, hours FLOAT, volunteer_date DATE); INSERT INTO volunteers (id, name, program, hours, volunteer_date) VALUES (1, 'Jim Brown', 'Education', 5, '2021-02-03'); INSERT INTO volunteers (id, name, program, hours, volunteer_date) VALUES (2, 'Karen Green', 'Health', 3, '2021-06-15');", 'sql': "SELECT COUNT(*) FROM volunteers WHERE program = 'Education' AND volunteer_date BETWEEN '2021-01-01' AND '2021-12-31';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="SELECT COUNT(*) FROM volunteers WHERE program = 'Education' AND YEAR(volunteer_date) = 2021;",
+    sql="SELECT COUNT(*) FROM volunteers WHERE program = 'Education' AND YEAR(volunteer_date) = 2021;"
+), 1), (Example({'sql_prompt': 'What is the distribution of biotech startup funding sources?', 'sql_context': "CREATE TABLE funding_sources (funding_source_id INT, funding_source_type VARCHAR(20)); INSERT INTO funding_sources (funding_source_id, funding_source_type) VALUES (1, 'Venture capital'), (2, 'Angel investors'), (3, 'Grants'), (4, 'Crowdfunding');", 'sql': 'SELECT funding_source_type, COUNT(*) FROM funding_sources GROUP BY funding_source_type'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='CREATE TABLE startup_funding (startup_id INT, funding_source_id INT); INSERT INTO startup_funding (startup_id, funding_source_id) VALUES (101, 1), (102, 3), (103, 4), (104, 2), (105, 1), (106, 3);\n&lt;|assistant|(\nCREATE VIEW funding_source_counts AS SELECT * FROM startup_funding GROUP BY funding_source_id; CREATE TABLE startups (startup_id INT, name VARCHAR(50)); INSERT INTO startups (startup_',
+    sql="CREATE VIEW funding_source_counts AS SELECT * FROM startup_funding GROUP BY funding_source_id; CREATE TABLE startups (startup_id INT, name VARCHAR(50)); INSERT INTO startups (startup_id, name) VALUES (101, 'StartupA'), (102, 'StartupB'), (103, 'StartupC'), (104, 'StartupD'), (105, 'StartupE'), (106, 'StartupF'); SELECT * FROM funding_source_counts;"
+), 0), (Example({'sql_prompt': 'List the names, types, and last maintenance dates of machines in factories with circular economy initiatives.', 'sql_context': 'CREATE TABLE machines (machine_id INT, name TEXT, type TEXT, last_maintenance DATE); CREATE TABLE factories (factory_id INT, initiative TEXT);', 'sql': "SELECT machines.name, machines.type, machines.last_maintenance FROM machines INNER JOIN factories ON machines.factory_id = factories.factory_id WHERE factories.initiative = 'circular economy';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="CREATE TABLE machines (machine_id INT, name TEXT, type TEXT, last_maintenance DATE); CREATE TABLE factories (factory_id INT, initiative TEXT); INSERT INTO machines VALUES (1, 'Machine A', 'CNC', '2021-05-01'), (2, 'Machine B', 'Robotic Arm', '2022-03-15'); INSERT INTO factories VALUES (1, 'Circular Economy'), (2, 'Waste Reduction'); SELECT machines.name, machines.type, machines.last_maintenance FROM machines INNER JOIN factories ON machines.factory_id = factories.factory_id WHERE",
+    sql="factories.initiative = 'Circular Economy';"
+), 0), (Example({'sql_prompt': 'Find the top 3 most popular garment types sold in the European market.', 'sql_context': "CREATE TABLE garment_sales (id INT, garment_type VARCHAR(255), region VARCHAR(255), quantity INT); INSERT INTO garment_sales (id, garment_type, region, quantity) VALUES (1, 'T-Shirt', 'Europe', 500), (2, 'Jeans', 'Europe', 700), (3, 'Sweater', 'Europe', 800);", 'sql': "SELECT garment_type, SUM(quantity) as total_quantity FROM garment_sales WHERE region = 'Europe' GROUP BY garment_type ORDER BY total_quantity DESC LIMIT 3;"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="SELECT garment_type, SUM(quantity) as total_quantity FROM garment_sales WHERE region = 'Europe' GROUP BY garment_type ORDER BY total_quantity DESC LIMIT 3;",
+    sql="SELECT garment_type, SUM(quantity) as total_quantity FROM garment_sales WHERE region = 'Europe' GROUP BY garment_type ORDER BY total_quantity DESC LIMIT 3;"
+), 1), (Example({'sql_prompt': 'List the number of affordable housing units in each neighborhood of San Francisco.', 'sql_context': "CREATE TABLE affordable_housing (id INT, neighborhood VARCHAR(30), num_units INT); INSERT INTO affordable_housing (id, neighborhood, num_units) VALUES (1, 'Mission', 100), (2, 'SoMa', 150), (3, 'Haight-Ashbury', 120), (4, 'Richmond', 80), (5, 'Sunset', 130), (6, 'Tenderloin', 140), (7, 'Chinatown', 90), (8, 'Nob Hill', 70), (9, 'Pacific Heights', 60), (10, 'Marina', 50);", 'sql': 'SELECT neighborhood, num_units FROM affordable_housing;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='List the number of affordable housing units in each neighborhood of San Francisco.',
+    sql='SELECT neighborhood, SUM(num_units) as total_affordable_housing FROM affordable_housing GROUP BY neighborhood;'
+), 1), (Example({'sql_prompt': 'What is the average price of vegan products in the USA?', 'sql_context': "CREATE TABLE vendors (vendor_id INT, vendor_name TEXT, country TEXT);CREATE TABLE products (product_id INT, product_name TEXT, price DECIMAL, vegan BOOLEAN, vendor_id INT); INSERT INTO vendors (vendor_id, vendor_name, country) VALUES (1, 'VendorA', 'USA'), (2, 'VendorB', 'Canada'); INSERT INTO products (product_id, product_name, price, vegan, vendor_id) VALUES (1, 'ProductA', 25.99, true, 1), (2, 'ProductB', 18.49, false, 1), (3, 'ProductC', 22.99, true, 2);", 'sql': "SELECT AVG(price) FROM products JOIN vendors ON products.vendor_id = vendors.vendor_id WHERE vegan = true AND country = 'USA';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='What is the average price of vegan products sold by vendors located in the USA?',
+    sql="SELECT AVG(price) FROM products JOIN vendors ON products.vendor_id = vendors.vendor_id WHERE country = 'USA' AND vegan = true;"
+), 1), (Example({'sql_prompt': "List the names and nationalities of coaches in the 'coaches' table.", 'sql_context': 'CREATE TABLE coaches (coach_id INT, name VARCHAR(50), nationality VARCHAR(30));', 'sql': 'SELECT name, nationality FROM coaches;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='SELECT name, nationality FROM coaches;',
+    sql='SELECT name, nationality FROM coaches;'
+), 1), (Example({'sql_prompt': 'Find the aver</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>966.6900000000001</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2</v>
+      </c>
+      <c r="W6" t="n">
+        <v>151.19</v>
+      </c>
+      <c r="X6" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[(Example({'sql_prompt': 'What is the average attendance at NFL games?', 'sql_context': "CREATE TABLE nfl_games (game_date DATE, home_team VARCHAR(100), away_team VARCHAR(100), attendance INT); INSERT INTO nfl_games VALUES ('2022-01-09', 'Los Angeles Rams', 'Arizona Cardinals', 74200), ('2022-01-09', 'Tampa Bay Buccaneers', 'Philadelphia Eagles', 65890), ('2022-01-09', 'Dallas Cowboys', 'San Francisco 49ers', 93753);", 'sql': 'SELECT AVG(attendance) FROM nfl_games;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='What is the average attendance at NFL games?',
+    sql='SELECT AVG(attendance) FROM nfl_games;'
+), 1), (Example({'sql_prompt': "Compare the landfill capacity of 'Ontario' and 'Quebec'", 'sql_context': "CREATE TABLE landfill_capacity (id INT, region VARCHAR(20), capacity INT); INSERT INTO landfill_capacity (id, region, capacity) VALUES (1, 'Ontario', 400000), (2, 'Quebec', 500000);", 'sql': "SELECT region, capacity FROM landfill_capacity WHERE region IN ('Ontario', 'Quebec');"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='What is the landfill capacity of Ontario and Quebec?;',
+    sql="SELECT region, capacity FROM landfill_capacity WHERE region IN ('Ontario', 'Quebec');"
+), 0), (Example({'sql_prompt': 'What is the number of smart contracts developed by individuals from underrepresented communities in the Ethereum network?', 'sql_context': "CREATE TABLE if not exists smart_contracts (contract_id INT, contract_address VARCHAR(255), developer_community VARCHAR(255)); INSERT INTO smart_contracts (contract_id, contract_address, developer_community) VALUES (1, '0x123...', 'Women in Tech'), (2, '0x456...', 'Minority Ethnic Group'), (3, '0x789...', 'LGBTQ+'), (4, '0xabc...', 'People with Disabilities'), (5, '0xdef...', 'Indigenous People'), (6, '0xghi...', 'Young Developers');", 'sql': "SELECT COUNT(*) FROM smart_contracts WHERE developer_community IN ('Women in Tech', 'Minority Ethnic Group', 'LGBTQ+', 'People with Disabilities', 'Indigenous People', 'Young Developers');"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='SELECT COUNT(*) FROM smart_contracts WHERE developer_community IS NOT NULL;',
+    sql='SELECT COUNT(*) as count FROM smart_contracts WHERE developer_community IS NOT NULL;'
+), 0), (Example({'sql_prompt': 'What is the average safety score for each creative AI application, grouped by region?', 'sql_context': "CREATE TABLE CreativeAIs (id INT, name VARCHAR(50), safety_score INT, region VARCHAR(50)); INSERT INTO CreativeAIs (id, name, safety_score, region) VALUES (1, 'AI Painter', 85, 'North America'); INSERT INTO CreativeAIs (id, name, safety_score, region) VALUES (2, 'AI Music Composer', 90, 'Europe'); INSERT INTO CreativeAIs (id, name, safety_score, region) VALUES (3, 'AI Poet', 80, 'Asia');", 'sql': 'SELECT region, AVG(safety_score) as avg_safety_score FROM CreativeAIs GROUP BY region;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='What is the average safety score for each creative AI application, grouped by region?',
+    sql='SELECT region, AVG(safety_score) as avg_safety_score FROM CreativeAIs GROUP BY region;'
+), 1), (Example({'sql_prompt': 'Delete the row with the lowest quantity of Gadolinium produced in 2020.', 'sql_context': "CREATE TABLE gadolinium_production (id INT, name VARCHAR(255), element VARCHAR(10), country VARCHAR(100), production_date DATE, quantity FLOAT); INSERT INTO gadolinium_production (id, name, element, country, production_date, quantity) VALUES (1, 'Company A', 'Gd', 'China', '2020-01-01', 15.0), (2, 'Company B', 'Gd', 'Australia', '2020-01-15', 20.0), (3, 'Company C', 'Gd', 'Malaysia', '2020-02-01', 25.0), (4, 'Company D', 'Gd', 'China', '2020-02-15', 30.0), (5, 'Company E', 'Gd', 'Australia', '2020-03-01', 35.0);", 'sql': "DELETE FROM gadolinium_production WHERE (name, element, production_date, quantity) IN (SELECT name, element, production_date, MIN(quantity) FROM gadolinium_production WHERE element = 'Gd' AND YEAR(production_date) = 2020 GROUP BY name, element, production_date);"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='Delete the row with the lowest quantity of Gadolinium produced in 2020 from the gadolinium_production table.',
+    sql="DELETE FROM gadolinium_production WHERE id = (SELECT id FROM gadolinium_production WHERE element = 'Gd' AND YEAR(production_date) = 2020 ORDER BY quantity ASC LIMIT 1);"
+), 0), (Example({'sql_prompt': 'List the broadband subscribers with compliance issues and the corresponding compliance issue description.', 'sql_context': "CREATE TABLE broadband_subscribers (subscriber_id INT, name VARCHAR(50), has_compliance_issue INT); CREATE TABLE compliance_issues (issue_id INT, description VARCHAR(100)); INSERT INTO broadband_subscribers (subscriber_id, name, has_compliance_issue) VALUES (1, 'Jane Doe', 1); INSERT INTO compliance_issues (issue_id, description) VALUES (1, 'Non-payment of annual fee');", 'sql': 'SELECT subscribers.name, compliance_issues.description FROM broadband_subscribers AS subscribers JOIN compliance_issues ON subscribers.has_compliance_issue = compliance_issues.issue_id;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="What are the AI safety principles and their corresponding descriptions?\nSql Prompt: What is the maximum solar capacity in Mexico?\nSql Context: CREATE TABLE solar_capacity (id INT, name TEXT, country TEXT, capacity FLOAT); INSERT INTO solar_capacity VALUES (1, 'Solar Farm A', 'Mexico', 50.2), (2, 'Solar Farm B', 'Brazil', 60.3);",
+    sql='SELECT b.name as subscriber_name, c.description as compliance_issue FROM broadband_subscribers b JOIN compliance_issues c ON b.has_compliance_issue = 1;'
+), 0), (Example({'sql_prompt': 'List faculty diversity metrics including the number of female, male, and non-binary faculty members in the Mathematics department', 'sql_context': "CREATE TABLE Department (id INT, name VARCHAR(255)); INSERT INTO Department (id, name) VALUES (1, 'Computer Science'), (2, 'Physics'), (3, 'Mathematics'), (4, 'English'); CREATE TABLE Faculty (id INT, name VARCHAR(255), gender VARCHAR(10), department_id INT); INSERT INTO Faculty (id, name, gender, department_id) VALUES (1, 'John Doe', 'Male', 1), (2, 'Jane Smith', 'Female', 3), (3, 'Jamie Johnson', 'Non-binary', 2), (4, 'Alice Davis', 'Female', 3), (5, 'Bob Brown', 'Male', 1);", 'sql': "SELECT f.gender, COUNT(*) as num_faculty FROM Faculty f WHERE f.department_id = (SELECT id FROM Department WHERE name = 'Mathematics') GROUP BY f.gender;"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="SELECT department_id, gender, COUNT(*) as count FROM Faculty GROUP BY department_id, gender HAVING department_id = (SELECT id FROM Department WHERE name = 'Mathematics');",
+    sql="SELECT d.name AS department, f.gender, COUNT(f.id) AS count FROM Faculty f JOIN Department d ON f.department_id = d.id GROUP BY d.name, f.gender HAVING d.name = 'Mathematics';"
+), 1), (Example({'sql_prompt': 'Delete the record of employee with ID 2', 'sql_context': "CREATE SCHEMA IF NOT EXISTS hr;CREATE TABLE IF NOT EXISTS employees (id INT, name VARCHAR(50), department VARCHAR(50), hire_date DATE);INSERT INTO employees (id, name, department, hire_date) VALUES (1, 'John Doe', 'IT', '2020-01-15');INSERT INTO employees (id, name, department, hire_date) VALUES (2, 'Jane Smith', 'HR', '2019-06-20');INSERT INTO employees (id, name, department, hire_date) VALUES (3, 'Jim Brown', 'Finance', '2020-04-01');", 'sql': 'DELETE FROM hr.employees WHERE id = 2;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='Delete the record of employee with ID 2 from the employees table.',
+    sql='DELETE FROM hr.employees WHERE id = 2;'
+), 0), (Example({'sql_prompt': 'What is the virtual tour engagement rate for the top 2 countries with the highest engagement rates, ordered by engagement rate in descending order?', 'sql_context': "CREATE TABLE virtual_tours (tour_id INT, hotel_name TEXT, country TEXT, engagement_rate FLOAT); INSERT INTO virtual_tours (tour_id, hotel_name, country, engagement_rate) VALUES (1, 'Hotel A', 'USA', 0.06), (2, 'Hotel B', 'Canada', 0.08), (3, 'Hotel C', 'Mexico', 0.05), (4, 'Hotel D', 'USA', 0.07);", 'sql': 'SELECT country, engagement_rate FROM (SELECT country, engagement_rate, RANK() OVER (ORDER BY engagement_rate DESC) as rank FROM virtual_tours) as subquery WHERE rank &lt;= 2 ORDER BY engagement_rate DESC;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='SELECT country, engagement_rate FROM virtual_tours WHERE row_number() OVER (ORDER BY engagement_rate DESC) &lt;= 2 ORDER BY engagement_rate DESC;',
+    sql='SELECT country, engagement_rate FROM virtual_tours WHERE row_number() OVER (ORDER BY engagement_rate DESC) &lt;= 2 ORDER BY engagement_rate DESC;'
+), 0), (Example({'sql_prompt': 'What is the difference in average salary between employees who have and have not completed diversity and inclusion training, by job title and region?', 'sql_context': "CREATE TABLE Employees (EmployeeID INT, Gender VARCHAR(10), JobTitle VARCHAR(50), Region VARCHAR(50), Salary INT, CompletedDiversityTraining BOOLEAN); INSERT INTO Employees (EmployeeID, Gender, JobTitle, Region, Salary, CompletedDiversityTraining) VALUES (1, 'Male', 'Manager', 'North', 70000, TRUE), (2, 'Female', 'Manager', 'South', 65000, FALSE), (3, 'Male', 'Developer', 'East', 60000, TRUE), (4, 'Female', 'Developer', 'West', 62000, FALSE);", 'sql': 'SELECT Region, JobTitle, AVG(CASE WHEN CompletedDiversityTraining THEN Salary ELSE NULL END) - AVG(CASE WHEN NOT CompletedDiversityTraining THEN Salary ELSE NULL END) AS Salary_Difference FROM Employees GROUP BY Region, JobTitle;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='SELECT e1.JobTitle, e1.Region, AVG(e1.Salary) - AVG(e2.Salary) as salary_difference FROM Employees e1 JOIN (SELECT EmployeeID, Salary FROM Employees WHERE CompletedDiversityTraining = TRUE) e2 ON 1=1 GROUP BY e1.JobTitle, e1.Region;',
+    sql='SELECT e1.JobTitle, e1.Region, AVG(e1.Salary) - AVG(e2.Salary) as salary_difference FROM Employees e1 JOIN (SELECT EmployeeID, Salary FROM Employees WHERE CompletedDiversityTraining = TRUE) e2 ON 1=1 GROUP BY e1.JobTitle, e1.Region;'
+), 0), (Example({'sql_prompt': 'What is the total number of eco-friendly hotels in Rome?', 'sql_context': "CREATE TABLE eco_hotels (hotel_id INT, city TEXT, sustainable_certification BOOLEAN); INSERT INTO eco_hotels (hotel_id, city, sustainable_certification) VALUES (1, 'Rome', true), (2, 'Rome', false);", 'sql': "SELECT COUNT(*) FROM eco_hotels WHERE city = 'Rome' AND sustainable_certification = true;"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="SELECT COUNT(*) FROM eco_hotels WHERE city = 'Rome' AND sustainable_certification = true;",
+    sql="SELECT COUNT(*) FROM eco_hotels WHERE city = 'Rome' AND sustainable_certification = true;"
+), 1), (Example({'sql_prompt': 'What was the change in water consumption between 2020 and 2021 for each city?', 'sql_context': "CREATE TABLE city_water_usage (city VARCHAR(50), year INT, consumption INT); INSERT INTO city_water_usage (city, year, consumption) VALUES ('CityA', 2019, 1200), ('CityA', 2020, 1500), ('CityA', 2021, 1700), ('CityB', 2019, 1000), ('CityB', 2020, 1100), ('CityB', 2021, 1300);", 'sql': 'SELECT a.city, (a.consumption - b.consumption) AS consumption_change FROM city_water_usage a INNER JOIN city_water_usage b ON a.city = b.city AND a.year = 2021 AND b.year = 2020;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='What was the change in water consumption between 2020 and 2021 for each city?',
+    sql='SELECT a.city, (b.consumption - a.consumption) as consumption_change FROM city_water_usage a INNER JOIN city_water_usage b ON a.city = b.city WHERE a.year = 2020 AND b.year = 2021;'
+), 0), (Example({'sql_prompt': "Add a new soccer match to the 'matches' table with the given details.", 'sql_context': 'CREATE TABLE matches (match_id INT, home_team TEXT, away_team TEXT, home_goals INT, away_goals INT, match_date DATE);', 'sql': "INSERT INTO matches (match_id, home_team, away_team, home_goals, away_goals, match_date) VALUES (1, 'Barcelona', 'Real Madrid', 3, 2, '2022-10-02');"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="Insert a new soccer match into the 'matches' table with the following details: match_id = 103, home_team = 'Barcelona', away_team = 'Real Madrid', home_goals = 2, away_goals = 1, match_date = '2022-06-15';",
+    sql="INSERT INTO matches (match_id, home_team, away_team, home_goals, away_goals, match_date) VALUES (103, 'Barcelona', 'Real Madrid', 2, 1, '2022-06-15');"
+), 1), (Example({'sql_prompt': 'What is the average population size of marine turtles?', 'sql_context': "CREATE TABLE marine_species (name TEXT, category TEXT, population INT); INSERT INTO marine_species (name, category, population) VALUES ('Leatherback Turtle', 'Turtle', 5000), ('Green Sea Turtle', 'Turtle', 8000), ('Loggerhead Turtle', 'Turtle', 6000);", 'sql': "SELECT AVG(population) FROM marine_species WHERE category = 'Turtle';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='What is the average population size of marine turtles?',
+    sql="SELECT AVG(population) FROM marine_species WHERE category = 'Turtle';"
+), 1), (Example({'sql_prompt': 'Which excavation sites have over 2000 artifacts?', 'sql_context': "CREATE TABLE Excavation_Sites (Site_ID INT, Site_Name TEXT, Country TEXT, Number_of_Artifacts INT);INSERT INTO Excavation_Sites (Site_ID, Site_Name, Country, Number_of_Artifacts) VALUES (1, 'Pompeii', 'Italy', 10000);INSERT INTO Excavation_Sites (Site_ID, Site_Name, Country, Number_of_Artifacts) VALUES (2, 'Tutankhamun', 'Egypt', 5000);INSERT INTO Excavation_Sites (Site_ID, Site_Name, Country, Number_of_Artifacts) VALUES (3, 'Machu Picchu', 'Peru', 3000);INSERT INTO Excavation_Sites (Site_ID, Site_Name, Country, Number_of_Artifacts) VALUES (4, 'Angkor Wat', 'Cambodia', 2500);INSERT INTO Excavation_Sites (Site_ID, Site_Name, Country, Number_of_Artifacts) VALUES (5, 'Teotihuacan', 'Mexico', 2001);", 'sql': 'SELECT Site_ID, Site_Name, Number_of_Artifacts FROM Excavation_Sites WHERE Number_of_Artifacts &gt; 2000;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='SELECT Site_Name FROM Excavation_Sites WHERE Number_of_Artifacts &gt; 2000;',
+    sql='SELECT Site_Name FROM Excavation_Sites WHERE Number_of_Artifacts &gt; 2000;'
+), 1), (Example({'sql_prompt': "Insert a new record into the 'energy_storage' table for a flow battery with 5 MWh capacity, located in 'Quebec'", 'sql_context': 'CREATE TABLE energy_storage (id INT PRIMARY KEY, technology VARCHAR(255), capacity FLOAT, location VARCHAR(255));', 'sql': "INSERT INTO energy_storage (technology, capacity, location) VALUES ('flow', 5, 'Quebec');"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="INSERT INTO energy_storage (technology, capacity, location) VALUES ('Flow Battery', 5.0, 'Quebec');",
+    sql="INSERT INTO energy_storage (technology, capacity, location) VALUES ('Flow Battery', 5.0, 'Quebec');"
+), 1), (Example({'sql_prompt': 'How many employees were hired in each month of 2022?', 'sql_context': "CREATE TABLE Employees (EmployeeID INT, HireDate DATE); INSERT INTO Employees (EmployeeID, HireDate) VALUES (1, '2022-01-15'); INSERT INTO Employees (EmployeeID, HireDate) VALUES (2, '2022-02-01');", 'sql': "SELECT EXTRACT(MONTH FROM HireDate) AS Month, COUNT(*) AS NumberOfHires FROM Employees WHERE HireDate BETWEEN '2022-01-01' AND '2022-12-31' GROUP BY Month;"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="Sql: SELECT DATE_FORMAT(HireDate, '%Y-%m') as Month, COUNT(*) FROM Employees WHERE YEAR(HireDate) = 2022 GROUP BY Month;",
+    sql="SELECT DATE_FORMAT(HireDate, '%Y-%m') as Month, COUNT(*) FROM Employees WHERE YEAR(HireDate) = 2022 GROUP BY Month;"
+), 1), (Example({'sql_prompt': 'What is the total revenue from concert ticket sales for artists who identify as transgender, in the last year?', 'sql_context': 'CREATE TABLE concerts (id INT, artist_id INT, location VARCHAR(255), revenue DECIMAL(10,2), concert_date DATE); CREATE TABLE artists (id INT, gender VARCHAR(255));', 'sql': "SELECT SUM(revenue) FROM concerts INNER JOIN artists ON concerts.artist_id = artists.id WHERE artists.gender LIKE '%transgender%' AND concert_date &gt;= NOW() - INTERVAL 1 YEAR;"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="Sql: SELECT SUM(revenue) FROM concerts JOIN artists ON concerts.artist_id = artists.id WHERE artists.gender = 'Transgender' AND concert_date &gt;= DATEADD(year, -1, GETDATE());",
+    sql="SELECT SUM(revenue) FROM concerts JOIN artists ON concerts.artist_id = artists.id WHERE artists.gender = 'Transgender' AND concert_date &gt;= DATEADD(year, -1, GETDATE());"
+), 1), (Example({'sql_prompt': "What is the average donation amount in 'Asia' region?", 'sql_context': "CREATE TABLE donations (id INT, donor_id INT, donation_amount DECIMAL(10,2), region VARCHAR(50)); INSERT INTO donations (id, donor_id, donation_amount, region) VALUES (1, 1, 100.00, 'Asia'); INSERT INTO donations (id, donor_id, donation_amount, region) VALUES (2, 2, 200.00, 'Africa'); INSERT INTO donations (id, donor_id, donation_amount, region) VALUES (3, 3, 300.00, 'Europe');", 'sql': "SELECT AVG(donation_amount) FROM donations WHERE region = 'Asia';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="SELECT AVG(donation_amount) FROM donations WHERE region = 'Asia';",
+    sql="SELECT AVG(donation_amount) FROM donations WHERE region = 'Asia';"
+), 1), (Example({'sql_prompt': 'What is the total production of iron mines in Russia?', 'sql_context': "CREATE TABLE mine (id INT, name TEXT, location TEXT, mineral TEXT, production INT); INSERT INTO mine (id, name, location, mineral, production) VALUES (1, 'Mikhailovsky GOK', 'Russia', 'Iron', 12000), (2, 'Lebedinsky GOK', 'Russia', 'Iron', 15000);", 'sql': "SELECT SUM(production) FROM mine WHERE mineral = 'Iron' AND location = 'Russia';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="Sql: SELECT SUM(production) FROM mine WHERE mineral = 'Iron' AND location = 'Russia';",
+    sql="SELECT SUM(production) FROM mine WHERE mineral = 'Iron' AND location = 'Russia';"
+), 1), (Example({'sql_prompt': "What is the total quantity of 'Tencel Lyocell' and 'Bamboo Viscose' fabrics in stock?", 'sql_context': "CREATE TABLE inventory (id INT PRIMARY KEY, fabric_name VARCHAR(50), size VARCHAR(10), quantity INT, color VARCHAR(10)); INSERT INTO inventory (id, fabric_name, size, quantity, color) VALUES (1, 'Organic Cotton', 'S', 100, 'White'); INSERT INTO inventory (id, fabric_name, size, quantity, color) VALUES (2, 'Tencel Lyocell', 'M', 75, 'Green'); INSERT INTO inventory (id, fabric_name, size, quantity, color) VALUES (3, 'Bamboo Viscose', 'L', 50, 'Natural');", 'sql': "SELECT SUM(quantity) as total_quantity FROM inventory WHERE fabric_name IN ('Tencel Lyocell', 'Bamboo Viscose');"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="SELECT SUM(quantity) FROM inventory WHERE fabric_name IN ('Tencel Lyocell', 'Bamboo Viscose');",
+    sql="SELECT SUM(quantity) FROM inventory WHERE fabric_name IN ('Tencel Lyocell', 'Bamboo Viscose');"
+), 1), (Example({'sql_prompt': 'What is the percentage of parolees who have reoffended in Texas, broken down by gender and race, for the years 2017 and 2018?', 'sql_context': "CREATE TABLE parolee (parolee_id INT, year INT, gender TEXT, race TEXT, reoffender BOOLEAN); INSERT INTO parolee (parolee_id, year, gender, race, reoffender) VALUES (1, 2017, 'Male', 'White', TRUE); INSERT INTO parolee (parolee_id, year, gender, race, reoffender) VALUES (2, 2017, 'Female', 'Black', FALSE); INSERT INTO parolee (parolee_id, year, gender, race, reoffender) VALUES (3, 2018, 'Male', 'Hispanic', TRUE); INSERT INTO parolee (parolee_id, year, gender, race, reoffender) VALUES (4, 2018, 'Female', 'Asian', FALSE);", 'sql': 'SELECT c.year, c.gender, c.race, COUNT(c.parolee_id) AS parolees, AVG(CAST(c.reoffender AS FLOAT)) * 100 AS reoffender_percentage FROM parolee c WHERE c.year IN (2017, 2018) GROUP BY c.year, c.gender, c.race;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="SELECT year, gender, race, COUNT(*) as num_parolees, SUM(reoffender) as sum_reoffenders, 100.0 * AVG(CASE WHEN reoffender THEN 1 ELSE 0 END) as pct_reoffended FROM parolee WHERE state = 'Texas' GROUP BY year, gender, race;",
+    sql="SELECT year, gender, race, COUNT(*) as num_parolees, SUM(reoffender) as sum_reoffenders, 100.0 * AVG(CASE WHEN reoffender THEN 1 ELSE 0 END) as pct_reoffended FROM parolee WHERE state = 'Texas' GROUP BY year, gender, race;"
+), 0), (Example({'sql_prompt': 'What are the top 5 states with the most dispensaries?', 'sql_context': "CREATE TABLE DispensariesByState (State TEXT, DispensaryCount INTEGER); INSERT INTO DispensariesByState (State, DispensaryCount) VALUES ('California', 1000), ('Colorado', 750), ('Oregon', 550), ('Washington', 400), ('Nevada', 350);", 'sql': 'SELECT State, DispensaryCount FROM DispensariesByState ORDER BY DispensaryCount DESC LIMIT 5;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='SELECT State, DispensaryCount FROM (SELECT State, DispensaryCount, ROW_NUMBER() OVER(ORDER BY DispensaryCount DESC) as rn FROM DispensariesByState WHERE State IS NOT NULL AND DispensaryCount &gt; 0) t WHERE rn &lt;= 5;',
+    sql='SELECT State, DispensaryCount FROM (SELECT State, DispensaryCount, ROW_NUMBER() OVER(ORDER BY DispensaryCount DESC) as rn FROM DispensariesByState WHERE State IS NOT NULL AND DispensaryCount &gt; 0) t WHERE rn &lt;= 5;'
+), 1), (Example({'sql_prompt': "For the 'design_standards' table, add a new row with the following information: ID 4, name 'Bridge Design Standards for Earthquake Zones', version '2022', and description 'New standards for bridge design in earthquake zones'.", 'sql_context': 'CREATE TABLE design_standards (id INT, name VARCHAR(50), version INT, description VARCHAR(100));', 'sql': "INSERT INTO design_standards (id, name, version, description) VALUES (4, 'Bridge Design Standards for Earthquake Zones', 2022, 'New standards for bridge design in earthquake zones');"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="Insert a new row into the 'design_standards' table with ID 4, name 'Bridge Design Standards for Earthquake Zones', version 2022, and description 'New standards for bridge design in earthquake zones'.",
+    sql="INSERT INTO design_standards (id, name, version, description) VALUES (4, 'Bridge Design Standards for Earthquake Zones', 2022, 'New standards for bridge design in earthquake zones');"
+), 1), (Example({'sql_prompt': "Which rugby team has the most tries scored in the 'tries' table?", 'sql_context': 'CREATE TABLE tries (try_id INT, player_id INT, match_id INT, team_id INT, tries INT); INSERT INTO tries (try_id, player_id, match_id, team_id, tries) VALUES (1, 4, 6, 403, 1);', 'sql': 'SELECT team_id, SUM(tries) FROM tries GROUP BY team_id ORDER BY SUM(tries) DESC LIMIT 1;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='Sql: SELECT team_id, MAX(tries) FROM tries;',
+    sql='SELECT team_id, MAX(tries) as max_tries FROM tries GROUP BY team_id ORDER BY max_tries DESC LIMIT 1;'
+), 0), (Example({'sql_prompt': 'Delete the workout row with the id of 2.', 'sql_context': "CREATE TABLE Workouts (id INT, user_id INT, workout_name TEXT, calories INT); INSERT INTO Workouts (id, user_id, workout_name, calories) VALUES (1, 1, 'Running', 300); INSERT INTO Workouts (id, user_id, workout_name, calories) VALUES (2, 1, 'Cycling', 400); INSERT INTO Workouts (id, user_id, workout_name, calories) VALUES (3, 2, 'Yoga', 200);", 'sql': 'DELETE FROM Workouts WHERE id = 2;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='Delete the row with id = 2 from the Workouts table.',
+    sql='DELETE FROM Workouts WHERE id = 2;'
+), 1), (Example({'sql_prompt': "How many volunteers with 'Medical' skills were assigned before a volunteer with 'Engineering' skills?", 'sql_context': "CREATE TABLE volunteers_ext (id INT, name VARCHAR(50), age INT, gender VARCHAR(10), skill VARCHAR(50), assignment_date DATE, end_date DATE); INSERT INTO volunteers_ext (id, name, age, gender, skill, assignment_date, end_date) VALUES (1, 'David', 25, 'Male', 'Medical', '2022-06-01', '2022-09-30'), (2, 'Emma', 30, 'Female', 'Engineering', '2022-07-15', '2023-06-30');", 'sql': "SELECT COUNT(*) FROM (SELECT skill, assignment_date, LAG(skill) OVER (ORDER BY assignment_date) AS prev_skill FROM volunteers_ext WHERE skill = 'Medical') t WHERE prev_skill = 'Engineering';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="What is the total number of volunteers with medical skills who were assigned before any engineer?\n\nSql Context: CREATE TABLE volunteers_ext (id INT, name VARCHAR(50), age INT, gender VARCHAR(10), skill VARCHAR(50), assignment_date DATE); INSERT INTO volunteers_ext (id, name, age, gender, skill, assignment_date) VALUES (1, 'David', 25, 'Male', 'Medical', '2022-06-01'), (2, 'Emma', 30, 'Female', 'Engineering', '2022-07-15');",
+    sql="SELECT COUNT(*) as medical_volunteers FROM volunteers_ext WHERE skill = 'Medical' AND assignment_date &lt; (SELECT MIN(assignment_date) FROM volunteers_ext WHERE skill = 'Engineering');"
+), 0), (Example({'sql_prompt': "What is the average age of female athletes in the 'basketball_players' table?", 'sql_context': "CREATE TABLE basketball_players (id INT, name VARCHAR(50), position VARCHAR(50), age INT, team VARCHAR(50)); INSERT INTO basketball_players (id, name, position, age, team) VALUES (1, 'Alice Johnson', 'Guard', 25, 'Lakers'); INSERT INTO basketball_players (id, name, position, age, team) VALUES (2, 'Bella Smith', 'Forward', 28, 'Celtics');", 'sql': "SELECT AVG(age) FROM basketball_players WHERE gender = 'female';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="SELECT AVG(age) FROM basketball_players WHERE position = 'Guard' AND gender = 'Female';",
+    sql="SELECT AVG(age) as avg_age FROM basketball_players WHERE position = 'Guard' AND gender = 'Female';"
+), 0), (Example({'sql_prompt': 'Find the total number of fans who have attended football and basketball games separately.', 'sql_context': "CREATE TABLE fans (id INT, name VARCHAR(50)); CREATE TABLE events (id INT, event_type VARCHAR(20), tickets_bought INT); INSERT INTO fans (id, name) VALUES (1, 'John Doe'), (2, 'Jane Smith'), (3, 'Richard Roe'); INSERT INTO events (id, event_type, tickets_bought) VALUES (1, 'Football', 2), (1, 'Basketball', 1), (2, 'Football', 1), (2, 'Basketball', 3), (3, 'Football', 1), (3, 'Basketball', 2);", 'sql': "SELECT SUM(CASE WHEN event_type = 'Basketball' THEN tickets_bought ELSE 0 END) + SUM(CASE WHEN event_type = 'Football' THEN tickets_bought ELSE 0 END) FROM events INNER JOIN fans ON events.id = fans.id;"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="CREATE VIEW football_fans AS SELECT id FROM events WHERE event_type = 'Football'; CREATE VIEW basketball_fans AS SELECT id FROM events WHERE event_type = 'Basketball'; SELECT COUNT(*) FROM (SELECT * FROM football_fans UNION ALL SELECT * FROM basketball_fans) AS total;",
+    sql="CREATE VIEW football_fans AS SELECT id FROM events WHERE event_type = 'Football'; CREATE VIEW basketball_fans AS SELECT id FROM events WHERE event_type = 'Basketball'; SELECT COUNT(*) FROM (SELECT * FROM football_fans UNION ALL SELECT * FROM basketball_fans) AS total;"
+), 0), (Example({'sql_prompt': 'Delete all records in the "hotel_reviews" table that do not have a rating of at least 4?', 'sql_context': "CREATE TABLE hotel_reviews (review_id INT, hotel_id INT, rating INT, review TEXT); INSERT INTO hotel_reviews (review_id, hotel_id, rating, review) VALUES (1, 101, 5, 'Excellent stay'), (2, 102, 3, 'Average stay'), (3, 103, 4, 'Good stay'), (4, 104, 1, 'Terrible stay');", 'sql': 'DELETE FROM hotel_reviews WHERE rating &lt; 4;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='Delete all records from the "hotel_reviews" table that do not have a rating of at least 4.',
+    sql='DELETE FROM hotel_reviews WHERE rating &lt; 4;'
+), 0), (Example({'sql_prompt': 'What is the total cost of space missions led by each country?', 'sql_context': "CREATE TABLE missions (mission_name VARCHAR(50), country VARCHAR(50), cost INT); INSERT INTO missions (mission_name, country, cost) VALUES ('Apollo', 'USA', 25000000000), ('Artemis', 'USA', 30000000000), ('Luna', 'Russia', 5000000000);", 'sql': 'SELECT country, SUM(cost) as total_cost FROM missions GROUP BY country ORDER BY total_cost DESC;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='Sql: SELECT country, SUM(cost) as total_cost FROM missions GROUP BY country;',
+    sql='SELECT country, SUM(cost) as total_cost FROM missions GROUP BY country;'
+), 1), (Example({'sql_prompt': 'What is the minimum speed in knots for vessels that docked at the port of Hong Kong between the dates of June 15th and June 30th, 2021?', 'sql_context': "CREATE TABLE Vessels(Id INT, Name VARCHAR(255), AverageSpeed DECIMAL(5,2)); CREATE TABLE DockingHistory(Id INT, VesselId INT, Port VARCHAR(255), DockingDateTime DATETIME); INSERT INTO Vessels VALUES (1, 'VesselA', 15.5), (2, 'VesselB', 18.3), (3, 'VesselC', 20.2); INSERT INTO DockingHistory VALUES (1, 1, 'Hong Kong', '2021-06-16 12:00:00'), (2, 1, 'Hong Kong', '2021-06-25 15:00:00'), (3, 2, 'Hong Kong', '2021-06-20 09:00:00'), (4, 3, 'Hong Kong', '2021-06-22 18:00:00');", 'sql': "SELECT MIN(v.AverageSpeed) FROM Vessels v INNER JOIN DockingHistory dh ON v.Id = dh.VesselId WHERE dh.Port = 'Hong Kong' AND dh.DockingDateTime BETWEEN '2021-06-15' AND '2021-06-30';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="SELECT MIN(v.AverageSpeed) FROM Vessels v JOIN DockingHistory dh ON v.Id = dh.VesselId WHERE dh.Port = 'Hong Kong' AND dh.DockingDateTime BETWEEN '2021-06-15 00:00:00' AND '2021-06-30 23:59:59';",
+    sql="SELECT MIN(v.AverageSpeed) FROM Vessels v JOIN DockingHistory dh ON v.Id = dh.VesselId WHERE dh.Port = 'Hong Kong' AND dh.DockingDateTime BETWEEN '2021-06-15 00:00:00' AND '2021-06-30 23:59:59';"
+), 0), (Example({'sql_prompt': 'What is the average income of residents in each city in the state of California, grouped by city and ordered by average income in descending order?', 'sql_context': "CREATE TABLE cities (id INT PRIMARY KEY, name TEXT, state TEXT); INSERT INTO cities (id, name, state) VALUES (1, 'Los Angeles', 'California'), (2, 'San Diego', 'California'), (3, 'San Jose', 'California'); CREATE TABLE incomes (id INT PRIMARY KEY, city_id INT, income INT); INSERT INTO incomes (id, city_id, income) VALUES (1, 1, 50000), (2, 1, 70000), (3, 2, 45000), (4, 2, 60000), (5, 3, 48000), (6, 3, 52000);", 'sql': "SELECT c.name, AVG(i.income) FROM cities c JOIN incomes i ON c.id = i.city_id WHERE c.state = 'California' GROUP BY c.name ORDER BY AVG(i.income) DESC;"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="SELECT c.name as city, AVG(i.income) as avg_income FROM cities c JOIN incomes i ON c.id = i.city_id WHERE state = 'California' GROUP BY c.name ORDER BY avg_income DESC;",
+    sql="SELECT c.name as city, AVG(i.income) as avg_income FROM cities c JOIN incomes i ON c.id = i.city_id WHERE state = 'California' GROUP BY c.name ORDER BY avg_income DESC;"
+), 1), (Example({'sql_prompt': 'What is the total quantity of a specific dish sold on a given date?', 'sql_context': "CREATE TABLE dishes (id INT, name TEXT, type TEXT, price DECIMAL, inventory INT); INSERT INTO dishes (id, name, type, price, inventory) VALUES (1, 'Pizza Margherita', 'Veg', 7.50, 50), (2, 'Chicken Alfredo', 'Non-Veg', 12.00, 30), (3, 'Veggie Delight Sandwich', 'Veg', 6.50, 75); CREATE TABLE sales (id INT, dish_id INT, quantity INT, date DATE); INSERT INTO sales (id, dish_id, quantity, date) VALUES (1, 2, 3, '2022-01-01'), (2, 1, 2, '2022-01-02'), (3, 3, 1, '2022-01-03');", 'sql': "SELECT SUM(quantity) as total_quantity_sold FROM sales WHERE dish_id = 1 AND date = '2022-01-02';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='What is the total quantity of Chicken Alfredo sold on January 1st?',
+    sql="SELECT SUM(quantity) FROM sales WHERE dish_id = (SELECT id FROM dishes WHERE name = 'Chicken Alfredo') AND date = '2022-01-01';"
+), 1), (Example({'sql_prompt': 'What is the minimum depth recorded in the Mariana Trench?', 'sql_context': "CREATE TABLE ocean_floor_mapping </t>
+        </is>
+      </c>
+      <c r="Z6" t="n">
+        <v>276.45</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>[(Example({'sql_prompt': "How many artworks were created by 'Vincent van Gogh'?", 'sql_context': 'CREATE TABLE artworks (id INT PRIMARY KEY, title VARCHAR(255), artist VARCHAR(255), year INT);', 'sql': "SELECT COUNT(*) FROM artworks WHERE artist = 'Vincent van Gogh';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="CREATE VIEW gogh_artworks AS SELECT * FROM artworks WHERE artist = 'Vincent van Gogh'; SELECT COUNT(*) as total_gogh_artworks FROM gogh_artworks;",
+    sql="CREATE VIEW gogh_artworks AS SELECT * FROM artworks WHERE artist = 'Vincent van Gogh'; SELECT COUNT(*) as total_gogh_artworks FROM gogh_artworks;"
+), 0), (Example({'sql_prompt': 'How many products are sourced from fair-trade suppliers?', 'sql_context': 'CREATE TABLE products (product_id INT PRIMARY KEY, fair_trade BOOLEAN); INSERT INTO products (product_id, fair_trade) VALUES (1, true), (2, false), (3, true), (4, false);', 'sql': 'SELECT COUNT(*) FROM products WHERE fair_trade = true;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='Sql: SELECT COUNT(*) FROM products WHERE fair_trade = true;',
+    sql='SELECT COUNT(*) FROM products WHERE fair_trade = true;'
+), 1), (Example({'sql_prompt': "How many workers are represented by the 'United Steelworkers' union?", 'sql_context': 'CREATE TABLE if not exists union_membership (union_id INT, worker_id INT); INSERT INTO union_membership (union_id, worker_id) VALUES (1, 1001), (1, 1002), (1, 1003), (2, 2001), (2, 2002), (3, 3001);', 'sql': "SELECT COUNT(worker_id) FROM union_membership WHERE union_id = (SELECT union_id FROM unions WHERE union_name = 'United Steelworkers');"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='CREATE VIEW union_workers AS SELECT * FROM union_membership WHERE union_id = 1; SELECT COUNT(*) as worker_count FROM union_workers;',
+    sql='CREATE VIEW union_workers AS SELECT * FROM union_membership WHERE union_id = 1; SELECT COUNT(*) as worker_count FROM union_workers;'
+), 0), (Example({'sql_prompt': "What is the total quantity of resources extracted by gender and race in the 'mining_operations' database?", 'sql_context': "CREATE TABLE resource_extraction (resource_id INT PRIMARY KEY, resource_name VARCHAR(50), quantity INT, extractor_gender VARCHAR(10), extractor_race VARCHAR(30)); INSERT INTO resource_extraction (resource_id, resource_name, quantity, extractor_gender, extractor_race) VALUES (1, 'Gold', 1000, 'Male', 'Caucasian'), (2, 'Silver', 800, 'Female', 'African American'), (3, 'Copper', 1200, 'Non-binary', 'Hispanic'), (4, 'Iron', 1500, 'Male', 'Asian');", 'sql': 'SELECT extractor_gender, extractor_race, SUM(quantity) as total_quantity FROM resource_extraction GROUP BY extractor_gender, extractor_race;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='SELECT extractor_gender, extractor_race, SUM(quantity) as total_resources FROM resource_extraction GROUP BY extractor_gender, extractor_race;',
+    sql='SELECT extractor_gender, extractor_race, SUM(quantity) as total_resources FROM resource_extraction GROUP BY extractor_gender, extractor_race;'
+), 0), (Example({'sql_prompt': 'What are the smart contracts written in Vyper by developers from the USA?', 'sql_context': "CREATE TABLE developers (developer_id INT PRIMARY KEY, name VARCHAR(50), age INT, gender VARCHAR(10), country VARCHAR(50)); INSERT INTO developers (developer_id, name, age, gender, country) VALUES (1, 'Alice', 30, 'Female', 'USA'); INSERT INTO developers (developer_id, name, age, gender, country) VALUES (2, 'Bob', 35, 'Male', 'Canada'); CREATE TABLE smart_contracts (contract_id INT PRIMARY KEY, contract_name VARCHAR(50), developer_id INT, language VARCHAR(20), FOREIGN KEY (developer_id) REFERENCES developers(developer_id)); INSERT INTO smart_contracts (contract_id, contract_name, developer_id, language) VALUES (1, 'Contract1', 1, 'Solidity'); INSERT INTO smart_contracts (contract_id, contract_name, developer_id, language) VALUES (2, 'Contract2', 2, 'Vyper');", 'sql': "SELECT smart_contracts.contract_name FROM smart_contracts INNER JOIN developers ON smart_contracts.developer_id = developers.developer_id WHERE developers.country = 'USA' AND smart_contracts.language = 'Vyper';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="SELECT smart_contracts.language FROM developers INNER JOIN smart_contracts ON developers.developer_id = smart_contracts.developer_id WHERE developers.country = 'USA' AND smart_contracts.language = 'Vyper';",
+    sql="SELECT smart_contracts.language FROM developers INNER JOIN smart_contracts ON developers.developer_id = smart_contracts.developer_id WHERE developers.country = 'USA' AND smart_contracts.language = 'Vyper';"
+), 0), (Example({'sql_prompt': "List the number of IoT sensors in the 'PrecisionFarming' schema that have a 'moisture' measurement and were installed after 2019-01-01.", 'sql_context': "CREATE SCHEMA PrecisionFarming; CREATE TABLE IoT_Sensors (sensor_id INT, sensor_name VARCHAR(50), measurement VARCHAR(50), install_date DATE); INSERT INTO PrecisionFarming.IoT_Sensors (sensor_id, sensor_name, measurement, install_date) VALUES (4, 'Sensor4', 'moisture', '2020-01-01'), (5, 'Sensor5', 'moisture', '2019-06-15'), (6, 'Sensor6', 'temperature', '2021-03-02'), (7, 'Sensor7', 'humidity', '2018-12-31');", 'sql': "SELECT COUNT(*) FROM PrecisionFarming.IoT_Sensors WHERE measurement = 'moisture' AND install_date &gt; '2019-01-01';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="SELECT COUNT(*) FROM PrecisionFarming.IoT_Sensors WHERE measurement = 'moisture' AND install_date &gt; '2019-01-01';",
+    sql="SELECT COUNT(*) as num_sensors FROM PrecisionFarming.IoT_Sensors WHERE measurement = 'moisture' AND install_date &gt; '2019-01-01';"
+), 1), (Example({'sql_prompt': 'What is the maximum quantity of a single organic product delivered in the DELIVERY_RECORDS table?', 'sql_context': 'CREATE TABLE DELIVERY_RECORDS (id INT, supplier_id INT, product_id INT, is_organic BOOLEAN, quantity INT); INSERT INTO DELIVERY_RECORDS (id, supplier_id, product_id, is_organic, quantity) VALUES (1, 1, 1, true, 50), (2, 2, 2, true, 30);', 'sql': 'SELECT MAX(quantity) FROM DELIVERY_RECORDS WHERE is_organic = true;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='What is the maximum quantity of a single organic product delivered?',
+    sql='SELECT MAX(quantity) FROM DELIVERY_RECORDS WHERE is_organic = true;'
+), 1), (Example({'sql_prompt': 'What is the total budget allocated for accommodations and support programs in the West?', 'sql_context': "CREATE TABLE Accommodations (ID INT, Type VARCHAR(50), Cost FLOAT, Region VARCHAR(50)); INSERT INTO Accommodations (ID, Type, Cost, Region) VALUES (1, 'Note-taking Services', 20000.0, 'West'), (2, 'Accessible Furniture', 25000.0, 'West'); CREATE TABLE SupportPrograms (ID INT, Type VARCHAR(50), Cost FLOAT, Region VARCHAR(50)); INSERT INTO SupportPrograms (ID, Type, Cost, Region) VALUES (1, 'Assistive Technology Grant', 30000.0, 'West'), (2, 'Disability Awareness Training', 35000.0, 'West');", 'sql': "SELECT SUM(A.Cost) + SUM(S.Cost) FROM Accommodations A, SupportPrograms S WHERE A.Region = 'West' AND S.Region = 'West';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="SELECT SUM(Cost) FROM Accommodations WHERE Region = 'West'; SELECT SUM(Cost) FROM SupportPrograms WHERE Region = 'West'; SELECT (SELECT SUM(Cost) FROM Accommodations WHERE Region = 'West') + (SELECT SUM(Cost) FROM SupportPrograms WHERE Region = 'West');",
+    sql="SELECT (SELECT SUM(Cost) FROM Accommodations WHERE Region = 'West') + (SELECT SUM(Cost) FROM SupportPrograms WHERE Region = 'West');"
+), 1), (Example({'sql_prompt': 'Show the number of electric vehicle charging stations in the top 10 most populous cities in the US.', 'sql_context': 'CREATE TABLE cities (city_name TEXT, population INT);CREATE TABLE charging_stations (station_id INT, station_name TEXT, city_name TEXT, num_charging_points INT);', 'sql': 'SELECT c.city_name, COUNT(cs.station_id) AS num_charging_stations FROM cities c JOIN charging_stations cs ON c.city_name = cs.city_name GROUP BY c.city_name ORDER BY population DESC LIMIT 10;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='Sql: SELECT c.city_name, COUNT(cs.station_id) as total_stations FROM cities c JOIN charging_stations cs ON c.city_name = cs.city_name WHERE population IN (SELECT population FROM (SELECT city_name, ROW_NUMBER() OVER (ORDER BY population DESC) rn FROM cities) t WHERE rn &lt;= 10) GROUP BY c.city_name;',
+    sql='SELECT c.city_name, COUNT(cs.station_id) as total_stations FROM cities c JOIN charging_stations cs ON c.city_name = cs.city_name WHERE population IN (SELECT population FROM (SELECT city_name, ROW_NUMBER() OVER (ORDER BY population DESC) rn FROM cities) t WHERE rn &lt;= 10) GROUP BY c.city_name;'
+), 0), (Example({'sql_prompt': 'What is the maximum and minimum population of animals for each species?', 'sql_context': "CREATE TABLE animal_population (species VARCHAR(50), population INT); INSERT INTO animal_population (species, population) VALUES ('Tiger', 300), ('Lion', 250), ('Elephant', 500), ('Giraffe', 200);", 'sql': 'SELECT species, MIN(population) OVER (PARTITION BY species) as min_population, MAX(population) OVER (PARTITION BY species) as max_population FROM animal_population ORDER BY species;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='Sql: SELECT species, MAX(population) as max_population, MIN(population) as min_population FROM animal_population GROUP BY species;',
+    sql='SELECT species, MAX(population) as max_population, MIN(population) as min_population FROM animal_population GROUP BY species;'
+), 0), (Example({'sql_prompt': 'What is the total amount of mineral extraction by type?', 'sql_context': "CREATE TABLE extraction (extraction_id INT, mine_id INT, year INT, mineral VARCHAR(255), quantity INT); INSERT INTO extraction (extraction_id, mine_id, year, mineral, quantity) VALUES (1, 1, 2018, 'Gold', 1000), (2, 1, 2019, 'Gold', 1200), (3, 2, 2018, 'Uranium', 2000), (4, 2, 2019, 'Uranium', 2500);", 'sql': 'SELECT mineral, SUM(quantity) FROM extraction GROUP BY mineral;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='Sql: SELECT mineral, SUM(quantity) as total_extraction FROM extraction GROUP BY mineral;',
+    sql='SELECT mineral, SUM(quantity) as total_extraction FROM extraction GROUP BY mineral;'
+), 1), (Example({'sql_prompt': 'What is the average rating of hotels that have a spa and a gym?', 'sql_context': "CREATE TABLE hotel_ratings (id INT, hotel_id INT, rating INT); INSERT INTO hotel_ratings (id, hotel_id, rating) VALUES (1, 101, 4); INSERT INTO hotel_amenities (id, hotel_id, amenity) VALUES (1, 101, 'Spa'), (2, 101, 'Gym');", 'sql': "SELECT AVG(hr.rating) as avg_rating FROM hotel_ratings hr INNER JOIN hotel_amenities ha ON hr.hotel_id = ha.hotel_id WHERE ha.amenity IN ('Spa', 'Gym') GROUP BY hr.hotel_id;"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="SELECT AVG(rating) FROM hotel_ratings hr JOIN hotel_amenities ha ON hr.hotel_id = ha.hotel_id WHERE ha.amenity IN ('Spa', 'Gym') GROUP BY hr.hotel_id HAVING COUNT(DISTINCT ha.amenity) = 2;",
+    sql="SELECT AVG(rating) FROM hotel_ratings hr JOIN hotel_amenities ha ON hr.hotel_id = ha.hotel_id WHERE ha.amenity IN ('Spa', 'Gym') GROUP BY hr.hotel_id HAVING COUNT(DISTINCT ha.amenity) = 2;"
+), 1), (Example({'sql_prompt': "What is the minimum wage for 'temporary' workers in the 'logistics' sector, and how many such workers are there?", 'sql_context': "CREATE TABLE employee_records (id INT, employment_type VARCHAR(10), sector VARCHAR(20), wage FLOAT); INSERT INTO employee_records (id, employment_type, sector, wage) VALUES (1, 'temporary', 'logistics', 14.00), (2, 'permanent', 'logistics', 18.00), (3, 'temporary', 'logistics', 13.50), (4, 'permanent', 'logistics', 20.00);", 'sql': "SELECT MIN(wage), COUNT(*) FROM employee_records WHERE employment_type = 'temporary' AND sector = 'logistics';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="Sql: SELECT MIN(wage) FROM employee_records WHERE employment_type = 'temporary' AND sector = 'logistics'; SELECT COUNT(*) FROM employee_records WHERE employment_type = 'temporary' AND sector = 'logistics';",
+    sql="SELECT MIN(wage) as min_temp_wage, COUNT(*) as temp_count FROM employee_records WHERE employment_type = 'temporary' AND sector = 'logistics';"
+), 1), (Example({'sql_prompt': 'List the number of virtual tours in India and Argentina.', 'sql_context': "CREATE TABLE virtual_tours (tour_id INT, location VARCHAR(255), type VARCHAR(255)); INSERT INTO virtual_tours (tour_id, location, type) VALUES (1, 'India Virtual Tour', 'virtual'), (2, 'Argentina Virtual Tour', 'virtual');", 'sql': "SELECT COUNT(*) FROM virtual_tours WHERE location IN ('India', 'Argentina');"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='What is the total number of virtual tours available for each country?',
+    sql='SELECT location, COUNT(*) as num_tours FROM virtual_tours GROUP BY location;'
+), 0), (Example({'sql_prompt': "What is the average water temperature for each species in the 'fish_tanks' table?", 'sql_context': "CREATE TABLE fish_tanks (tank_id INT, species VARCHAR(255), water_temperature DECIMAL(5,2)); INSERT INTO fish_tanks (tank_id, species, water_temperature) VALUES (1, 'Tilapia', 26.5), (2, 'Salmon', 12.0), (3, 'Tilapia', 27.3), (4, 'Catfish', 24.6), (5, 'Salmon', 12.5);", 'sql': 'SELECT species, AVG(water_temperature) as avg_temp FROM fish_tanks GROUP BY species;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='SELECT species, AVG(water_temperature) as avg_temp FROM fish_tanks GROUP BY species;',
+    sql='SELECT species, AVG(water_temperature) as avg_temp FROM fish_tanks GROUP BY species;'
+), 1), (Example({'sql_prompt': 'What is the average number of installations visited per visitor, partitioned by city?', 'sql_context': "CREATE TABLE Cities (CityID INT, City VARCHAR(50)); INSERT INTO Cities (CityID, City) VALUES (1, 'New York'), (2, 'Los Angeles'); CREATE TABLE Visits (VisitID INT, VisitorID INT, CityID INT, InstallationID INT); INSERT INTO Visits (VisitID, VisitorID, CityID, InstallationID) VALUES (1, 1, 1, 1), (2, 1, 1, 2), (3, 2, 2, 3);", 'sql': 'SELECT City, AVG(InstallationID) OVER (PARTITION BY CityID) AS AvgInstallationsPerVisitor FROM Visits V JOIN Cities C ON V.CityID = C.CityID;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='What is the average number of installations visited per visitor, partitioned by city?',
+    sql='SELECT CityID, AVG(COUNT(*)) OVER (PARTITION BY CityID) FROM Visits GROUP BY CityID;'
+), 0), (Example({'sql_prompt': 'What is the maximum age of patients diagnosed with Hypertension?', 'sql_context': "CREATE TABLE Patients (PatientID INT, Age INT, Gender VARCHAR(10), Diagnosis VARCHAR(20), Location VARCHAR(20)); INSERT INTO Patients (PatientID, Age, Gender, Diagnosis, Location) VALUES (1, 35, 'Male', 'Asthma', 'Texas'); INSERT INTO Patients (PatientID, Age, Gender, Diagnosis, Location) VALUES (2, 42, 'Female', 'Asthma', 'Texas'); INSERT INTO Patients (PatientID, Age, Gender, Diagnosis, Location) VALUES (3, 50, 'Male', 'Diabetes', 'Urban'); INSERT INTO Patients (PatientID, Age, Gender, Diagnosis, Location) VALUES (4, 60, 'Female', 'Hypertension', 'Rural');", 'sql': "SELECT MAX(Age) FROM Patients WHERE Diagnosis = 'Hypertension';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="SELECT MAX(Age) FROM Patients WHERE Diagnosis = 'Hypertension';",
+    sql="SELECT MAX(Age) as max_age_hypertension FROM Patients WHERE Diagnosis = 'Hypertension';"
+), 1), (Example({'sql_prompt': 'How many socially responsible loans were issued to customers in the South?', 'sql_context': "CREATE TABLE loans (loan_number INT, customer_name VARCHAR(50), issue_date DATE, is_socially_responsible BOOLEAN, region VARCHAR(20)); INSERT INTO loans (loan_number, customer_name, issue_date, is_socially_responsible, region) VALUES (1, 'Ahmed', '2021-01-01', true, 'South'), (2, 'Sara', '2021-02-15', false, 'North'), (3, 'Mohammed', '2021-03-03', true, 'South');", 'sql': "SELECT COUNT(*) FROM loans WHERE is_socially_responsible = true AND region = 'South';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="What is the total number of socially responsible loans issued to customers in the South?\n\nSql Context: CREATE TABLE loans (loan_number INT, customer_name VARCHAR(50), issue_date DATE, is_socially_responsible BOOLEAN, region VARCHAR(20)); INSERT INTO loans (loan_number, customer_name, issue_date, is_socially_responsible, region) VALUES (1, 'Ahmed', '2021-01-01', true, 'South'), (2, 'Sara', '2021-02-15', false, 'North'), (3, 'Moh",
+    sql="SELECT COUNT(*) as total_socially_responsible_loans FROM loans WHERE is_socially_responsible = true AND region = 'South';"
+), 1), (Example({'sql_prompt': 'What is the total number of volunteers for nonprofits in California?', 'sql_context': 'CREATE TABLE Nonprofits (NonprofitID INT, Name VARCHAR(50), City VARCHAR(50), State VARCHAR(2), Zip VARCHAR(10), MissionStatement TEXT, TotalVolunteers INT); CREATE TABLE Volunteers (VolunteerID INT, VolunteerName VARCHAR(50), NonprofitID INT, Hours INT);', 'sql': "SELECT SUM(V.Hours) FROM Volunteers V INNER JOIN Nonprofits N ON V.NonprofitID = N.NonprofitID WHERE N.State = 'CA';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="Sql: SELECT SUM(TotalVolunteers) FROM Nonprofits WHERE State = 'CA';",
+    sql="SELECT SUM(TotalVolunteers) FROM Nonprofits WHERE State = 'CA';"
+), 1), (Example({'sql_prompt': "What is the total quantity of corn sold by farmers in 'Summerfield'?", 'sql_context': "CREATE TABLE farmers (id INT, name VARCHAR(50), location VARCHAR(50), crops VARCHAR(50)); CREATE TABLE crops (id INT, name VARCHAR(50), yield INT); CREATE TABLE sales (id INT, farmer_id INT, crop_name VARCHAR(50), quantity INT, price DECIMAL(5,2)); INSERT INTO farmers VALUES (1, 'Jane Doe', 'Summerfield', 'Corn'); INSERT INTO crops VALUES (1, 'Corn', 100); INSERT INTO sales VALUES (1, 1, 'Corn', 50, 2.50);", 'sql': "SELECT SUM(quantity) FROM sales INNER JOIN farmers ON sales.farmer_id = farmers.id INNER JOIN crops ON sales.crop_name = crops.name WHERE farmers.location = 'Summerfield' AND crops.name = 'Corn';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="What is the total quantity of corn sold by farmers in 'Summerfield'?\n\nSql Context: CREATE TABLE farmers (id INT, name VARCHAR(50), location VARCHAR(50), crops VARCHAR(50)); INSERT INTO farmers VALUES (1, 'Jane Doe', 'Summerfield', 'Corn'); CREATE TABLE sales (id INT, farmer_id INT, crop_name VARCHAR(50), quantity INT); INSERT INTO sales VALUES (1, 1, 'Corn', 50);",
+    sql="SELECT SUM(quantity) as total_corn_sold FROM sales INNER JOIN farmers ON sales.farmer_id = farmers.id WHERE farmers.location = 'Summerfield' AND crop_name = 'Corn';"
+), 1), (Example({'sql_prompt': 'Delete all rows in the comments table with a rating of 1.', 'sql_context': 'CREATE TABLE comments (id INT, article_id INT, user VARCHAR(255), comment TEXT, rating INT);', 'sql': 'DELETE FROM comments WHERE rating = 1;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='Delete all rows from the comments table where the rating is 1.',
+    sql='DELETE FROM comments WHERE rating = 1;'
+), 1), (Example({'sql_prompt': 'Update the names of all news agencies from country X to their official English names.', 'sql_context': "CREATE TABLE news_agencies (id INT, name TEXT, country TEXT); INSERT INTO news_agencies (id, name, country) VALUES (1, 'Agency 1', 'Country X'); CREATE TABLE articles (id INT, title TEXT, agency_id INT); INSERT INTO articles (id, title, agency_id) VALUES (1, 'Article 1', 1);", 'sql': "UPDATE news_agencies SET name = CASE WHEN country = 'Country X' THEN 'Official English Name 1' ELSE name END;"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='Update the names of all news agencies from country X to their official English names.',
+    sql="UPDATE news_agencies SET name = 'Official Agency Name 1' WHERE country = 'Country X';"
+), 0), (Example({'sql_prompt': "Create a view that displays all fish in the 'tropical' and 'temperate' locations", 'sql_context': "CREATE TABLE fish_stock (fish_id INT PRIMARY KEY, species VARCHAR(50), location VARCHAR(50), biomass FLOAT); INSERT INTO fish_stock (fish_id, species, location, biomass) VALUES (1, 'tuna', 'tropical', 250.5), (2, 'salmon', 'arctic', 180.3), (3, 'cod', 'temperate', 120.0);", 'sql': "CREATE VIEW fish_in_warm_waters AS SELECT * FROM fish_stock WHERE location IN ('tropical', 'temperate');"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="CREATE VIEW fish_summary AS SELECT species, location FROM fish_stock WHERE location IN ('tropical', 'temperate');",
+    sql="CREATE VIEW fish_summary AS SELECT species, location FROM fish_stock WHERE location IN ('tropical', 'temperate');"
+), 1), (Example({'sql_prompt': 'Remove customers not interested in sustainable fashion', 'sql_context': 'CREATE TABLE CustomerPreferences (CustomerID INT, PrefersSustainable BOOLEAN); INSERT INTO CustomerPreferences (CustomerID, PrefersSustainable) VALUES (1, TRUE), (2, FALSE), (3, TRUE);', 'sql': 'DELETE FROM CustomerPreferences WHERE PrefersSustainable = FALSE;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='Sql: DELETE FROM Customers WHERE CustomerID NOT IN (SELECT CustomerID FROM CustomerPreferences WHERE PrefersSustainable = TRUE);',
+    sql='DELETE FROM Customers WHERE CustomerID NOT IN (SELECT CustomerID FROM CustomerPreferences WHERE PrefersSustainable = TRUE);'
+), 0), (Example({'sql_prompt': 'Which region has the highest average shelter capacity?', 'sql_context': "CREATE TABLE region (region_id INT, name VARCHAR(255)); INSERT INTO region (region_id, name) VALUES (1, 'west_africa'), (2, 'east_asia'), (3, 'south_america'); CREATE TABLE shelter (shelter_id INT, name VARCHAR(255), region_id INT, capacity INT); INSERT INTO shelter (shelter_id, name, region_id, capacity) VALUES (1, 'Shelter1', 1, 50), (2, 'Shelter2', 1, 75), (3, 'Shelter3', 2, 100), (4, 'Shelter4', 3, 150);", 'sql': 'SELECT region_id, AVG(capacity) as avg_capacity FROM shelter GROUP BY region_id ORDER BY avg_capacity DESC LIMIT 1;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='What is the average shelter capacity for each region?',
+    sql='SELECT r.name as region_name, AVG(s.capacity) as avg_capacity FROM shelter s JOIN region r ON s.region_id = r.region_id GROUP BY r.name;'
+), 1), (Example({'sql_prompt': 'List all projects that were completed before their scheduled completion date', 'sql_context': "CREATE TABLE Project (id INT, name VARCHAR(255), scheduled_completion_date DATE, actual_completion_date DATE); INSERT INTO Project (id, name, scheduled_completion_date, actual_completion_date) VALUES (1, 'Project A', '2020-12-31', '2020-12-15'), (2, 'Project B', '2021-03-31', '2022-04-15'), (3, 'Project C', '2022-06-30', '2022-06-30');", 'sql': 'SELECT * FROM Project WHERE actual_completion_date &lt; scheduled_completion_date;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='SELECT * FROM Project WHERE actual_completion_date &lt; scheduled_completion_date;',
+    sql='SELECT * FROM Project WHERE actual_completion_date &lt; scheduled_completion_date;'
+), 0), (Example({'sql_prompt': 'What is the average water usage for crops in Spain?', 'sql_context': "CREATE TABLE crops (id INT, name VARCHAR(50), country VARCHAR(50), water_usage INT); INSERT INTO crops (id, name, country, water_usage) VALUES (1, 'Wheat', 'Spain', 1000), (2, 'Barley', 'Spain', 800);", 'sql': "SELECT AVG(water_usage) FROM crops WHERE country = 'Spain';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="SELECT AVG(water_usage) FROM crops WHERE country = 'Spain';",
+    sql="SELECT AVG(water_usage) as avg_water_usage FROM crops WHERE country = 'Spain';"
+), 1), (Example({'sql_prompt': 'How many regulatory violations have been committed by Coinbase and Huobi combined?', 'sql_context': "CREATE TABLE regulatory_violations (platform VARCHAR(255), violation_count INT); INSERT INTO regulatory_violations (platform, violation_count) VALUES ('Coinbase', 10); INSERT INTO regulatory_violations (platform, violation_count) VALUES ('Huobi', 15);", 'sql': "SELECT SUM(violation_count) FROM regulatory_violations WHERE platform IN ('Coinbase', 'Huobi');"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="Sql: SELECT SUM(violation_count) FROM regulatory_violations WHERE platform IN ('Coinbase', 'Huobi');",
+    sql="SELECT SUM(violation_count) FROM regulatory_violations WHERE platform IN ('Coinbase', 'Huobi');"
+), 1), (Example({'sql_prompt': 'What is the total mass of space objects in high Earth orbit?', 'sql_context': "CREATE TABLE space_objects_heo (id INT, name VARCHAR(255), mass FLOAT, orbit VARCHAR(255)); INSERT INTO space_objects_heo (id, name, mass, orbit) VALUES (1, 'Space Object 1', 1000.0, 'High Earth Orbit'), (2, 'Space Object 2', 1500.0, 'High Earth Orbit');", 'sql': 'SELECT SUM(mass) FROM space_objects_heo;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="Sql: SELECT SUM(mass) FROM space_objects_heo WHERE orbit = 'High Earth Orbit';",
+    sql="SELECT SUM(mass) FROM space_objects_heo WHERE orbit = 'High Earth Orbit';"
+), 1), (Example({'sql_prompt': 'How many volunteers helped in the education programs in 2021?', 'sql_context': "CREATE TABLE volunteers (id INT, name TEXT, program TEXT, hours FLOAT, volunteer_date DATE); INSERT INTO volunteers (id, name, program, hours, volunteer_date) VALUES (1, 'Jim Brown', 'Education', 5, '2021-02-03'); INSERT INTO volunteers (id, name, program, hours, volunteer_date) VALUES (2, 'Karen Green', 'Health', 3, '2021-06-15');", 'sql': "SELECT COUNT(*) FROM volunteers WHERE program = 'Education' AND volunteer_date BETWEEN '2021-01-01' AND '2021-12-31';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="Sql: SELECT COUNT(*) FROM volunteers WHERE program LIKE '%Education%' AND YEAR(volunteer_date) = 2021;",
+    sql="SELECT COUNT(*) FROM volunteers WHERE program LIKE '%Education%' AND YEAR(volunteer_date) = 2021;"
+), 0), (Example({'sql_prompt': 'What is the distribution of biotech startup funding sources?', 'sql_context': "CREATE TABLE funding_sources (funding_source_id INT, funding_source_type VARCHAR(20)); INSERT INTO funding_sources (funding_source_id, funding_source_type) VALUES (1, 'Venture capital'), (2, 'Angel investors'), (3, 'Grants'), (4, 'Crowdfunding');", 'sql': 'SELECT funding_source_type, COUNT(*) FROM funding_sources GROUP BY funding_source_type'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='What is the distribution of biotech startup funding sources?',
+    sql='SELECT COUNT(*) as count, funding_source_type FROM funding_sources GROUP BY funding_source_type;'
+), 0), (Example({'sql_prompt': 'List the names, types, and last maintenance dates of machines in factories with circular economy initiatives.', 'sql_context': 'CREATE TABLE machines (machine_id INT, name TEXT, type TEXT, last_maintenance DATE); CREATE TABLE factories (factory_id INT, initiative TEXT);', 'sql': "SELECT machines.name, machines.type, machines.last_maintenance FROM machines INNER JOIN factories ON machines.factory_id = factories.factory_id WHERE factories.initiative = 'circular economy';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='CREATE VIEW machines_with_initiatives AS SELECT m.name, m.type, m.last_maintenance FROM machines m JOIN factories f ON m.factory_id = f.factory_id WHERE f.initiative IS NOT NULL; SELECT * FROM machines_with_initiatives;',
+    sql='CREATE VIEW machines_with_initiatives AS SELECT m.name, m.type, m.last_maintenance FROM machines m JOIN factories f ON m.factory_id = f.factory_id WHERE f.initiative IS NOT NULL; SELECT * FROM machines_with_initiatives;'
+), 0), (Example({'sql_prompt': 'Find the top 3 most popular garment types sold in the European market.', 'sql_context': "CREATE TABLE garment_sales (id INT, garment_type VARCHAR(255), region VARCHAR(255), quantity INT); INSERT INTO garment_sales (id, garment_type, region, quantity) VALUES (1, 'T-Shirt', 'Europe', 500), (2, 'Jeans', 'Europe', 700), (3, 'Sweater', 'Europe', 800);", 'sql': "SELECT garment_type, SUM(quantity) as total_quantity FROM garment_sales WHERE region = 'Europe' GROUP BY garment_type ORDER BY total_quantity DESC LIMIT 3;"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="Sql: SELECT garment_type, SUM(quantity) as total_quantity FROM garment_sales WHERE region = 'Europe' GROUP BY garment_type ORDER BY total_quantity DESC LIMIT 3;",
+    sql="SELECT garment_type, SUM(quantity) as total_quantity FROM garment_sales WHERE region = 'Europe' GROUP BY garment_type ORDER BY total_quantity DESC LIMIT 3;"
+), 1), (Example({'sql_prompt': 'List the number of affordable housing units in each neighborhood of San Francisco.', 'sql_context': "CREATE TABLE affordable_housing (id INT, neighborhood VARCHAR(30), num_units INT); INSERT INTO affordable_housing (id, neighborhood, num_units) VALUES (1, 'Mission', 100), (2, 'SoMa', 150), (3, 'Haight-Ashbury', 120), (4, 'Richmond', 80), (5, 'Sunset', 130), (6, 'Tenderloin', 140), (7, 'Chinatown', 90), (8, 'Nob Hill', 70), (9, 'Pacific Heights', 60), (10, 'Marina', 50);", 'sql': 'SELECT neighborhood, num_units FROM affordable_housing;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='SELECT neighborhood, SUM(num_units) FROM affordable_housing GROUP BY neighborhood;',
+    sql='SELECT neighborhood, SUM(num_units) FROM affordable_housing GROUP BY neighborhood;'
+), 1), (Example({'sql_prompt': 'What is the average price of vegan products in the USA?', 'sql_context': "CREATE TABLE vendors (vendor_id INT, vendor_name TEXT, country TEXT);CREATE TABLE products (product_id INT, product_name TEXT, price DECIMAL, vegan BOOLEAN, vendor_id INT); INSERT INTO vendors (vendor_id, vendor_name, country) VALUES (1, 'VendorA', 'USA'), (2, 'VendorB', 'Canada'); INSERT INTO products (product_id, product_name, price, vegan, vendor_id) VALUES (1, 'ProductA', 25.99, true, 1), (2, 'ProductB', 18.49, false, 1), (3, 'ProductC', 22.99, true, 2);", 'sql': "SELECT AVG(price) FROM products JOIN vendors ON products.vendor_id = vendors.vendor_id WHERE vegan = true AND country = 'USA';"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale="SELECT AVG(price) FROM products JOIN vendors ON products.vendor_id = vendors.vendor_id WHERE vegan = true AND country = 'USA';",
+    sql="SELECT AVG(price) as avg_vegan_price FROM products JOIN vendors ON products.vendor_id = vendors.vendor_id WHERE vegan = true AND country = 'USA';"
+), 1), (Example({'sql_prompt': "List the names and nationalities of coaches in the 'coaches' table.", 'sql_context': 'CREATE TABLE coaches (coach_id INT, name VARCHAR(50), nationality VARCHAR(30));', 'sql': 'SELECT name, nationality FROM coaches;'}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='List the names and nationalities of all coaches.',
+    sql='SELECT name, nationality FROM coaches;'
+), 1), (Example({'sql_prompt': 'Find the average soil moisture reading for each crop type in the month of May for 2021.', 'sql_context': "CREATE TABLE crop_data (id INT, crop_type VARCHAR(255), soil_moisture INT, measurement_date DATE); INSERT INTO crop_data (id, crop_type, soil_moisture, measurement_date) VALUES (1, 'Corn', 60, '2021-05-01'); INSERT INTO crop_data (id, crop_type, soil_moisture, measurement_date) VALUES (2, 'Soybean', 55, '2021-05-03');", 'sql': "SELECT crop_type, AVG(soil_moisture) as avg_moisture FROM crop_data WHERE measurement_date BETWEEN '2021-05-01' AND '2021-05-31' GROUP BY crop_type;"}) (input_keys={'sql_prompt', 'sql_context'}), Prediction(
+    rationale='SELECT crop_type, AVG(soil_moisture) FROM crop_data WHERE EXTRACT(MONTH FROM measurement_date) = 5 AND YEAR(measurement_date) = 2021 GROUP BY crop_type;',
+    sql='SELECT crop_type, AVG(soil_moisture) FROM crop_data WHERE EXTRACT(MONTH FROM measurement_date) = 5 AND YEAR(measurement_date) = 2021 GROUP BY crop_type;'
+), 1), (Example({'sql_prompt': 'What is the average landfill capacity in megatons in the United States and Canada?', 'sql_context': 'CREATE TABLE LandfillCapacity (country VARCHAR(50), capacity_mt FLOAT);', 'sql': "SELECT AVG(capacity_mt) FROM LandfillCapacity WHERE country IN ('United Stat</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logging/datasciencystuff/log_evaluations.xlsx
+++ b/logging/datasciencystuff/log_evaluations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5964,6 +5964,108 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>phi3:14b-medium-4k-instruct-q5_K_M</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>42</v>
+      </c>
+      <c r="D12" t="n">
+        <v>200</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2846.55</v>
+      </c>
+      <c r="F12" t="n">
+        <v>306.1151</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>phi3_14b_medium_4k_instruct_q5_K_M_llama3_70b_42_200_val.txt</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>477.93</v>
+      </c>
+      <c r="J12" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>phi3_14b_medium_4k_instruct_q5_K_M_llama3_70b_42_200_test.txt</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="n">
+        <v>148.71</v>
+      </c>
+      <c r="O12" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>phi3_14b_medium_4k_instruct_q5_K_M_llama3_70b_42_200_val_labeled.txt</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>276.76</v>
+      </c>
+      <c r="R12" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>phi3_14b_medium_4k_instruct_q5_K_M_llama3_70b_42_200_test_labeled.txt</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>1168.15</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2</v>
+      </c>
+      <c r="W12" t="n">
+        <v>133.24</v>
+      </c>
+      <c r="X12" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>phi3_14b_medium_4k_instruct_q5_K_M_llama3_70b_42_200_val_bootstrap.txt</t>
+        </is>
+      </c>
+      <c r="Z12" t="n">
+        <v>335.65</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>phi3_14b_medium_4k_instruct_q5_K_M_llama3_70b_42_200_test_bootstrap.txt</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logging/datasciencystuff/log_evaluations.xlsx
+++ b/logging/datasciencystuff/log_evaluations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW5"/>
+  <dimension ref="A1:AW11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1388,6 +1388,1068 @@
         <v>39</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>phi3:14b-medium-4k-instruct-q5_K_M</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>200</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3390.91</v>
+      </c>
+      <c r="F6" t="n">
+        <v>190.59</v>
+      </c>
+      <c r="G6" t="n">
+        <v>70</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>logs\phi3_14b_medium_4k_instruct_q5_K_M_llama3_70b_1_200_val_match_1.txt</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>190.59</v>
+      </c>
+      <c r="J6" t="n">
+        <v>60</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>logs\phi3_14b_medium_4k_instruct_q5_K_M_llama3_70b_1_200_val_correct_1.txt</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>62.66666666666666</v>
+      </c>
+      <c r="M6" t="n">
+        <v>382.19</v>
+      </c>
+      <c r="N6" t="n">
+        <v>66.25</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>logs\phi3_14b_medium_4k_instruct_q5_K_M_llama3_70b_1_200_test_match_1.txt</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>382.19</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>63.75</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>logs\phi3_14b_medium_4k_instruct_q5_K_M_llama3_70b_1_200_test_correct_1.txt</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>63.66666666666666</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>160.68</v>
+      </c>
+      <c r="V6" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>logs\phi3_14b_medium_4k_instruct_q5_K_M_llama3_70b_1_200_val_fewshot_match_1.txt</t>
+        </is>
+      </c>
+      <c r="X6" t="n">
+        <v>160.68</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>logs\phi3_14b_medium_4k_instruct_q5_K_M_llama3_70b_1_200_val_fewshot_correct_1.txt</t>
+        </is>
+      </c>
+      <c r="AA6" t="n">
+        <v>42.33333333333334</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>309.7</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>logs\phi3_14b_medium_4k_instruct_q5_K_M_llama3_70b_1_200_test_fewshot_match_1.txt</t>
+        </is>
+      </c>
+      <c r="AE6" t="n">
+        <v>309.7</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>85</v>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>logs\phi3_14b_medium_4k_instruct_q5_K_M_llama3_70b_1_200_test_fewshot_correct_1.txt</t>
+        </is>
+      </c>
+      <c r="AH6" t="n">
+        <v>39</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1531.36</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>294.86</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>logs\phi3_14b_medium_4k_instruct_q5_K_M_llama3_70b_1_200_val_bootstrap_match_1.txt</t>
+        </is>
+      </c>
+      <c r="AM6" t="n">
+        <v>294.86</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>logs\phi3_14b_medium_4k_instruct_q5_K_M_llama3_70b_1_200_val_bootstrap_correct.txt</t>
+        </is>
+      </c>
+      <c r="AP6" t="n">
+        <v>68.66666666666667</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>521.52</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>logs\phi3_14b_medium_4k_instruct_q5_K_M_llama3_70b_1_200_test_bootstrap_match.txt</t>
+        </is>
+      </c>
+      <c r="AT6" t="n">
+        <v>521.52</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>logs\phi3_14b_medium_4k_instruct_q5_K_M_llama3_70b_1_200_test_bootstrap_correct.txt</t>
+        </is>
+      </c>
+      <c r="AW6" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>llama3:8b-text-q5_K_M</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>200</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3491.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>198.31</v>
+      </c>
+      <c r="G7" t="n">
+        <v>35</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_text_q5_K_M_llama3_70b_1_200_val_match.txt</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>198.31</v>
+      </c>
+      <c r="J7" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_text_q5_K_M_llama3_70b_1_200_val_correct.txt</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>42</v>
+      </c>
+      <c r="M7" t="n">
+        <v>443.63</v>
+      </c>
+      <c r="N7" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_text_q5_K_M_llama3_70b_1_200_test_match.txt</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>443.63</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>58.75</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_text_q5_K_M_llama3_70b_1_200_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>40.66666666666666</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>234.01</v>
+      </c>
+      <c r="V7" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_text_q5_K_M_llama3_70b_1_200_val_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="X7" t="n">
+        <v>234.01</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_text_q5_K_M_llama3_70b_1_200_val_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="AA7" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>446.75</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>63.75</v>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_text_q5_K_M_llama3_70b_1_200_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="AE7" t="n">
+        <v>446.75</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_text_q5_K_M_llama3_70b_1_200_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="AH7" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1587.4</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>193.78</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_text_q5_K_M_llama3_70b_1_200_val_bootstrap_match.txt</t>
+        </is>
+      </c>
+      <c r="AM7" t="n">
+        <v>193.78</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_text_q5_K_M_llama3_70b_1_200_val_bootstrap_correct.txt</t>
+        </is>
+      </c>
+      <c r="AP7" t="n">
+        <v>20.66666666666667</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>387.61</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>38.75</v>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_text_q5_K_M_llama3_70b_1_200_test_bootstrap_match.txt</t>
+        </is>
+      </c>
+      <c r="AT7" t="n">
+        <v>387.61</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>48.75</v>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_text_q5_K_M_llama3_70b_1_200_test_bootstrap_correct.txt</t>
+        </is>
+      </c>
+      <c r="AW7" t="n">
+        <v>41.33333333333334</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>llama3:8b-instruct-q5_K_M</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>200</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3479.12</v>
+      </c>
+      <c r="F8" t="n">
+        <v>108.79</v>
+      </c>
+      <c r="G8" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_q5_K_M_llama3_70b_1_200_val_match.txt</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>108.79</v>
+      </c>
+      <c r="J8" t="n">
+        <v>70</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_q5_K_M_llama3_70b_1_200_val_correct.txt</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>36.66666666666666</v>
+      </c>
+      <c r="M8" t="n">
+        <v>210.7</v>
+      </c>
+      <c r="N8" t="n">
+        <v>60</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_q5_K_M_llama3_70b_1_200_test_match.txt</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>210.7</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>70</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_q5_K_M_llama3_70b_1_200_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>42</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>183.38</v>
+      </c>
+      <c r="V8" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_q5_K_M_llama3_70b_1_200_val_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="X8" t="n">
+        <v>183.38</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_q5_K_M_llama3_70b_1_200_val_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="AA8" t="n">
+        <v>30.33333333333333</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>347.43</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_q5_K_M_llama3_70b_1_200_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="AE8" t="n">
+        <v>347.43</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_q5_K_M_llama3_70b_1_200_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="AH8" t="n">
+        <v>31.33333333333333</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1702.23</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>316.13</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_q5_K_M_llama3_70b_1_200_val_bootstrap_match.txt</t>
+        </is>
+      </c>
+      <c r="AM8" t="n">
+        <v>316.13</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_q5_K_M_llama3_70b_1_200_val_bootstrap_correct.txt</t>
+        </is>
+      </c>
+      <c r="AP8" t="n">
+        <v>61</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>610.46</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_q5_K_M_llama3_70b_1_200_test_bootstrap_match.txt</t>
+        </is>
+      </c>
+      <c r="AT8" t="n">
+        <v>610.46</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>41.25</v>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_q5_K_M_llama3_70b_1_200_test_bootstrap_correct.txt</t>
+        </is>
+      </c>
+      <c r="AW8" t="n">
+        <v>58.33333333333334</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>command-r</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>200</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7524.69</v>
+      </c>
+      <c r="F9" t="n">
+        <v>113.57</v>
+      </c>
+      <c r="G9" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>logs\command_r_llama3_70b_1_200_val_match.txt</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>113.57</v>
+      </c>
+      <c r="J9" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>logs\command_r_llama3_70b_1_200_val_correct.txt</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>31.66666666666667</v>
+      </c>
+      <c r="M9" t="n">
+        <v>207.74</v>
+      </c>
+      <c r="N9" t="n">
+        <v>50</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>logs\command_r_llama3_70b_1_200_test_match.txt</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>207.74</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>88.75</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>logs\command_r_llama3_70b_1_200_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>41.33333333333334</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>534.1799999999999</v>
+      </c>
+      <c r="V9" t="n">
+        <v>55</v>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>logs\command_r_llama3_70b_1_200_val_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="X9" t="n">
+        <v>534.1799999999999</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>logs\command_r_llama3_70b_1_200_val_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="AA9" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1091.88</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>logs\command_r_llama3_70b_1_200_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="AE9" t="n">
+        <v>1091.88</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>logs\command_r_llama3_70b_1_200_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="AH9" t="n">
+        <v>68.66666666666667</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>3384.9</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>714.85</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>logs\command_r_llama3_70b_1_200_val_bootstrap_match.txt</t>
+        </is>
+      </c>
+      <c r="AM9" t="n">
+        <v>714.85</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>logs\command_r_llama3_70b_1_200_val_bootstrap_correct.txt</t>
+        </is>
+      </c>
+      <c r="AP9" t="n">
+        <v>63.66666666666666</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>1477.57</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>76.25</v>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>logs\command_r_llama3_70b_1_200_test_bootstrap_match.txt</t>
+        </is>
+      </c>
+      <c r="AT9" t="n">
+        <v>1477.57</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>logs\command_r_llama3_70b_1_200_test_bootstrap_correct.txt</t>
+        </is>
+      </c>
+      <c r="AW9" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>codegemma:7b-code-q5_K_M</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>200</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3164.16</v>
+      </c>
+      <c r="F10" t="n">
+        <v>178.7</v>
+      </c>
+      <c r="G10" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>logs\codegemma_7b_code_q5_K_M_llama3_70b_1_200_val_match.txt</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>178.7</v>
+      </c>
+      <c r="J10" t="n">
+        <v>65</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>logs\codegemma_7b_code_q5_K_M_llama3_70b_1_200_val_correct.txt</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>38.33333333333334</v>
+      </c>
+      <c r="M10" t="n">
+        <v>352.27</v>
+      </c>
+      <c r="N10" t="n">
+        <v>48.75</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>logs\codegemma_7b_code_q5_K_M_llama3_70b_1_200_test_match.txt</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>352.27</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>logs\codegemma_7b_code_q5_K_M_llama3_70b_1_200_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>33</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>269.68</v>
+      </c>
+      <c r="V10" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>logs\codegemma_7b_code_q5_K_M_llama3_70b_1_200_val_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="X10" t="n">
+        <v>269.68</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>logs\codegemma_7b_code_q5_K_M_llama3_70b_1_200_val_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="AA10" t="n">
+        <v>72.66666666666667</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>453.95</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>logs\codegemma_7b_code_q5_K_M_llama3_70b_1_200_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="AE10" t="n">
+        <v>453.95</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>logs\codegemma_7b_code_q5_K_M_llama3_70b_1_200_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="AH10" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1394.73</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>168.92</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>logs\codegemma_7b_code_q5_K_M_llama3_70b_1_200_val_bootstrap_match.txt</t>
+        </is>
+      </c>
+      <c r="AM10" t="n">
+        <v>168.92</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>logs\codegemma_7b_code_q5_K_M_llama3_70b_1_200_val_bootstrap_correct.txt</t>
+        </is>
+      </c>
+      <c r="AP10" t="n">
+        <v>38.33333333333334</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>345.91</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>logs\codegemma_7b_code_q5_K_M_llama3_70b_1_200_test_bootstrap_match.txt</t>
+        </is>
+      </c>
+      <c r="AT10" t="n">
+        <v>345.91</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>logs\codegemma_7b_code_q5_K_M_llama3_70b_1_200_test_bootstrap_correct.txt</t>
+        </is>
+      </c>
+      <c r="AW10" t="n">
+        <v>36.66666666666666</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>aya:35b</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>200</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7713.26</v>
+      </c>
+      <c r="F11" t="n">
+        <v>231.03</v>
+      </c>
+      <c r="G11" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>logs\aya_35b_llama3_70b_1_200_val_match.txt</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>231.03</v>
+      </c>
+      <c r="J11" t="n">
+        <v>90</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>logs\aya_35b_llama3_70b_1_200_val_correct.txt</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>42</v>
+      </c>
+      <c r="M11" t="n">
+        <v>475.86</v>
+      </c>
+      <c r="N11" t="n">
+        <v>61.25</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>logs\aya_35b_llama3_70b_1_200_test_match.txt</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>475.86</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>85</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>logs\aya_35b_llama3_70b_1_200_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>42.33333333333334</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>561.4299999999999</v>
+      </c>
+      <c r="V11" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>logs\aya_35b_llama3_70b_1_200_val_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="X11" t="n">
+        <v>561.4299999999999</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>logs\aya_35b_llama3_70b_1_200_val_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="AA11" t="n">
+        <v>66.33333333333333</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1114.02</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>68.75</v>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>logs\aya_35b_llama3_70b_1_200_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="AE11" t="n">
+        <v>1114.02</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>logs\aya_35b_llama3_70b_1_200_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="AH11" t="n">
+        <v>67.66666666666667</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>3305.04</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>651.34</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>logs\aya_35b_llama3_70b_1_200_val_bootstrap_match.txt</t>
+        </is>
+      </c>
+      <c r="AM11" t="n">
+        <v>651.34</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>logs\aya_35b_llama3_70b_1_200_val_bootstrap_correct.txt</t>
+        </is>
+      </c>
+      <c r="AP11" t="n">
+        <v>71.66666666666667</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>1374.54</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>logs\aya_35b_llama3_70b_1_200_test_bootstrap_match.txt</t>
+        </is>
+      </c>
+      <c r="AT11" t="n">
+        <v>1374.54</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>logs\aya_35b_llama3_70b_1_200_test_bootstrap_correct.txt</t>
+        </is>
+      </c>
+      <c r="AW11" t="n">
+        <v>71.66666666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logging/datasciencystuff/log_evaluations.xlsx
+++ b/logging/datasciencystuff/log_evaluations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW11"/>
+  <dimension ref="A1:AY12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,6 +679,16 @@
           <t>Test Combined Scores - BootstrapFewShot</t>
         </is>
       </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Max Bootstrapped Demos</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Number of Candidate Programs</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -856,6 +866,8 @@
       <c r="AW2" t="n">
         <v>39</v>
       </c>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1033,6 +1045,8 @@
       <c r="AW3" t="n">
         <v>42.33333333333334</v>
       </c>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1210,6 +1224,8 @@
       <c r="AW4" t="n">
         <v>34.66666666666666</v>
       </c>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1387,6 +1403,8 @@
       <c r="AW5" t="n">
         <v>39</v>
       </c>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1564,6 +1582,8 @@
       <c r="AW6" t="n">
         <v>30</v>
       </c>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1741,6 +1761,8 @@
       <c r="AW7" t="n">
         <v>41.33333333333334</v>
       </c>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1918,6 +1940,8 @@
       <c r="AW8" t="n">
         <v>58.33333333333334</v>
       </c>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2095,6 +2119,8 @@
       <c r="AW9" t="n">
         <v>62</v>
       </c>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2272,6 +2298,8 @@
       <c r="AW10" t="n">
         <v>36.66666666666666</v>
       </c>
+      <c r="AX10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2448,6 +2476,191 @@
       </c>
       <c r="AW11" t="n">
         <v>71.66666666666667</v>
+      </c>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>qwen2:7b-instruct-q5_K_M</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>200</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2138.53</v>
+      </c>
+      <c r="F12" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="G12" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_1_200_val_match.txt</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="J12" t="n">
+        <v>90</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_1_200_val_correct.txt</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>31.33333333333333</v>
+      </c>
+      <c r="M12" t="n">
+        <v>94.84999999999999</v>
+      </c>
+      <c r="N12" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_1_200_test_match.txt</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>94.84999999999999</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_1_200_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>42.33333333333334</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>92.77</v>
+      </c>
+      <c r="V12" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_1_200_val_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="X12" t="n">
+        <v>92.77</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>90</v>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_1_200_val_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="AA12" t="n">
+        <v>40.66666666666666</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>179.56</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_1_200_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="AE12" t="n">
+        <v>179.56</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>88.75</v>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_1_200_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="AH12" t="n">
+        <v>31.33333333333333</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1138.61</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>199.39</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_1_200_val_bootstrap_match.txt</t>
+        </is>
+      </c>
+      <c r="AM12" t="n">
+        <v>199.39</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_1_200_val_bootstrap_correct.txt</t>
+        </is>
+      </c>
+      <c r="AP12" t="n">
+        <v>31.33333333333333</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>382.76</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>46.25</v>
+      </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_1_200_test_bootstrap_match.txt</t>
+        </is>
+      </c>
+      <c r="AT12" t="n">
+        <v>382.76</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>85</v>
+      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_1_200_test_bootstrap_correct.txt</t>
+        </is>
+      </c>
+      <c r="AW12" t="n">
+        <v>31</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/logging/datasciencystuff/log_evaluations.xlsx
+++ b/logging/datasciencystuff/log_evaluations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY12"/>
+  <dimension ref="A1:AY13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2663,6 +2663,97 @@
         <v>2</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>mistral:7b-instruct-v0.3-q5_K_M</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>200</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2774.23</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="n">
+        <v>2167.06</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="n">
+        <v>607.17</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>logs\mistral_7b_instruct_v0.3_q5_K_M_llama3_70b_1_200_test_bootstrap_match_1.txt</t>
+        </is>
+      </c>
+      <c r="AT13" t="n">
+        <v>607.17</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>61.25</v>
+      </c>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>logs\mistral_7b_instruct_v0.3_q5_K_M_llama3_70b_1_200_test_bootstrap_correct_1.txt</t>
+        </is>
+      </c>
+      <c r="AW13" t="n">
+        <v>63</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logging/datasciencystuff/log_evaluations.xlsx
+++ b/logging/datasciencystuff/log_evaluations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY13"/>
+  <dimension ref="A1:AY14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2754,6 +2754,97 @@
         <v>8</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>llama-3-8b-bnb-4bit-synthetic_text_to_sql-lora-3epochs-Q5_K_M:latest</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>200</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2615.66</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="n">
+        <v>2056.28</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="n">
+        <v>559.38</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>logs\llama_3_8b_bnb_4bit_synthetic_text_to_sql_lora_3epochs_Q5_K_M_latest_llama3_70b_1_200_test_bootstrap_match_1.txt</t>
+        </is>
+      </c>
+      <c r="AT14" t="n">
+        <v>559.38</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>logs\llama_3_8b_bnb_4bit_synthetic_text_to_sql_lora_3epochs_Q5_K_M_latest_llama3_70b_1_200_test_bootstrap_correct_1.txt</t>
+        </is>
+      </c>
+      <c r="AW14" t="n">
+        <v>58.33333333333334</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logging/datasciencystuff/log_evaluations.xlsx
+++ b/logging/datasciencystuff/log_evaluations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY14"/>
+  <dimension ref="A1:BB15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -689,6 +689,21 @@
           <t>Number of Candidate Programs</t>
         </is>
       </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Test Executable Time - BootstrapFewShot</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Test Executable Scores - BootstrapFewShot</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Test Executable Results - BootstrapFewShot</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -868,6 +883,9 @@
       </c>
       <c r="AX2" t="inlineStr"/>
       <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1047,6 +1065,9 @@
       </c>
       <c r="AX3" t="inlineStr"/>
       <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1226,6 +1247,9 @@
       </c>
       <c r="AX4" t="inlineStr"/>
       <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1405,6 +1429,9 @@
       </c>
       <c r="AX5" t="inlineStr"/>
       <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1584,6 +1611,9 @@
       </c>
       <c r="AX6" t="inlineStr"/>
       <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1763,6 +1793,9 @@
       </c>
       <c r="AX7" t="inlineStr"/>
       <c r="AY7" t="inlineStr"/>
+      <c r="AZ7" t="inlineStr"/>
+      <c r="BA7" t="inlineStr"/>
+      <c r="BB7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1942,6 +1975,9 @@
       </c>
       <c r="AX8" t="inlineStr"/>
       <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2121,6 +2157,9 @@
       </c>
       <c r="AX9" t="inlineStr"/>
       <c r="AY9" t="inlineStr"/>
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2300,6 +2339,9 @@
       </c>
       <c r="AX10" t="inlineStr"/>
       <c r="AY10" t="inlineStr"/>
+      <c r="AZ10" t="inlineStr"/>
+      <c r="BA10" t="inlineStr"/>
+      <c r="BB10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2479,6 +2521,9 @@
       </c>
       <c r="AX11" t="inlineStr"/>
       <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2662,6 +2707,9 @@
       <c r="AY12" t="n">
         <v>2</v>
       </c>
+      <c r="AZ12" t="inlineStr"/>
+      <c r="BA12" t="inlineStr"/>
+      <c r="BB12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2753,6 +2801,9 @@
       <c r="AY13" t="n">
         <v>8</v>
       </c>
+      <c r="AZ13" t="inlineStr"/>
+      <c r="BA13" t="inlineStr"/>
+      <c r="BB13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2844,6 +2895,111 @@
       <c r="AY14" t="n">
         <v>8</v>
       </c>
+      <c r="AZ14" t="inlineStr"/>
+      <c r="BA14" t="inlineStr"/>
+      <c r="BB14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>mistral:7b-instruct-v0.3-q5_K_M</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>200</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1776.53</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="n">
+        <v>1011.14</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="n">
+        <v>765.39</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>71.25</v>
+      </c>
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>logs\mistral_7b_instruct_v0.3_q5_K_M_llama3_70b_1_200_test_bootstrap_match_2.txt</t>
+        </is>
+      </c>
+      <c r="AT15" t="n">
+        <v>765.39</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="AV15" t="inlineStr">
+        <is>
+          <t>logs\mistral_7b_instruct_v0.3_q5_K_M_llama3_70b_1_200_test_bootstrap_correct_2.txt</t>
+        </is>
+      </c>
+      <c r="AW15" t="n">
+        <v>54.57142857142857</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>765.39</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>98.75</v>
+      </c>
+      <c r="BB15" t="inlineStr">
+        <is>
+          <t>logs\mistral_7b_instruct_v0.3_q5_K_M_llama3_70b_1_200_test_bootstrap_executable.txt</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/logging/datasciencystuff/log_evaluations.xlsx
+++ b/logging/datasciencystuff/log_evaluations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM13"/>
+  <dimension ref="A1:AM16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2322,6 +2322,429 @@
         <v>2</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>qwen2:7b-instruct-q5_K_M</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>200</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1557.94</v>
+      </c>
+      <c r="F14" t="n">
+        <v>182.52</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_1_200_test_match_1.txt</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>182.52</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_1_200_test_correct_1.txt</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>182.52</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.7625</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_1_200_test_executable.txt</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>157.76</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.3375</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_1_200_test_fewshot_match_1.txt</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>157.76</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.8875</v>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_1_200_test_fewshot_correct_1.txt</t>
+        </is>
+      </c>
+      <c r="W14" t="n">
+        <v>157.76</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_1_200_test_fewshot_executable.txt</t>
+        </is>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>974.08</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>243.57</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.2375</v>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_1_200_test_bootstrap_match_1.txt</t>
+        </is>
+      </c>
+      <c r="AE14" t="n">
+        <v>243.57</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_1_200_test_bootstrap_correct_1.txt</t>
+        </is>
+      </c>
+      <c r="AH14" t="n">
+        <v>243.57</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_1_200_test_bootstrap_executable.txt</t>
+        </is>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>llama3:8b-instruct-fp16</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>200</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3324.28</v>
+      </c>
+      <c r="F15" t="n">
+        <v>466.06</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.3875</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_fp16_llama3_70b_1_200_test_match.txt</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>466.06</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_fp16_llama3_70b_1_200_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>466.06</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_fp16_llama3_70b_1_200_test_executable.txt</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>380.05</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_fp16_llama3_70b_1_200_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>380.05</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.1375</v>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_fp16_llama3_70b_1_200_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="W15" t="n">
+        <v>380.05</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.7125</v>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_fp16_llama3_70b_1_200_test_fewshot_executable.txt</t>
+        </is>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1872.54</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>605.62</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_fp16_llama3_70b_1_200_test_bootstrap_match.txt</t>
+        </is>
+      </c>
+      <c r="AE15" t="n">
+        <v>605.62</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_fp16_llama3_70b_1_200_test_bootstrap_correct.txt</t>
+        </is>
+      </c>
+      <c r="AH15" t="n">
+        <v>605.62</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.5875</v>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_fp16_llama3_70b_1_200_test_bootstrap_executable.txt</t>
+        </is>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>codegemma:7b-code-fp16</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>200</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3353.78</v>
+      </c>
+      <c r="F16" t="n">
+        <v>559.02</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>logs\codegemma_7b_code_fp16_llama3_70b_1_200_test_match.txt</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>559.02</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>logs\codegemma_7b_code_fp16_llama3_70b_1_200_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>559.02</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>logs\codegemma_7b_code_fp16_llama3_70b_1_200_test_executable.txt</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>601.88</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>logs\codegemma_7b_code_fp16_llama3_70b_1_200_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>601.88</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>logs\codegemma_7b_code_fp16_llama3_70b_1_200_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="W16" t="n">
+        <v>601.88</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>logs\codegemma_7b_code_fp16_llama3_70b_1_200_test_fewshot_executable.txt</t>
+        </is>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1683.36</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>509.51</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>logs\codegemma_7b_code_fp16_llama3_70b_1_200_test_bootstrap_match.txt</t>
+        </is>
+      </c>
+      <c r="AE16" t="n">
+        <v>509.51</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>logs\codegemma_7b_code_fp16_llama3_70b_1_200_test_bootstrap_correct.txt</t>
+        </is>
+      </c>
+      <c r="AH16" t="n">
+        <v>509.51</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>logs\codegemma_7b_code_fp16_llama3_70b_1_200_test_bootstrap_executable.txt</t>
+        </is>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logging/datasciencystuff/log_evaluations.xlsx
+++ b/logging/datasciencystuff/log_evaluations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM16"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2745,6 +2745,1275 @@
         <v>2</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>mistral:7b-instruct-v0.3-q5_K_M</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>200</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3586</v>
+      </c>
+      <c r="F17" t="n">
+        <v>391.73</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>logs\mistral_7b_instruct_v0.3_q5_K_M_llama3_70b_5_200_test_match.txt</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>391.73</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.8375</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>logs\mistral_7b_instruct_v0.3_q5_K_M_llama3_70b_5_200_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>391.73</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>logs\mistral_7b_instruct_v0.3_q5_K_M_llama3_70b_5_200_test_executable.txt</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>700.3099999999999</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>logs\mistral_7b_instruct_v0.3_q5_K_M_llama3_70b_5_200_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>700.3099999999999</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.2375</v>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>logs\mistral_7b_instruct_v0.3_q5_K_M_llama3_70b_5_200_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="W17" t="n">
+        <v>700.3099999999999</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>logs\mistral_7b_instruct_v0.3_q5_K_M_llama3_70b_5_200_test_fewshot_executable.txt</t>
+        </is>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1711.22</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>782.73</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.5875</v>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>logs\mistral_7b_instruct_v0.3_q5_K_M_llama3_70b_5_200_test_bootstrap_match.txt</t>
+        </is>
+      </c>
+      <c r="AE17" t="n">
+        <v>782.73</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>logs\mistral_7b_instruct_v0.3_q5_K_M_llama3_70b_5_200_test_bootstrap_correct.txt</t>
+        </is>
+      </c>
+      <c r="AH17" t="n">
+        <v>782.73</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>logs\mistral_7b_instruct_v0.3_q5_K_M_llama3_70b_5_200_test_bootstrap_executable.txt</t>
+        </is>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>llama-3-8b-bnb-4bit-synthetic_text_to_sql-lora-3epochs-Q5_K_M:latest</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>200</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3151.07</v>
+      </c>
+      <c r="F18" t="n">
+        <v>539.15</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>logs\llama_3_8b_bnb_4bit_synthetic_text_to_sql_lora_3epochs_Q5_K_M_latest_llama3_70b_5_200_test_match.txt</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>539.15</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.7125</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>logs\llama_3_8b_bnb_4bit_synthetic_text_to_sql_lora_3epochs_Q5_K_M_latest_llama3_70b_5_200_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>539.15</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>logs\llama_3_8b_bnb_4bit_synthetic_text_to_sql_lora_3epochs_Q5_K_M_latest_llama3_70b_5_200_test_executable.txt</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>532.1900000000001</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.3625</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>logs\llama_3_8b_bnb_4bit_synthetic_text_to_sql_lora_3epochs_Q5_K_M_latest_llama3_70b_5_200_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>532.1900000000001</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>logs\llama_3_8b_bnb_4bit_synthetic_text_to_sql_lora_3epochs_Q5_K_M_latest_llama3_70b_5_200_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="W18" t="n">
+        <v>532.1900000000001</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.6375</v>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>logs\llama_3_8b_bnb_4bit_synthetic_text_to_sql_lora_3epochs_Q5_K_M_latest_llama3_70b_5_200_test_fewshot_executable.txt</t>
+        </is>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1599.47</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>480.26</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.3625</v>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>logs\llama_3_8b_bnb_4bit_synthetic_text_to_sql_lora_3epochs_Q5_K_M_latest_llama3_70b_5_200_test_bootstrap_match.txt</t>
+        </is>
+      </c>
+      <c r="AE18" t="n">
+        <v>480.26</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>logs\llama_3_8b_bnb_4bit_synthetic_text_to_sql_lora_3epochs_Q5_K_M_latest_llama3_70b_5_200_test_bootstrap_correct.txt</t>
+        </is>
+      </c>
+      <c r="AH18" t="n">
+        <v>480.26</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>logs\llama_3_8b_bnb_4bit_synthetic_text_to_sql_lora_3epochs_Q5_K_M_latest_llama3_70b_5_200_test_bootstrap_executable.txt</t>
+        </is>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>llama-3-8b-Instruct-bnb-4bit-synthetic_text_to_sql-lora-3epochs-Q5_K_M:latest</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>200</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2258.68</v>
+      </c>
+      <c r="F19" t="n">
+        <v>345.94</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>logs\llama_3_8b_Instruct_bnb_4bit_synthetic_text_to_sql_lora_3epochs_Q5_K_M_latest_llama3_70b_5_200_test_match.txt</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>345.94</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.8875</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>logs\llama_3_8b_Instruct_bnb_4bit_synthetic_text_to_sql_lora_3epochs_Q5_K_M_latest_llama3_70b_5_200_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>345.94</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7625</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>logs\llama_3_8b_Instruct_bnb_4bit_synthetic_text_to_sql_lora_3epochs_Q5_K_M_latest_llama3_70b_5_200_test_executable.txt</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>405.88</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>logs\llama_3_8b_Instruct_bnb_4bit_synthetic_text_to_sql_lora_3epochs_Q5_K_M_latest_llama3_70b_5_200_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>405.88</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.6625</v>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>logs\llama_3_8b_Instruct_bnb_4bit_synthetic_text_to_sql_lora_3epochs_Q5_K_M_latest_llama3_70b_5_200_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="W19" t="n">
+        <v>405.88</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.7625</v>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>logs\llama_3_8b_Instruct_bnb_4bit_synthetic_text_to_sql_lora_3epochs_Q5_K_M_latest_llama3_70b_5_200_test_fewshot_executable.txt</t>
+        </is>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1131.44</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>375.42</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>logs\llama_3_8b_Instruct_bnb_4bit_synthetic_text_to_sql_lora_3epochs_Q5_K_M_latest_llama3_70b_5_200_test_bootstrap_match.txt</t>
+        </is>
+      </c>
+      <c r="AE19" t="n">
+        <v>375.42</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.7875</v>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>logs\llama_3_8b_Instruct_bnb_4bit_synthetic_text_to_sql_lora_3epochs_Q5_K_M_latest_llama3_70b_5_200_test_bootstrap_correct.txt</t>
+        </is>
+      </c>
+      <c r="AH19" t="n">
+        <v>375.42</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>logs\llama_3_8b_Instruct_bnb_4bit_synthetic_text_to_sql_lora_3epochs_Q5_K_M_latest_llama3_70b_5_200_test_bootstrap_executable.txt</t>
+        </is>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Phi-3-medium-4k-instruct-synthetic_text_to_sql-lora-3epochs-q5_k_m:latest</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>200</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2378.89</v>
+      </c>
+      <c r="F20" t="n">
+        <v>354.42</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>logs\Phi_3_medium_4k_instruct_synthetic_text_to_sql_lora_3epochs_q5_k_m_latest_llama3_70b_5_200_test_match.txt</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>354.42</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.8875</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>logs\Phi_3_medium_4k_instruct_synthetic_text_to_sql_lora_3epochs_q5_k_m_latest_llama3_70b_5_200_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>354.42</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.7375</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>logs\Phi_3_medium_4k_instruct_synthetic_text_to_sql_lora_3epochs_q5_k_m_latest_llama3_70b_5_200_test_executable.txt</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>380.45</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>logs\Phi_3_medium_4k_instruct_synthetic_text_to_sql_lora_3epochs_q5_k_m_latest_llama3_70b_5_200_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>380.45</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.7625</v>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>logs\Phi_3_medium_4k_instruct_synthetic_text_to_sql_lora_3epochs_q5_k_m_latest_llama3_70b_5_200_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="W20" t="n">
+        <v>380.45</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>logs\Phi_3_medium_4k_instruct_synthetic_text_to_sql_lora_3epochs_q5_k_m_latest_llama3_70b_5_200_test_fewshot_executable.txt</t>
+        </is>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1213.14</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>430.87</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.3375</v>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>logs\Phi_3_medium_4k_instruct_synthetic_text_to_sql_lora_3epochs_q5_k_m_latest_llama3_70b_5_200_test_bootstrap_match.txt</t>
+        </is>
+      </c>
+      <c r="AE20" t="n">
+        <v>430.87</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>logs\Phi_3_medium_4k_instruct_synthetic_text_to_sql_lora_3epochs_q5_k_m_latest_llama3_70b_5_200_test_bootstrap_correct.txt</t>
+        </is>
+      </c>
+      <c r="AH20" t="n">
+        <v>430.87</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>logs\Phi_3_medium_4k_instruct_synthetic_text_to_sql_lora_3epochs_q5_k_m_latest_llama3_70b_5_200_test_bootstrap_executable.txt</t>
+        </is>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>phi3:14b-medium-4k-instruct-q5_K_M</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>200</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3249.85</v>
+      </c>
+      <c r="F21" t="n">
+        <v>482.12</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>logs\phi3_14b_medium_4k_instruct_q5_K_M_llama3_70b_5_200_test_match.txt</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>482.12</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>logs\phi3_14b_medium_4k_instruct_q5_K_M_llama3_70b_5_200_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>482.12</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.5375</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>logs\phi3_14b_medium_4k_instruct_q5_K_M_llama3_70b_5_200_test_executable.txt</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>492.93</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>logs\phi3_14b_medium_4k_instruct_q5_K_M_llama3_70b_5_200_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>492.93</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.7875</v>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>logs\phi3_14b_medium_4k_instruct_q5_K_M_llama3_70b_5_200_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="W21" t="n">
+        <v>492.93</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>logs\phi3_14b_medium_4k_instruct_q5_K_M_llama3_70b_5_200_test_fewshot_executable.txt</t>
+        </is>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1539.1</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>735.7</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>logs\phi3_14b_medium_4k_instruct_q5_K_M_llama3_70b_5_200_test_bootstrap_match.txt</t>
+        </is>
+      </c>
+      <c r="AE21" t="n">
+        <v>735.7</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.7125</v>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>logs\phi3_14b_medium_4k_instruct_q5_K_M_llama3_70b_5_200_test_bootstrap_correct.txt</t>
+        </is>
+      </c>
+      <c r="AH21" t="n">
+        <v>735.7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.7125</v>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>logs\phi3_14b_medium_4k_instruct_q5_K_M_llama3_70b_5_200_test_bootstrap_executable.txt</t>
+        </is>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>llama3:8b-text-q5_K_M</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>200</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3795.79</v>
+      </c>
+      <c r="F22" t="n">
+        <v>665.61</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_text_q5_K_M_llama3_70b_5_200_test_match.txt</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>665.61</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_text_q5_K_M_llama3_70b_5_200_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>665.61</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_text_q5_K_M_llama3_70b_5_200_test_executable.txt</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>661.62</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.2375</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_text_q5_K_M_llama3_70b_5_200_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>661.62</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_text_q5_K_M_llama3_70b_5_200_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="W22" t="n">
+        <v>661.62</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_text_q5_K_M_llama3_70b_5_200_test_fewshot_executable.txt</t>
+        </is>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1769.63</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>698.92</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_text_q5_K_M_llama3_70b_5_200_test_bootstrap_match.txt</t>
+        </is>
+      </c>
+      <c r="AE22" t="n">
+        <v>698.92</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_text_q5_K_M_llama3_70b_5_200_test_bootstrap_correct.txt</t>
+        </is>
+      </c>
+      <c r="AH22" t="n">
+        <v>698.92</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_text_q5_K_M_llama3_70b_5_200_test_bootstrap_executable.txt</t>
+        </is>
+      </c>
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>llama3:8b-instruct-q5_K_M</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>200</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4149.23</v>
+      </c>
+      <c r="F23" t="n">
+        <v>573.14</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_q5_K_M_llama3_70b_5_200_test_match.txt</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>573.14</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_q5_K_M_llama3_70b_5_200_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>573.14</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.5875</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_q5_K_M_llama3_70b_5_200_test_executable.txt</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>864.3099999999999</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_q5_K_M_llama3_70b_5_200_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>864.3099999999999</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_q5_K_M_llama3_70b_5_200_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="W23" t="n">
+        <v>864.3099999999999</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_q5_K_M_llama3_70b_5_200_test_fewshot_executable.txt</t>
+        </is>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2124.73</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>587.05</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.4875</v>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_q5_K_M_llama3_70b_5_200_test_bootstrap_match.txt</t>
+        </is>
+      </c>
+      <c r="AE23" t="n">
+        <v>587.05</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.5875</v>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_q5_K_M_llama3_70b_5_200_test_bootstrap_correct.txt</t>
+        </is>
+      </c>
+      <c r="AH23" t="n">
+        <v>587.05</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_q5_K_M_llama3_70b_5_200_test_bootstrap_executable.txt</t>
+        </is>
+      </c>
+      <c r="AK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>command-r</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>200</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3450.97</v>
+      </c>
+      <c r="F24" t="n">
+        <v>363.52</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.2875</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>logs\command_r_llama3_70b_5_200_test_match.txt</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>363.52</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.8375</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>logs\command_r_llama3_70b_5_200_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>363.52</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>logs\command_r_llama3_70b_5_200_test_executable.txt</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>652.86</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>logs\command_r_llama3_70b_5_200_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>652.86</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>logs\command_r_llama3_70b_5_200_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="W24" t="n">
+        <v>652.86</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.4875</v>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>logs\command_r_llama3_70b_5_200_test_fewshot_executable.txt</t>
+        </is>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2030.48</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>404.1</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>logs\command_r_llama3_70b_5_200_test_bootstrap_match.txt</t>
+        </is>
+      </c>
+      <c r="AE24" t="n">
+        <v>404.1</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>logs\command_r_llama3_70b_5_200_test_bootstrap_correct.txt</t>
+        </is>
+      </c>
+      <c r="AH24" t="n">
+        <v>404.1</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>logs\command_r_llama3_70b_5_200_test_bootstrap_executable.txt</t>
+        </is>
+      </c>
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>aya:35b</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>5</v>
+      </c>
+      <c r="D25" t="n">
+        <v>200</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4003.21</v>
+      </c>
+      <c r="F25" t="n">
+        <v>543.85</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>logs\aya_35b_llama3_70b_5_200_test_match.txt</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>543.85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.7625</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>logs\aya_35b_llama3_70b_5_200_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>543.85</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>logs\aya_35b_llama3_70b_5_200_test_executable.txt</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>714.12</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>logs\aya_35b_llama3_70b_5_200_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>714.12</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.7875</v>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>logs\aya_35b_llama3_70b_5_200_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="W25" t="n">
+        <v>714.12</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.3875</v>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>logs\aya_35b_llama3_70b_5_200_test_fewshot_executable.txt</t>
+        </is>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2080.9</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>664.34</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.2375</v>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>logs\aya_35b_llama3_70b_5_200_test_bootstrap_match.txt</t>
+        </is>
+      </c>
+      <c r="AE25" t="n">
+        <v>664.34</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.8375</v>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>logs\aya_35b_llama3_70b_5_200_test_bootstrap_correct.txt</t>
+        </is>
+      </c>
+      <c r="AH25" t="n">
+        <v>664.34</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>logs\aya_35b_llama3_70b_5_200_test_bootstrap_executable.txt</t>
+        </is>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logging/datasciencystuff/log_evaluations.xlsx
+++ b/logging/datasciencystuff/log_evaluations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4014,6 +4014,147 @@
         <v>2</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>qwen2:7b-instruct-q5_K_M</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>5</v>
+      </c>
+      <c r="D26" t="n">
+        <v>200</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2531.55</v>
+      </c>
+      <c r="F26" t="n">
+        <v>361.15</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.3375</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_5_200_test_match.txt</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>361.15</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_5_200_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>361.15</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.7375</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_5_200_test_executable.txt</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>362.48</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.3625</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_5_200_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
+        <v>362.48</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_5_200_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="W26" t="n">
+        <v>362.48</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_5_200_test_fewshot_executable.txt</t>
+        </is>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1370.61</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>437.32</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.1125</v>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_5_200_test_bootstrap_match.txt</t>
+        </is>
+      </c>
+      <c r="AE26" t="n">
+        <v>437.32</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.7125</v>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_5_200_test_bootstrap_correct.txt</t>
+        </is>
+      </c>
+      <c r="AH26" t="n">
+        <v>437.32</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.6375</v>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_5_200_test_bootstrap_executable.txt</t>
+        </is>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logging/datasciencystuff/log_evaluations.xlsx
+++ b/logging/datasciencystuff/log_evaluations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW8"/>
+  <dimension ref="A1:AW14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1671,6 +1671,852 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>llama3:8b-instruct-q5_K_M</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" t="n">
+        <v>400</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2612.39</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1290.58</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.2875</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_q5_K_M_llama3_70b_100_400_test_match.txt</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1290.58</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.94375</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_q5_K_M_llama3_70b_100_400_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1290.58</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.95625</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_q5_K_M_llama3_70b_100_400_test_executable.txt</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="AD9" t="n">
+        <v>140</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1024</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>1321.81</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.26875</v>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_q5_K_M_llama3_70b_100_400_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="AQ9" t="n">
+        <v>1321.81</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.86875</v>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_q5_K_M_llama3_70b_100_400_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="AT9" t="n">
+        <v>1321.81</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.89375</v>
+      </c>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_q5_K_M_llama3_70b_100_400_test_fewshot_executable.txt</t>
+        </is>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>command-r</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>100</v>
+      </c>
+      <c r="D10" t="n">
+        <v>400</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2709.84</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1335.52</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>logs\command_r_llama3_70b_100_400_test_match.txt</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1335.52</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>logs\command_r_llama3_70b_100_400_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1335.52</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.94375</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>logs\command_r_llama3_70b_100_400_test_executable.txt</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="AD10" t="n">
+        <v>140</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1024</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1374.32</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>logs\command_r_llama3_70b_100_400_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="AQ10" t="n">
+        <v>1374.32</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.8875</v>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>logs\command_r_llama3_70b_100_400_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="AT10" t="n">
+        <v>1374.32</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>logs\command_r_llama3_70b_100_400_test_fewshot_executable.txt</t>
+        </is>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>aya:35b</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>100</v>
+      </c>
+      <c r="D11" t="n">
+        <v>400</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2695.8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1345.42</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>logs\aya_35b_llama3_70b_100_400_test_match.txt</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>1345.42</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>logs\aya_35b_llama3_70b_100_400_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1345.42</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.93125</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>logs\aya_35b_llama3_70b_100_400_test_executable.txt</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="AD11" t="n">
+        <v>140</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1024</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1350.38</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.2875</v>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>logs\aya_35b_llama3_70b_100_400_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="AQ11" t="n">
+        <v>1350.38</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>logs\aya_35b_llama3_70b_100_400_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="AT11" t="n">
+        <v>1350.38</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>logs\aya_35b_llama3_70b_100_400_test_fewshot_executable.txt</t>
+        </is>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>qwen2:7b-instruct-q5_K_M</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>100</v>
+      </c>
+      <c r="D12" t="n">
+        <v>400</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2632.75</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1309.74</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_100_400_test_match.txt</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>1309.74</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_100_400_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1309.74</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.93125</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_100_400_test_executable.txt</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="AD12" t="n">
+        <v>140</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1024</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1323.01</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_100_400_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="AQ12" t="n">
+        <v>1323.01</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.86875</v>
+      </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_100_400_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="AT12" t="n">
+        <v>1323.01</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0.94375</v>
+      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_100_400_test_fewshot_executable.txt</t>
+        </is>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>llama3:8b-instruct-fp16</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>100</v>
+      </c>
+      <c r="D13" t="n">
+        <v>400</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2657.96</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1317.85</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_fp16_llama3_70b_100_400_test_match.txt</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>1317.85</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_fp16_llama3_70b_100_400_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1317.85</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_fp16_llama3_70b_100_400_test_executable.txt</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="AD13" t="n">
+        <v>140</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1024</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1340.11</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.2625</v>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_fp16_llama3_70b_100_400_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="AQ13" t="n">
+        <v>1340.11</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_fp16_llama3_70b_100_400_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="AT13" t="n">
+        <v>1340.11</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0.93125</v>
+      </c>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_fp16_llama3_70b_100_400_test_fewshot_executable.txt</t>
+        </is>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>codegemma:7b-code-fp16</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>100</v>
+      </c>
+      <c r="D14" t="n">
+        <v>400</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3991.24</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1958.43</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.23125</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>logs\codegemma_7b_code_fp16_llama3_70b_100_400_test_match.txt</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1958.43</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.68125</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>logs\codegemma_7b_code_fp16_llama3_70b_100_400_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1958.43</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>logs\codegemma_7b_code_fp16_llama3_70b_100_400_test_executable.txt</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="AD14" t="n">
+        <v>140</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1024</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>2032.81</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.33125</v>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>logs\codegemma_7b_code_fp16_llama3_70b_100_400_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="AQ14" t="n">
+        <v>2032.81</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.88125</v>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>logs\codegemma_7b_code_fp16_llama3_70b_100_400_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="AT14" t="n">
+        <v>2032.81</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>logs\codegemma_7b_code_fp16_llama3_70b_100_400_test_fewshot_executable.txt</t>
+        </is>
+      </c>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logging/datasciencystuff/log_evaluations.xlsx
+++ b/logging/datasciencystuff/log_evaluations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW14"/>
+  <dimension ref="A1:AW23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2517,6 +2517,1269 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>100</v>
+      </c>
+      <c r="D15" t="n">
+        <v>400</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2519.14</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1264.27</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.3625</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>logs\gpt_3.5_turbo_llama3_70b_100_400_test_match.txt</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>1264.27</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.9625</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>logs\gpt_3.5_turbo_llama3_70b_100_400_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1264.27</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.99375</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>logs\gpt_3.5_turbo_llama3_70b_100_400_test_executable.txt</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1024</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1254.87</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>logs\gpt_3.5_turbo_llama3_70b_100_400_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="AQ15" t="n">
+        <v>1254.87</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0.94375</v>
+      </c>
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>logs\gpt_3.5_turbo_llama3_70b_100_400_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="AT15" t="n">
+        <v>1254.87</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0.98125</v>
+      </c>
+      <c r="AV15" t="inlineStr">
+        <is>
+          <t>logs\gpt_3.5_turbo_llama3_70b_100_400_test_fewshot_executable.txt</t>
+        </is>
+      </c>
+      <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>mistral:7b-instruct-v0.3-q5_K_M</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>50</v>
+      </c>
+      <c r="D16" t="n">
+        <v>400</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2614.86</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1306.12</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>logs\mistral_7b_instruct_v0.3_q5_K_M_llama3_70b_50_400_test_match.txt</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1306.12</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.91875</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>logs\mistral_7b_instruct_v0.3_q5_K_M_llama3_70b_50_400_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1306.12</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>logs\mistral_7b_instruct_v0.3_q5_K_M_llama3_70b_50_400_test_executable.txt</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="AD16" t="n">
+        <v>140</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1024</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1308.74</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.38125</v>
+      </c>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>logs\mistral_7b_instruct_v0.3_q5_K_M_llama3_70b_50_400_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="AQ16" t="n">
+        <v>1308.74</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.88125</v>
+      </c>
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>logs\mistral_7b_instruct_v0.3_q5_K_M_llama3_70b_50_400_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="AT16" t="n">
+        <v>1308.74</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AV16" t="inlineStr">
+        <is>
+          <t>logs\mistral_7b_instruct_v0.3_q5_K_M_llama3_70b_50_400_test_fewshot_executable.txt</t>
+        </is>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>llama-3-8b-bnb-4bit-synthetic_text_to_sql-lora-3epochs-Q5_K_M:latest</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>50</v>
+      </c>
+      <c r="D17" t="n">
+        <v>400</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2827.33</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1505.49</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>logs\llama_3_8b_bnb_4bit_synthetic_text_to_sql_lora_3epochs_Q5_K_M_latest_llama3_70b_50_400_test_match.txt</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>1505.49</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.61875</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>logs\llama_3_8b_bnb_4bit_synthetic_text_to_sql_lora_3epochs_Q5_K_M_latest_llama3_70b_50_400_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1505.49</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>logs\llama_3_8b_bnb_4bit_synthetic_text_to_sql_lora_3epochs_Q5_K_M_latest_llama3_70b_50_400_test_executable.txt</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="AD17" t="n">
+        <v>140</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1024</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1321.83</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>logs\llama_3_8b_bnb_4bit_synthetic_text_to_sql_lora_3epochs_Q5_K_M_latest_llama3_70b_50_400_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="AQ17" t="n">
+        <v>1321.83</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.7875</v>
+      </c>
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>logs\llama_3_8b_bnb_4bit_synthetic_text_to_sql_lora_3epochs_Q5_K_M_latest_llama3_70b_50_400_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="AT17" t="n">
+        <v>1321.83</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="AV17" t="inlineStr">
+        <is>
+          <t>logs\llama_3_8b_bnb_4bit_synthetic_text_to_sql_lora_3epochs_Q5_K_M_latest_llama3_70b_50_400_test_fewshot_executable.txt</t>
+        </is>
+      </c>
+      <c r="AW17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>llama-3-8b-Instruct-bnb-4bit-synthetic_text_to_sql-lora-3epochs-Q5_K_M:latest</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>50</v>
+      </c>
+      <c r="D18" t="n">
+        <v>400</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2603.85</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1305.02</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.31875</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>logs\llama_3_8b_Instruct_bnb_4bit_synthetic_text_to_sql_lora_3epochs_Q5_K_M_latest_llama3_70b_50_400_test_match.txt</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1305.02</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>logs\llama_3_8b_Instruct_bnb_4bit_synthetic_text_to_sql_lora_3epochs_Q5_K_M_latest_llama3_70b_50_400_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1305.02</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.9125</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>logs\llama_3_8b_Instruct_bnb_4bit_synthetic_text_to_sql_lora_3epochs_Q5_K_M_latest_llama3_70b_50_400_test_executable.txt</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="AD18" t="n">
+        <v>140</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1024</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1298.83</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.31875</v>
+      </c>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>logs\llama_3_8b_Instruct_bnb_4bit_synthetic_text_to_sql_lora_3epochs_Q5_K_M_latest_llama3_70b_50_400_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="AQ18" t="n">
+        <v>1298.83</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0.8375</v>
+      </c>
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>logs\llama_3_8b_Instruct_bnb_4bit_synthetic_text_to_sql_lora_3epochs_Q5_K_M_latest_llama3_70b_50_400_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="AT18" t="n">
+        <v>1298.83</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t>logs\llama_3_8b_Instruct_bnb_4bit_synthetic_text_to_sql_lora_3epochs_Q5_K_M_latest_llama3_70b_50_400_test_fewshot_executable.txt</t>
+        </is>
+      </c>
+      <c r="AW18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Phi-3-medium-4k-instruct-synthetic_text_to_sql-lora-3epochs-q5_k_m:latest</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>50</v>
+      </c>
+      <c r="D19" t="n">
+        <v>400</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2702.18</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1355.13</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>logs\Phi_3_medium_4k_instruct_synthetic_text_to_sql_lora_3epochs_q5_k_m_latest_llama3_70b_50_400_test_match.txt</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1355.13</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.83125</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>logs\Phi_3_medium_4k_instruct_synthetic_text_to_sql_lora_3epochs_q5_k_m_latest_llama3_70b_50_400_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1355.13</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>logs\Phi_3_medium_4k_instruct_synthetic_text_to_sql_lora_3epochs_q5_k_m_latest_llama3_70b_50_400_test_executable.txt</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="AD19" t="n">
+        <v>140</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1024</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1347.04</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.3375</v>
+      </c>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>logs\Phi_3_medium_4k_instruct_synthetic_text_to_sql_lora_3epochs_q5_k_m_latest_llama3_70b_50_400_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="AQ19" t="n">
+        <v>1347.04</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.85625</v>
+      </c>
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>logs\Phi_3_medium_4k_instruct_synthetic_text_to_sql_lora_3epochs_q5_k_m_latest_llama3_70b_50_400_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="AT19" t="n">
+        <v>1347.04</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t>logs\Phi_3_medium_4k_instruct_synthetic_text_to_sql_lora_3epochs_q5_k_m_latest_llama3_70b_50_400_test_fewshot_executable.txt</t>
+        </is>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>phi3:14b-medium-4k-instruct-q5_K_M</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>50</v>
+      </c>
+      <c r="D20" t="n">
+        <v>400</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2660.6</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1323.39</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.36875</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>logs\phi3_14b_medium_4k_instruct_q5_K_M_llama3_70b_50_400_test_match.txt</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>1323.39</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>logs\phi3_14b_medium_4k_instruct_q5_K_M_llama3_70b_50_400_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1323.39</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.95625</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>logs\phi3_14b_medium_4k_instruct_q5_K_M_llama3_70b_50_400_test_executable.txt</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="AD20" t="n">
+        <v>140</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1024</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1337.2</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>logs\phi3_14b_medium_4k_instruct_q5_K_M_llama3_70b_50_400_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="AQ20" t="n">
+        <v>1337.2</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>logs\phi3_14b_medium_4k_instruct_q5_K_M_llama3_70b_50_400_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="AT20" t="n">
+        <v>1337.2</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0.8625</v>
+      </c>
+      <c r="AV20" t="inlineStr">
+        <is>
+          <t>logs\phi3_14b_medium_4k_instruct_q5_K_M_llama3_70b_50_400_test_fewshot_executable.txt</t>
+        </is>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>llama3:8b-text-q5_K_M</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>50</v>
+      </c>
+      <c r="D21" t="n">
+        <v>400</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3084.35</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1536.48</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.11875</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_text_q5_K_M_llama3_70b_50_400_test_match.txt</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>1536.48</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_text_q5_K_M_llama3_70b_50_400_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1536.48</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_text_q5_K_M_llama3_70b_50_400_test_executable.txt</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="AD21" t="n">
+        <v>140</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1024</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1547.87</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.13125</v>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_text_q5_K_M_llama3_70b_50_400_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="AQ21" t="n">
+        <v>1547.87</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_text_q5_K_M_llama3_70b_50_400_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="AT21" t="n">
+        <v>1547.87</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0.10625</v>
+      </c>
+      <c r="AV21" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_text_q5_K_M_llama3_70b_50_400_test_fewshot_executable.txt</t>
+        </is>
+      </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>llama3:8b-instruct-q5_K_M</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>50</v>
+      </c>
+      <c r="D22" t="n">
+        <v>400</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2603.11</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1301.86</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3375</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_q5_K_M_llama3_70b_50_400_test_match.txt</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>1301.86</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.89375</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_q5_K_M_llama3_70b_50_400_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1301.86</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.93125</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_q5_K_M_llama3_70b_50_400_test_executable.txt</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="AD22" t="n">
+        <v>140</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1024</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1301.23</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.31875</v>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_q5_K_M_llama3_70b_50_400_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="AQ22" t="n">
+        <v>1301.23</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.88125</v>
+      </c>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_q5_K_M_llama3_70b_50_400_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="AT22" t="n">
+        <v>1301.23</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0.88125</v>
+      </c>
+      <c r="AV22" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_q5_K_M_llama3_70b_50_400_test_fewshot_executable.txt</t>
+        </is>
+      </c>
+      <c r="AW22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>command-r</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>50</v>
+      </c>
+      <c r="D23" t="n">
+        <v>400</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2723.49</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1364.01</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.33125</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>logs\command_r_llama3_70b_50_400_test_match.txt</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>1364.01</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.93125</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>logs\command_r_llama3_70b_50_400_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1364.01</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.95625</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>logs\command_r_llama3_70b_50_400_test_executable.txt</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="AD23" t="n">
+        <v>140</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1024</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1359.48</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0.30625</v>
+      </c>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t>logs\command_r_llama3_70b_50_400_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="AQ23" t="n">
+        <v>1359.48</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0.9125</v>
+      </c>
+      <c r="AS23" t="inlineStr">
+        <is>
+          <t>logs\command_r_llama3_70b_50_400_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="AT23" t="n">
+        <v>1359.48</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0.95625</v>
+      </c>
+      <c r="AV23" t="inlineStr">
+        <is>
+          <t>logs\command_r_llama3_70b_50_400_test_fewshot_executable.txt</t>
+        </is>
+      </c>
+      <c r="AW23" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logging/datasciencystuff/log_evaluations.xlsx
+++ b/logging/datasciencystuff/log_evaluations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW23"/>
+  <dimension ref="A1:AW28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3780,6 +3780,711 @@
         <v>0</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>aya:35b</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>50</v>
+      </c>
+      <c r="D24" t="n">
+        <v>400</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2688.35</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1310.83</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.29375</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>logs\aya_35b_llama3_70b_50_400_test_match.txt</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>1310.83</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.85625</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>logs\aya_35b_llama3_70b_50_400_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1310.83</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.94375</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>logs\aya_35b_llama3_70b_50_400_test_executable.txt</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="AD24" t="n">
+        <v>140</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1024</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1377.52</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0.25625</v>
+      </c>
+      <c r="AP24" t="inlineStr">
+        <is>
+          <t>logs\aya_35b_llama3_70b_50_400_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="AQ24" t="n">
+        <v>1377.52</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0.8625</v>
+      </c>
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t>logs\aya_35b_llama3_70b_50_400_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="AT24" t="n">
+        <v>1377.52</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="AV24" t="inlineStr">
+        <is>
+          <t>logs\aya_35b_llama3_70b_50_400_test_fewshot_executable.txt</t>
+        </is>
+      </c>
+      <c r="AW24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>qwen2:7b-instruct-q5_K_M</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>50</v>
+      </c>
+      <c r="D25" t="n">
+        <v>400</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2597.97</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1308.04</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_50_400_test_match.txt</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>1308.04</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.86875</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_50_400_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1308.04</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.9125</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_50_400_test_executable.txt</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="AD25" t="n">
+        <v>140</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1024</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1289.92</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="AP25" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_50_400_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="AQ25" t="n">
+        <v>1289.92</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.8625</v>
+      </c>
+      <c r="AS25" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_50_400_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="AT25" t="n">
+        <v>1289.92</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0.94375</v>
+      </c>
+      <c r="AV25" t="inlineStr">
+        <is>
+          <t>logs\qwen2_7b_instruct_q5_K_M_llama3_70b_50_400_test_fewshot_executable.txt</t>
+        </is>
+      </c>
+      <c r="AW25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>deepseek-coder-v2:16b-lite-instruct-q5_K_M</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>50</v>
+      </c>
+      <c r="D26" t="n">
+        <v>400</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2595.2</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1299.8</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>logs\deepseek_coder_v2_16b_lite_instruct_q5_K_M_llama3_70b_50_400_test_match.txt</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>1299.8</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.89375</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>logs\deepseek_coder_v2_16b_lite_instruct_q5_K_M_llama3_70b_50_400_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1299.8</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>logs\deepseek_coder_v2_16b_lite_instruct_q5_K_M_llama3_70b_50_400_test_executable.txt</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="AD26" t="n">
+        <v>140</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1024</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1295.4</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="AP26" t="inlineStr">
+        <is>
+          <t>logs\deepseek_coder_v2_16b_lite_instruct_q5_K_M_llama3_70b_50_400_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="AQ26" t="n">
+        <v>1295.4</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0.89375</v>
+      </c>
+      <c r="AS26" t="inlineStr">
+        <is>
+          <t>logs\deepseek_coder_v2_16b_lite_instruct_q5_K_M_llama3_70b_50_400_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="AT26" t="n">
+        <v>1295.4</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="AV26" t="inlineStr">
+        <is>
+          <t>logs\deepseek_coder_v2_16b_lite_instruct_q5_K_M_llama3_70b_50_400_test_fewshot_executable.txt</t>
+        </is>
+      </c>
+      <c r="AW26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>llama3:8b-instruct-fp16</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>50</v>
+      </c>
+      <c r="D27" t="n">
+        <v>400</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2661.68</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1331.67</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.3375</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_fp16_llama3_70b_50_400_test_match.txt</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>1331.67</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.89375</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_fp16_llama3_70b_50_400_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1331.67</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_fp16_llama3_70b_50_400_test_executable.txt</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="AD27" t="n">
+        <v>140</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1024</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1330.01</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0.31875</v>
+      </c>
+      <c r="AP27" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_fp16_llama3_70b_50_400_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="AQ27" t="n">
+        <v>1330.01</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AS27" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_fp16_llama3_70b_50_400_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="AT27" t="n">
+        <v>1330.01</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="AV27" t="inlineStr">
+        <is>
+          <t>logs\llama3_8b_instruct_fp16_llama3_70b_50_400_test_fewshot_executable.txt</t>
+        </is>
+      </c>
+      <c r="AW27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>codegemma:7b-code-fp16</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>llama3:70b</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>50</v>
+      </c>
+      <c r="D28" t="n">
+        <v>400</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3104.41</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1527.38</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.24375</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>logs\codegemma_7b_code_fp16_llama3_70b_50_400_test_match.txt</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>1527.38</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.5875</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>logs\codegemma_7b_code_fp16_llama3_70b_50_400_test_correct.txt</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1527.38</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>logs\codegemma_7b_code_fp16_llama3_70b_50_400_test_executable.txt</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="AD28" t="n">
+        <v>140</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1024</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1577.03</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.30625</v>
+      </c>
+      <c r="AP28" t="inlineStr">
+        <is>
+          <t>logs\codegemma_7b_code_fp16_llama3_70b_50_400_test_fewshot_match.txt</t>
+        </is>
+      </c>
+      <c r="AQ28" t="n">
+        <v>1577.03</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="AS28" t="inlineStr">
+        <is>
+          <t>logs\codegemma_7b_code_fp16_llama3_70b_50_400_test_fewshot_correct.txt</t>
+        </is>
+      </c>
+      <c r="AT28" t="n">
+        <v>1577.03</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="AV28" t="inlineStr">
+        <is>
+          <t>logs\codegemma_7b_code_fp16_llama3_70b_50_400_test_fewshot_executable.txt</t>
+        </is>
+      </c>
+      <c r="AW28" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
